--- a/datasets/Ventas_Vori_Vost_2024.xlsx
+++ b/datasets/Ventas_Vori_Vost_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5B650F-6F8B-4C45-8999-8FF940D054C5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FACEB04-B7C2-41C4-B668-E7F470CA93E1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C751E623-A2D5-4481-B6AF-2D07DB0C8E71}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1249,21 +1249,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1625,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E294A03A-0BD5-47C2-87E5-BF6F2CE97FDF}">
   <dimension ref="A1:L686"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="B686" sqref="B686"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1645,76 +1644,76 @@
     <col min="12" max="12" width="6.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>45302</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>98493</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="I2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K2" s="4">
         <v>14773.949999999999</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1749,7 +1748,7 @@
       <c r="J3">
         <v>0.15</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>26384.956319999998</v>
       </c>
       <c r="L3" t="s">
@@ -1784,7 +1783,7 @@
       <c r="J4">
         <v>0.15</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <v>2810.4131999999995</v>
       </c>
       <c r="L4" t="s">
@@ -1819,7 +1818,7 @@
       <c r="J5">
         <v>0.15</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>25941.372899999998</v>
       </c>
       <c r="L5" t="s">
@@ -1854,7 +1853,7 @@
       <c r="J6">
         <v>0.15</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <v>79154.868959999993</v>
       </c>
       <c r="L6" t="s">
@@ -1889,7 +1888,7 @@
       <c r="J7">
         <v>0.15</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <v>79154.868959999993</v>
       </c>
       <c r="L7" t="s">
@@ -1927,7 +1926,7 @@
       <c r="J8">
         <v>0.15</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="5">
         <v>25941.372899999998</v>
       </c>
       <c r="L8" t="s">
@@ -1965,7 +1964,7 @@
       <c r="J9">
         <v>0.15</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <v>25941.372899999998</v>
       </c>
       <c r="L9" t="s">
@@ -2000,7 +1999,7 @@
       <c r="J10">
         <v>0.15</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>1500</v>
       </c>
       <c r="L10" t="s">
@@ -2035,7 +2034,7 @@
       <c r="J11">
         <v>0.15</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="5">
         <v>549149.59583999997</v>
       </c>
       <c r="L11" t="s">
@@ -2070,7 +2069,7 @@
       <c r="J12">
         <v>0.15</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <v>19620.988199999996</v>
       </c>
       <c r="L12" t="s">
@@ -2105,7 +2104,7 @@
       <c r="J13">
         <v>0.15</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="5">
         <v>9088.6589999999997</v>
       </c>
       <c r="L13" t="s">
@@ -2140,7 +2139,7 @@
       <c r="J14">
         <v>0.15</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="5">
         <v>148970.64299999998</v>
       </c>
       <c r="L14" t="s">
@@ -2178,7 +2177,7 @@
       <c r="J15">
         <v>0.15</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="5">
         <v>36108.602999999996</v>
       </c>
       <c r="L15" t="s">
@@ -2216,7 +2215,7 @@
       <c r="J16">
         <v>0.15</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>36108.602999999996</v>
       </c>
       <c r="L16" t="s">
@@ -2251,7 +2250,7 @@
       <c r="J17">
         <v>0.15</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="5">
         <v>60990.237000000001</v>
       </c>
       <c r="L17" t="s">
@@ -2286,7 +2285,7 @@
       <c r="J18">
         <v>0.15</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>82077.379919999992</v>
       </c>
       <c r="L18" t="s">
@@ -2321,7 +2320,7 @@
       <c r="J19">
         <v>0.15</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="5">
         <v>82077.379919999992</v>
       </c>
       <c r="L19" t="s">
@@ -2356,7 +2355,7 @@
       <c r="J20">
         <v>0.15</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="5">
         <v>12817.165500000001</v>
       </c>
       <c r="L20" t="s">
@@ -2391,7 +2390,7 @@
       <c r="J21">
         <v>0.15</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="5">
         <v>12817.165500000001</v>
       </c>
       <c r="L21" t="s">
@@ -2426,7 +2425,7 @@
       <c r="J22">
         <v>0.15</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="5">
         <v>53549.999879999996</v>
       </c>
       <c r="L22" t="s">
@@ -2461,7 +2460,7 @@
       <c r="J23">
         <v>0.15</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="5">
         <v>60990.237000000001</v>
       </c>
       <c r="L23" t="s">
@@ -2496,7 +2495,7 @@
       <c r="J24">
         <v>0.15</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="5">
         <v>23710.264860000003</v>
       </c>
       <c r="L24" t="s">
@@ -2531,7 +2530,7 @@
       <c r="J25">
         <v>0.15</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="5">
         <v>9088.6589999999997</v>
       </c>
       <c r="L25" t="s">
@@ -2566,7 +2565,7 @@
       <c r="J26">
         <v>0.15</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="5">
         <v>39209.400119999998</v>
       </c>
       <c r="L26" t="s">
@@ -2601,7 +2600,7 @@
       <c r="J27">
         <v>0.15</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="5">
         <v>25941.372899999998</v>
       </c>
       <c r="L27" t="s">
@@ -2639,7 +2638,7 @@
       <c r="J28">
         <v>0.15</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="5">
         <v>25941.372899999998</v>
       </c>
       <c r="L28" t="s">
@@ -2674,7 +2673,7 @@
       <c r="J29">
         <v>0.15</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="5">
         <v>161055.75222000002</v>
       </c>
       <c r="L29" t="s">
@@ -2709,7 +2708,7 @@
       <c r="J30">
         <v>0.15</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="5">
         <v>14773.949999999999</v>
       </c>
       <c r="L30" t="s">
@@ -2744,7 +2743,7 @@
       <c r="J31">
         <v>0.15</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="5">
         <v>148970.64299999998</v>
       </c>
       <c r="L31" t="s">
@@ -2779,7 +2778,7 @@
       <c r="J32">
         <v>0.02</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="5">
         <v>69733.48</v>
       </c>
       <c r="L32" t="s">
@@ -2814,7 +2813,7 @@
       <c r="J33">
         <v>0.02</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="5">
         <v>69733.48</v>
       </c>
       <c r="L33" t="s">
@@ -2849,7 +2848,7 @@
       <c r="J34">
         <v>0.02</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="5">
         <v>69733.48</v>
       </c>
       <c r="L34" t="s">
@@ -2884,7 +2883,7 @@
       <c r="J35">
         <v>0.02</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="5">
         <v>69733.48</v>
       </c>
       <c r="L35" t="s">
@@ -2919,7 +2918,7 @@
       <c r="J36">
         <v>0.02</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="5">
         <v>69733.48</v>
       </c>
       <c r="L36" t="s">
@@ -2954,7 +2953,7 @@
       <c r="J37">
         <v>0.02</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="5">
         <v>69733.48</v>
       </c>
       <c r="L37" t="s">
@@ -2989,7 +2988,7 @@
       <c r="J38">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L38" t="s">
@@ -3024,7 +3023,7 @@
       <c r="J39">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L39" t="s">
@@ -3059,7 +3058,7 @@
       <c r="J40">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L40" t="s">
@@ -3094,7 +3093,7 @@
       <c r="J41">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L41" t="s">
@@ -3129,7 +3128,7 @@
       <c r="J42">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L42" t="s">
@@ -3164,7 +3163,7 @@
       <c r="J43">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L43" t="s">
@@ -3199,7 +3198,7 @@
       <c r="J44">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L44" t="s">
@@ -3234,7 +3233,7 @@
       <c r="J45">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L45" t="s">
@@ -3269,7 +3268,7 @@
       <c r="J46">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L46" t="s">
@@ -3304,7 +3303,7 @@
       <c r="J47">
         <v>0.1</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="5">
         <v>60000</v>
       </c>
       <c r="L47" t="s">
@@ -3339,7 +3338,7 @@
       <c r="J48">
         <v>0.1</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="5">
         <v>60000</v>
       </c>
       <c r="L48" t="s">
@@ -3374,7 +3373,7 @@
       <c r="J49">
         <v>0.1</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="5">
         <v>60000</v>
       </c>
       <c r="L49" t="s">
@@ -3409,7 +3408,7 @@
       <c r="J50">
         <v>0.1</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="5">
         <v>60000</v>
       </c>
       <c r="L50" t="s">
@@ -3444,7 +3443,7 @@
       <c r="J51">
         <v>0.4</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="5">
         <v>107168.98496000002</v>
       </c>
       <c r="L51" t="s">
@@ -3479,7 +3478,7 @@
       <c r="J52">
         <v>0.4</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="5">
         <v>63227.372960000008</v>
       </c>
       <c r="L52" t="s">
@@ -3514,7 +3513,7 @@
       <c r="J53">
         <v>0.4</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="5">
         <v>145475.36335999999</v>
       </c>
       <c r="L53" t="s">
@@ -3549,7 +3548,7 @@
       <c r="J54">
         <v>0.4</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="5">
         <v>362172.18400000001</v>
       </c>
       <c r="L54" t="s">
@@ -3584,7 +3583,7 @@
       <c r="J55">
         <v>0.4</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="5">
         <v>92634.509759999986</v>
       </c>
       <c r="L55" t="s">
@@ -3619,7 +3618,7 @@
       <c r="J56">
         <v>0.4</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="5">
         <v>78325.889760000005</v>
       </c>
       <c r="L56" t="s">
@@ -3654,7 +3653,7 @@
       <c r="J57">
         <v>0.4</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="5">
         <v>332295.18223999999</v>
       </c>
       <c r="L57" t="s">
@@ -3689,7 +3688,7 @@
       <c r="J58">
         <v>0.2</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="5">
         <v>44152.83872</v>
       </c>
       <c r="L58" t="s">
@@ -3724,7 +3723,7 @@
       <c r="J59">
         <v>0.01</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="5">
         <v>34866.74</v>
       </c>
       <c r="L59" t="s">
@@ -3759,7 +3758,7 @@
       <c r="J60">
         <v>0.01</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="5">
         <v>34866.74</v>
       </c>
       <c r="L60" t="s">
@@ -3794,7 +3793,7 @@
       <c r="J61">
         <v>0.01</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="5">
         <v>34866.74</v>
       </c>
       <c r="L61" t="s">
@@ -3829,7 +3828,7 @@
       <c r="J62">
         <v>0.01</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="5">
         <v>34866.74</v>
       </c>
       <c r="L62" t="s">
@@ -3864,7 +3863,7 @@
       <c r="J63">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="5">
         <v>32400</v>
       </c>
       <c r="L63" t="s">
@@ -3899,7 +3898,7 @@
       <c r="J64">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="5">
         <v>32400</v>
       </c>
       <c r="L64" t="s">
@@ -3934,7 +3933,7 @@
       <c r="J65">
         <v>0.1</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="5">
         <v>35200</v>
       </c>
       <c r="L65" t="s">
@@ -3972,7 +3971,7 @@
       <c r="J66">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L66" t="s">
@@ -4010,7 +4009,7 @@
       <c r="J67">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L67" t="s">
@@ -4045,7 +4044,7 @@
       <c r="J68">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L68" t="s">
@@ -4080,7 +4079,7 @@
       <c r="J69">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L69" t="s">
@@ -4115,7 +4114,7 @@
       <c r="J70">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L70" t="s">
@@ -4150,7 +4149,7 @@
       <c r="J71">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L71" t="s">
@@ -4185,7 +4184,7 @@
       <c r="J72">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L72" t="s">
@@ -4220,7 +4219,7 @@
       <c r="J73">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L73" t="s">
@@ -4255,7 +4254,7 @@
       <c r="J74">
         <v>0.2</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="5">
         <v>53584.492480000008</v>
       </c>
       <c r="L74" t="s">
@@ -4290,7 +4289,7 @@
       <c r="J75">
         <v>0.2</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="5">
         <v>31613.686480000004</v>
       </c>
       <c r="L75" t="s">
@@ -4325,7 +4324,7 @@
       <c r="J76">
         <v>0.2</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="5">
         <v>72737.681679999994</v>
       </c>
       <c r="L76" t="s">
@@ -4360,7 +4359,7 @@
       <c r="J77">
         <v>0.2</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="5">
         <v>181086.092</v>
       </c>
       <c r="L77" t="s">
@@ -4398,7 +4397,7 @@
       <c r="J78">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="5">
         <v>47270.599955555561</v>
       </c>
       <c r="L78" t="s">
@@ -4433,7 +4432,7 @@
       <c r="J79">
         <v>0.2</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="5">
         <v>166147.59112</v>
       </c>
       <c r="L79" t="s">
@@ -4468,7 +4467,7 @@
       <c r="J80">
         <v>0.1</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="5">
         <v>22076.41936</v>
       </c>
       <c r="L80" t="s">
@@ -4503,7 +4502,7 @@
       <c r="J81">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="5">
         <v>52869.792506666658</v>
       </c>
       <c r="L81" t="s">
@@ -4538,7 +4537,7 @@
       <c r="J82">
         <v>0.2</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="5">
         <v>8467.2302400000008</v>
       </c>
       <c r="L82" t="s">
@@ -4573,7 +4572,7 @@
       <c r="J83">
         <v>0.1</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="5">
         <v>26792.246240000004</v>
       </c>
       <c r="L83" t="s">
@@ -4608,7 +4607,7 @@
       <c r="J84">
         <v>0.1</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="5">
         <v>15806.843240000002</v>
       </c>
       <c r="L84" t="s">
@@ -4643,7 +4642,7 @@
       <c r="J85">
         <v>0.02</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="5">
         <v>69733.48</v>
       </c>
       <c r="L85" t="s">
@@ -4678,7 +4677,7 @@
       <c r="J86">
         <v>0.02</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="5">
         <v>69733.48</v>
       </c>
       <c r="L86" t="s">
@@ -4713,7 +4712,7 @@
       <c r="J87">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="5">
         <v>17433.37</v>
       </c>
       <c r="L87" t="s">
@@ -4748,7 +4747,7 @@
       <c r="J88">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="5">
         <v>16200</v>
       </c>
       <c r="L88" t="s">
@@ -4783,7 +4782,7 @@
       <c r="J89">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="5">
         <v>16200</v>
       </c>
       <c r="L89" t="s">
@@ -4818,7 +4817,7 @@
       <c r="J90">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L90" t="s">
@@ -4853,7 +4852,7 @@
       <c r="J91">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L91" t="s">
@@ -4888,7 +4887,7 @@
       <c r="J92">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L92" t="s">
@@ -4923,7 +4922,7 @@
       <c r="J93">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L93" t="s">
@@ -4958,7 +4957,7 @@
       <c r="J94">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L94" t="s">
@@ -4993,7 +4992,7 @@
       <c r="J95">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L95" t="s">
@@ -5028,7 +5027,7 @@
       <c r="J96">
         <v>0.1</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="5">
         <v>24163.518039999999</v>
       </c>
       <c r="L96" t="s">
@@ -5063,7 +5062,7 @@
       <c r="J97">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="5">
         <v>26373.125</v>
       </c>
       <c r="L97" t="s">
@@ -5098,7 +5097,7 @@
       <c r="J98">
         <v>0.1</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="5">
         <v>22004.693280000003</v>
       </c>
       <c r="L98" t="s">
@@ -5133,7 +5132,7 @@
       <c r="J99">
         <v>0.1</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="5">
         <v>11716.16588</v>
       </c>
       <c r="L99" t="s">
@@ -5168,7 +5167,7 @@
       <c r="J100">
         <v>0.15</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="5">
         <v>153874.23431999999</v>
       </c>
       <c r="L100" t="s">
@@ -5203,7 +5202,7 @@
       <c r="J101">
         <v>0.2</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="5">
         <v>44152.83872</v>
       </c>
       <c r="L101" t="s">
@@ -5238,7 +5237,7 @@
       <c r="J102">
         <v>0.1</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="5">
         <v>22076.41936</v>
       </c>
       <c r="L102" t="s">
@@ -5273,7 +5272,7 @@
       <c r="J103">
         <v>0.1</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="5">
         <v>4001.9778000000001</v>
       </c>
       <c r="L103" t="s">
@@ -5308,7 +5307,7 @@
       <c r="J104">
         <v>0.1</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="5">
         <v>6750.8100000000013</v>
       </c>
       <c r="L104" t="s">
@@ -5343,7 +5342,7 @@
       <c r="J105">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="5">
         <v>26373.125</v>
       </c>
       <c r="L105" t="s">
@@ -5378,7 +5377,7 @@
       <c r="J106">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="5">
         <v>26373.125</v>
       </c>
       <c r="L106" t="s">
@@ -5413,7 +5412,7 @@
       <c r="J107">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="5">
         <v>26373.125</v>
       </c>
       <c r="L107" t="s">
@@ -5448,7 +5447,7 @@
       <c r="J108">
         <v>1</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="5">
         <v>60325.671999999999</v>
       </c>
       <c r="L108" t="s">
@@ -5483,7 +5482,7 @@
       <c r="J109">
         <v>1</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="5">
         <v>68531.837199999994</v>
       </c>
       <c r="L109" t="s">
@@ -5518,7 +5517,7 @@
       <c r="J110">
         <v>0.15</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="5">
         <v>6252.9927599999983</v>
       </c>
       <c r="L110" t="s">
@@ -5553,7 +5552,7 @@
       <c r="J111">
         <v>0.15</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="5">
         <v>101.91744</v>
       </c>
       <c r="L111" t="s">
@@ -5588,7 +5587,7 @@
       <c r="J112">
         <v>0.15</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="5">
         <v>39823.199999999997</v>
       </c>
       <c r="L112" t="s">
@@ -5626,7 +5625,7 @@
       <c r="J113">
         <v>1</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="5">
         <v>17177.0016</v>
       </c>
       <c r="L113" t="s">
@@ -5661,7 +5660,7 @@
       <c r="J114">
         <v>0.15</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="5">
         <v>2634.1494600000001</v>
       </c>
       <c r="L114" t="s">
@@ -5696,7 +5695,7 @@
       <c r="J115">
         <v>0.15</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="5">
         <v>4690.0133999999998</v>
       </c>
       <c r="L115" t="s">
@@ -5731,7 +5730,7 @@
       <c r="J116">
         <v>1</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="5">
         <v>150540.87</v>
       </c>
       <c r="L116" t="s">
@@ -5766,7 +5765,7 @@
       <c r="J117">
         <v>0.15</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="5">
         <v>11702.026499999998</v>
       </c>
       <c r="L117" t="s">
@@ -5801,7 +5800,7 @@
       <c r="J118">
         <v>0.15</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="5">
         <v>19620.988199999996</v>
       </c>
       <c r="L118" t="s">
@@ -5836,7 +5835,7 @@
       <c r="J119">
         <v>0.15</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="5">
         <v>62057.57652000001</v>
       </c>
       <c r="L119" t="s">
@@ -5871,7 +5870,7 @@
       <c r="J120">
         <v>0.15</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K120" s="5">
         <v>74056.825559999983</v>
       </c>
       <c r="L120" t="s">
@@ -5906,7 +5905,7 @@
       <c r="J121">
         <v>0.15</v>
       </c>
-      <c r="K121" s="2">
+      <c r="K121" s="5">
         <v>4690.0133999999998</v>
       </c>
       <c r="L121" t="s">
@@ -5944,7 +5943,7 @@
       <c r="J122">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="5">
         <v>64800</v>
       </c>
       <c r="L122" t="s">
@@ -5979,7 +5978,7 @@
       <c r="J123">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="5">
         <v>64800</v>
       </c>
       <c r="L123" t="s">
@@ -6017,7 +6016,7 @@
       <c r="J124">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L124" t="s">
@@ -6055,7 +6054,7 @@
       <c r="J125">
         <v>0.1</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="5">
         <v>71200</v>
       </c>
       <c r="L125" t="s">
@@ -6093,7 +6092,7 @@
       <c r="J126">
         <v>0.1</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="5">
         <v>71200</v>
       </c>
       <c r="L126" t="s">
@@ -6131,7 +6130,7 @@
       <c r="J127">
         <v>0.4</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127" s="5">
         <v>69176.994400000011</v>
       </c>
       <c r="L127" t="s">
@@ -6166,7 +6165,7 @@
       <c r="J128">
         <v>0.4</v>
       </c>
-      <c r="K128" s="2">
+      <c r="K128" s="5">
         <v>69176.994400000011</v>
       </c>
       <c r="L128" t="s">
@@ -6201,7 +6200,7 @@
       <c r="J129">
         <v>0.15</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129" s="5">
         <v>24501.622080000001</v>
       </c>
       <c r="L129" t="s">
@@ -6236,7 +6235,7 @@
       <c r="J130">
         <v>0.4</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K130" s="5">
         <v>65337.658880000003</v>
       </c>
       <c r="L130" t="s">
@@ -6271,7 +6270,7 @@
       <c r="J131">
         <v>0.13333333333333333</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131" s="5">
         <v>70359.883519999988</v>
       </c>
       <c r="L131" t="s">
@@ -6309,7 +6308,7 @@
       <c r="J132">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K132" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L132" t="s">
@@ -6347,7 +6346,7 @@
       <c r="J133">
         <v>5.7142857142857148E-2</v>
       </c>
-      <c r="K133" s="2">
+      <c r="K133" s="5">
         <v>64667.731428571438</v>
       </c>
       <c r="L133" t="s">
@@ -6382,7 +6381,7 @@
       <c r="J134">
         <v>5.7142857142857148E-2</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="5">
         <v>64667.731428571438</v>
       </c>
       <c r="L134" t="s">
@@ -6417,7 +6416,7 @@
       <c r="J135">
         <v>0.4</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="5">
         <v>104558.40032</v>
       </c>
       <c r="L135" t="s">
@@ -6455,7 +6454,7 @@
       <c r="J136">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K136" s="2">
+      <c r="K136" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L136" t="s">
@@ -6493,7 +6492,7 @@
       <c r="J137">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L137" t="s">
@@ -6531,7 +6530,7 @@
       <c r="J138">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L138" t="s">
@@ -6569,7 +6568,7 @@
       <c r="J139">
         <v>0.1</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139" s="5">
         <v>71200</v>
       </c>
       <c r="L139" t="s">
@@ -6607,7 +6606,7 @@
       <c r="J140">
         <v>0.1</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140" s="5">
         <v>71200</v>
       </c>
       <c r="L140" t="s">
@@ -6642,7 +6641,7 @@
       <c r="J141">
         <v>0.4</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141" s="5">
         <v>197484.86815999998</v>
       </c>
       <c r="L141" t="s">
@@ -6677,7 +6676,7 @@
       <c r="J142">
         <v>0.4</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="5">
         <v>162640.63200000001</v>
       </c>
       <c r="L142" t="s">
@@ -6712,7 +6711,7 @@
       <c r="J143">
         <v>0.4</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="5">
         <v>95200</v>
       </c>
       <c r="L143" t="s">
@@ -6747,7 +6746,7 @@
       <c r="J144">
         <v>0.4</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144" s="5">
         <v>398137.652</v>
       </c>
       <c r="L144" t="s">
@@ -6785,7 +6784,7 @@
       <c r="J145">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="5">
         <v>94541.199911111122</v>
       </c>
       <c r="L145" t="s">
@@ -6823,7 +6822,7 @@
       <c r="J146">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="5">
         <v>47270.599955555561</v>
       </c>
       <c r="L146" t="s">
@@ -6858,7 +6857,7 @@
       <c r="J147">
         <v>0.2</v>
       </c>
-      <c r="K147" s="2">
+      <c r="K147" s="5">
         <v>199068.826</v>
       </c>
       <c r="L147" t="s">
@@ -6893,7 +6892,7 @@
       <c r="J148">
         <v>0.2</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="5">
         <v>47600</v>
       </c>
       <c r="L148" t="s">
@@ -6928,7 +6927,7 @@
       <c r="J149">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K149" s="2">
+      <c r="K149" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L149" t="s">
@@ -6963,7 +6962,7 @@
       <c r="J150">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L150" t="s">
@@ -6998,7 +6997,7 @@
       <c r="J151">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K151" s="2">
+      <c r="K151" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L151" t="s">
@@ -7033,7 +7032,7 @@
       <c r="J152">
         <v>0.2</v>
       </c>
-      <c r="K152" s="2">
+      <c r="K152" s="5">
         <v>46317.254879999993</v>
       </c>
       <c r="L152" t="s">
@@ -7071,7 +7070,7 @@
       <c r="J153">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L153" t="s">
@@ -7109,7 +7108,7 @@
       <c r="J154">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L154" t="s">
@@ -7144,7 +7143,7 @@
       <c r="J155">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L155" t="s">
@@ -7179,7 +7178,7 @@
       <c r="J156">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L156" t="s">
@@ -7217,7 +7216,7 @@
       <c r="J157">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K157" s="2">
+      <c r="K157" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L157" t="s">
@@ -7252,7 +7251,7 @@
       <c r="J158">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158" s="5">
         <v>52869.792506666658</v>
       </c>
       <c r="L158" t="s">
@@ -7287,7 +7286,7 @@
       <c r="J159">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="5">
         <v>52869.792506666658</v>
       </c>
       <c r="L159" t="s">
@@ -7325,7 +7324,7 @@
       <c r="J160">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160" s="5">
         <v>17433.37</v>
       </c>
       <c r="L160" t="s">
@@ -7363,7 +7362,7 @@
       <c r="J161">
         <v>0.01</v>
       </c>
-      <c r="K161" s="2">
+      <c r="K161" s="5">
         <v>34866.74</v>
       </c>
       <c r="L161" t="s">
@@ -7401,7 +7400,7 @@
       <c r="J162">
         <v>0.01</v>
       </c>
-      <c r="K162" s="2">
+      <c r="K162" s="5">
         <v>34866.74</v>
       </c>
       <c r="L162" t="s">
@@ -7439,7 +7438,7 @@
       <c r="J163">
         <v>0.01</v>
       </c>
-      <c r="K163" s="2">
+      <c r="K163" s="5">
         <v>34866.74</v>
       </c>
       <c r="L163" t="s">
@@ -7477,7 +7476,7 @@
       <c r="J164">
         <v>0.01</v>
       </c>
-      <c r="K164" s="2">
+      <c r="K164" s="5">
         <v>34866.74</v>
       </c>
       <c r="L164" t="s">
@@ -7515,7 +7514,7 @@
       <c r="J165">
         <v>0.01</v>
       </c>
-      <c r="K165" s="2">
+      <c r="K165" s="5">
         <v>34866.74</v>
       </c>
       <c r="L165" t="s">
@@ -7553,7 +7552,7 @@
       <c r="J166">
         <v>0.01</v>
       </c>
-      <c r="K166" s="2">
+      <c r="K166" s="5">
         <v>34866.74</v>
       </c>
       <c r="L166" t="s">
@@ -7588,7 +7587,7 @@
       <c r="J167">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K167" s="2">
+      <c r="K167" s="5">
         <v>32333.865714285719</v>
       </c>
       <c r="L167" t="s">
@@ -7623,7 +7622,7 @@
       <c r="J168">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K168" s="2">
+      <c r="K168" s="5">
         <v>32333.865714285719</v>
       </c>
       <c r="L168" t="s">
@@ -7658,7 +7657,7 @@
       <c r="J169">
         <v>0.4</v>
       </c>
-      <c r="K169" s="2">
+      <c r="K169" s="5">
         <v>5186.1600000000008</v>
       </c>
       <c r="L169" t="s">
@@ -7693,7 +7692,7 @@
       <c r="J170">
         <v>0.2</v>
       </c>
-      <c r="K170" s="2">
+      <c r="K170" s="5">
         <v>2593.0800000000004</v>
       </c>
       <c r="L170" t="s">
@@ -7728,7 +7727,7 @@
       <c r="J171">
         <v>0.2</v>
       </c>
-      <c r="K171" s="2">
+      <c r="K171" s="5">
         <v>52279.20016</v>
       </c>
       <c r="L171" t="s">
@@ -7766,7 +7765,7 @@
       <c r="J172">
         <v>0.2</v>
       </c>
-      <c r="K172" s="2">
+      <c r="K172" s="5">
         <v>34588.497200000005</v>
       </c>
       <c r="L172" t="s">
@@ -7801,7 +7800,7 @@
       <c r="J173">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K173" s="2">
+      <c r="K173" s="5">
         <v>32400</v>
       </c>
       <c r="L173" t="s">
@@ -7836,7 +7835,7 @@
       <c r="J174">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K174" s="2">
+      <c r="K174" s="5">
         <v>32400</v>
       </c>
       <c r="L174" t="s">
@@ -7871,7 +7870,7 @@
       <c r="J175">
         <v>0.1</v>
       </c>
-      <c r="K175" s="2">
+      <c r="K175" s="5">
         <v>35200</v>
       </c>
       <c r="L175" t="s">
@@ -7909,7 +7908,7 @@
       <c r="J176">
         <v>0.05</v>
       </c>
-      <c r="K176" s="2">
+      <c r="K176" s="5">
         <v>35600</v>
       </c>
       <c r="L176" t="s">
@@ -7947,7 +7946,7 @@
       <c r="J177">
         <v>0.05</v>
       </c>
-      <c r="K177" s="2">
+      <c r="K177" s="5">
         <v>35600</v>
       </c>
       <c r="L177" t="s">
@@ -7982,7 +7981,7 @@
       <c r="J178">
         <v>0.2</v>
       </c>
-      <c r="K178" s="2">
+      <c r="K178" s="5">
         <v>39162.944880000003</v>
       </c>
       <c r="L178" t="s">
@@ -8017,7 +8016,7 @@
       <c r="J179">
         <v>0.05</v>
       </c>
-      <c r="K179" s="2">
+      <c r="K179" s="5">
         <v>30000</v>
       </c>
       <c r="L179" t="s">
@@ -8055,7 +8054,7 @@
       <c r="J180">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K180" s="2">
+      <c r="K180" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L180" t="s">
@@ -8093,7 +8092,7 @@
       <c r="J181">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K181" s="2">
+      <c r="K181" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L181" t="s">
@@ -8128,7 +8127,7 @@
       <c r="J182">
         <v>0.1</v>
       </c>
-      <c r="K182" s="2">
+      <c r="K182" s="5">
         <v>4233.6151200000004</v>
       </c>
       <c r="L182" t="s">
@@ -8163,7 +8162,7 @@
       <c r="J183">
         <v>0.1</v>
       </c>
-      <c r="K183" s="2">
+      <c r="K183" s="5">
         <v>1296.5400000000002</v>
       </c>
       <c r="L183" t="s">
@@ -8198,7 +8197,7 @@
       <c r="J184">
         <v>0.1</v>
       </c>
-      <c r="K184" s="2">
+      <c r="K184" s="5">
         <v>27088.806039999996</v>
       </c>
       <c r="L184" t="s">
@@ -8236,7 +8235,7 @@
       <c r="J185">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K185" s="2">
+      <c r="K185" s="5">
         <v>35179.941759999994</v>
       </c>
       <c r="L185" t="s">
@@ -8274,7 +8273,7 @@
       <c r="J186">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K186" s="2">
+      <c r="K186" s="5">
         <v>17589.970879999997</v>
       </c>
       <c r="L186" t="s">
@@ -8312,7 +8311,7 @@
       <c r="J187">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K187" s="2">
+      <c r="K187" s="5">
         <v>17433.37</v>
       </c>
       <c r="L187" t="s">
@@ -8347,7 +8346,7 @@
       <c r="J188">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K188" s="2">
+      <c r="K188" s="5">
         <v>16200</v>
       </c>
       <c r="L188" t="s">
@@ -8385,7 +8384,7 @@
       <c r="J189">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K189" s="2">
+      <c r="K189" s="5">
         <v>17433.37</v>
       </c>
       <c r="L189" t="s">
@@ -8420,7 +8419,7 @@
       <c r="J190">
         <v>1.4285714285714287E-2</v>
       </c>
-      <c r="K190" s="2">
+      <c r="K190" s="5">
         <v>16166.93285714286</v>
       </c>
       <c r="L190" t="s">
@@ -8455,7 +8454,7 @@
       <c r="J191">
         <v>1.4285714285714287E-2</v>
       </c>
-      <c r="K191" s="2">
+      <c r="K191" s="5">
         <v>16166.93285714286</v>
       </c>
       <c r="L191" t="s">
@@ -8490,7 +8489,7 @@
       <c r="J192">
         <v>0.05</v>
       </c>
-      <c r="K192" s="2">
+      <c r="K192" s="5">
         <v>11038.20968</v>
       </c>
       <c r="L192" t="s">
@@ -8525,7 +8524,7 @@
       <c r="J193">
         <v>0.05</v>
       </c>
-      <c r="K193" s="2">
+      <c r="K193" s="5">
         <v>11038.20968</v>
       </c>
       <c r="L193" t="s">
@@ -8563,7 +8562,7 @@
       <c r="J194">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K194" s="2">
+      <c r="K194" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L194" t="s">
@@ -8601,7 +8600,7 @@
       <c r="J195">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K195" s="2">
+      <c r="K195" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L195" t="s">
@@ -8639,7 +8638,7 @@
       <c r="J196">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K196" s="2">
+      <c r="K196" s="5">
         <v>35179.941759999994</v>
       </c>
       <c r="L196" t="s">
@@ -8677,7 +8676,7 @@
       <c r="J197">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K197" s="2">
+      <c r="K197" s="5">
         <v>17589.970879999997</v>
       </c>
       <c r="L197" t="s">
@@ -8712,7 +8711,7 @@
       <c r="J198">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K198" s="2">
+      <c r="K198" s="5">
         <v>16200</v>
       </c>
       <c r="L198" t="s">
@@ -8750,7 +8749,7 @@
       <c r="J199">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K199" s="2">
+      <c r="K199" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L199" t="s">
@@ -8785,7 +8784,7 @@
       <c r="J200">
         <v>0.1</v>
       </c>
-      <c r="K200" s="2">
+      <c r="K200" s="5">
         <v>24165.544320000005</v>
       </c>
       <c r="L200" t="s">
@@ -8823,7 +8822,7 @@
       <c r="J201">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K201" s="2">
+      <c r="K201" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L201" t="s">
@@ -8858,7 +8857,7 @@
       <c r="J202">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K202" s="2">
+      <c r="K202" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L202" t="s">
@@ -8893,7 +8892,7 @@
       <c r="J203">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K203" s="2">
+      <c r="K203" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L203" t="s">
@@ -8928,7 +8927,7 @@
       <c r="J204">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K204" s="2">
+      <c r="K204" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L204" t="s">
@@ -8966,7 +8965,7 @@
       <c r="J205">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K205" s="2">
+      <c r="K205" s="5">
         <v>17433.37</v>
       </c>
       <c r="L205" t="s">
@@ -9004,7 +9003,7 @@
       <c r="J206">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K206" s="2">
+      <c r="K206" s="5">
         <v>17433.37</v>
       </c>
       <c r="L206" t="s">
@@ -9042,7 +9041,7 @@
       <c r="J207">
         <v>0.05</v>
       </c>
-      <c r="K207" s="2">
+      <c r="K207" s="5">
         <v>17600</v>
       </c>
       <c r="L207" t="s">
@@ -9080,7 +9079,7 @@
       <c r="J208">
         <v>0.15</v>
       </c>
-      <c r="K208" s="2">
+      <c r="K208" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L208" t="s">
@@ -9118,7 +9117,7 @@
       <c r="J209">
         <v>0.15</v>
       </c>
-      <c r="K209" s="2">
+      <c r="K209" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L209" t="s">
@@ -9156,7 +9155,7 @@
       <c r="J210">
         <v>0.15</v>
       </c>
-      <c r="K210" s="2">
+      <c r="K210" s="5">
         <v>34797.315179999998</v>
       </c>
       <c r="L210" t="s">
@@ -9194,7 +9193,7 @@
       <c r="J211">
         <v>0.15</v>
       </c>
-      <c r="K211" s="2">
+      <c r="K211" s="5">
         <v>34797.315179999998</v>
       </c>
       <c r="L211" t="s">
@@ -9232,7 +9231,7 @@
       <c r="J212">
         <v>0.15</v>
       </c>
-      <c r="K212" s="2">
+      <c r="K212" s="5">
         <v>34797.315179999998</v>
       </c>
       <c r="L212" t="s">
@@ -9270,7 +9269,7 @@
       <c r="J213">
         <v>0.15</v>
       </c>
-      <c r="K213" s="2">
+      <c r="K213" s="5">
         <v>34797.315179999998</v>
       </c>
       <c r="L213" t="s">
@@ -9305,7 +9304,7 @@
       <c r="J214">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K214" s="2">
+      <c r="K214" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L214" t="s">
@@ -9340,7 +9339,7 @@
       <c r="J215">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K215" s="2">
+      <c r="K215" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L215" t="s">
@@ -9375,7 +9374,7 @@
       <c r="J216">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K216" s="2">
+      <c r="K216" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L216" t="s">
@@ -9410,7 +9409,7 @@
       <c r="J217">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K217" s="2">
+      <c r="K217" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L217" t="s">
@@ -9445,7 +9444,7 @@
       <c r="J218">
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="K218" s="2">
+      <c r="K218" s="5">
         <v>12068.567397647059</v>
       </c>
       <c r="L218" t="s">
@@ -9483,7 +9482,7 @@
       <c r="J219">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K219" s="2">
+      <c r="K219" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L219" t="s">
@@ -9521,7 +9520,7 @@
       <c r="J220">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K220" s="2">
+      <c r="K220" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L220" t="s">
@@ -9559,7 +9558,7 @@
       <c r="J221">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K221" s="2">
+      <c r="K221" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L221" t="s">
@@ -9597,7 +9596,7 @@
       <c r="J222">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="K222" s="2">
+      <c r="K222" s="5">
         <v>302352.20228999993</v>
       </c>
       <c r="L222" t="s">
@@ -9635,7 +9634,7 @@
       <c r="J223">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="K223" s="2">
+      <c r="K223" s="5">
         <v>302352.20228999993</v>
       </c>
       <c r="L223" t="s">
@@ -9673,7 +9672,7 @@
       <c r="J224">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K224" s="2">
+      <c r="K224" s="5">
         <v>17800</v>
       </c>
       <c r="L224" t="s">
@@ -9711,7 +9710,7 @@
       <c r="J225">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K225" s="2">
+      <c r="K225" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L225" t="s">
@@ -9749,7 +9748,7 @@
       <c r="J226">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K226" s="2">
+      <c r="K226" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L226" t="s">
@@ -9784,7 +9783,7 @@
       <c r="J227">
         <v>1</v>
       </c>
-      <c r="K227" s="2">
+      <c r="K227" s="5">
         <v>45593.830800000003</v>
       </c>
       <c r="L227" t="s">
@@ -9819,7 +9818,7 @@
       <c r="J228">
         <v>0.15</v>
       </c>
-      <c r="K228" s="2">
+      <c r="K228" s="5">
         <v>27128.1636</v>
       </c>
       <c r="L228" t="s">
@@ -9854,7 +9853,7 @@
       <c r="J229">
         <v>0.15</v>
       </c>
-      <c r="K229" s="2">
+      <c r="K229" s="5">
         <v>1412.0726399999996</v>
       </c>
       <c r="L229" t="s">
@@ -9889,7 +9888,7 @@
       <c r="J230">
         <v>0.15</v>
       </c>
-      <c r="K230" s="2">
+      <c r="K230" s="5">
         <v>2557.2779999999998</v>
       </c>
       <c r="L230" t="s">
@@ -9924,7 +9923,7 @@
       <c r="J231">
         <v>0.15</v>
       </c>
-      <c r="K231" s="2">
+      <c r="K231" s="5">
         <v>615.08651999999995</v>
       </c>
       <c r="L231" t="s">
@@ -9962,7 +9961,7 @@
       <c r="J232">
         <v>0.15</v>
       </c>
-      <c r="K232" s="2">
+      <c r="K232" s="5">
         <v>34590.577079999995</v>
       </c>
       <c r="L232" t="s">
@@ -10000,7 +9999,7 @@
       <c r="J233">
         <v>0.15</v>
       </c>
-      <c r="K233" s="2">
+      <c r="K233" s="5">
         <v>34590.577079999995</v>
       </c>
       <c r="L233" t="s">
@@ -10038,7 +10037,7 @@
       <c r="J234">
         <v>0.15</v>
       </c>
-      <c r="K234" s="2">
+      <c r="K234" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L234" t="s">
@@ -10073,7 +10072,7 @@
       <c r="J235">
         <v>0.15</v>
       </c>
-      <c r="K235" s="2">
+      <c r="K235" s="5">
         <v>13040.186400000001</v>
       </c>
       <c r="L235" t="s">
@@ -10111,7 +10110,7 @@
       <c r="J236">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K236" s="2">
+      <c r="K236" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L236" t="s">
@@ -10146,7 +10145,7 @@
       <c r="J237">
         <v>0.4</v>
       </c>
-      <c r="K237" s="2">
+      <c r="K237" s="5">
         <v>142799.99967999998</v>
       </c>
       <c r="L237" t="s">
@@ -10181,7 +10180,7 @@
       <c r="J238">
         <v>0.15</v>
       </c>
-      <c r="K238" s="2">
+      <c r="K238" s="5">
         <v>2634.1494600000001</v>
       </c>
       <c r="L238" t="s">
@@ -10216,7 +10215,7 @@
       <c r="J239">
         <v>0.4</v>
       </c>
-      <c r="K239" s="2">
+      <c r="K239" s="5">
         <v>7024.3985600000005</v>
       </c>
       <c r="L239" t="s">
@@ -10251,7 +10250,7 @@
       <c r="J240">
         <v>0.4</v>
       </c>
-      <c r="K240" s="2">
+      <c r="K240" s="5">
         <v>12506.7024</v>
       </c>
       <c r="L240" t="s">
@@ -10286,7 +10285,7 @@
       <c r="J241">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K241" s="2">
+      <c r="K241" s="5">
         <v>64800</v>
       </c>
       <c r="L241" t="s">
@@ -10321,7 +10320,7 @@
       <c r="J242">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K242" s="2">
+      <c r="K242" s="5">
         <v>64800</v>
       </c>
       <c r="L242" t="s">
@@ -10359,7 +10358,7 @@
       <c r="J243">
         <v>5.7142857142857148E-2</v>
       </c>
-      <c r="K243" s="2">
+      <c r="K243" s="5">
         <v>64667.731428571438</v>
       </c>
       <c r="L243" t="s">
@@ -10394,7 +10393,7 @@
       <c r="J244">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K244" s="2">
+      <c r="K244" s="5">
         <v>32333.865714285719</v>
       </c>
       <c r="L244" t="s">
@@ -10429,7 +10428,7 @@
       <c r="J245">
         <v>1.4285714285714287E-2</v>
       </c>
-      <c r="K245" s="2">
+      <c r="K245" s="5">
         <v>16166.93285714286</v>
       </c>
       <c r="L245" t="s">
@@ -10467,7 +10466,7 @@
       <c r="J246">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K246" s="2">
+      <c r="K246" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L246" t="s">
@@ -10505,7 +10504,7 @@
       <c r="J247">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K247" s="2">
+      <c r="K247" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L247" t="s">
@@ -10543,7 +10542,7 @@
       <c r="J248">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K248" s="2">
+      <c r="K248" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L248" t="s">
@@ -10581,7 +10580,7 @@
       <c r="J249">
         <v>5.7142857142857148E-2</v>
       </c>
-      <c r="K249" s="2">
+      <c r="K249" s="5">
         <v>64667.731428571438</v>
       </c>
       <c r="L249" t="s">
@@ -10616,7 +10615,7 @@
       <c r="J250">
         <v>0.4</v>
       </c>
-      <c r="K250" s="2">
+      <c r="K250" s="5">
         <v>24236.423999999999</v>
       </c>
       <c r="L250" t="s">
@@ -10654,7 +10653,7 @@
       <c r="J251">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K251" s="2">
+      <c r="K251" s="5">
         <v>12068.565760000001</v>
       </c>
       <c r="L251" t="s">
@@ -10692,7 +10691,7 @@
       <c r="J252">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K252" s="2">
+      <c r="K252" s="5">
         <v>12068.565760000001</v>
       </c>
       <c r="L252" t="s">
@@ -10730,7 +10729,7 @@
       <c r="J253">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K253" s="2">
+      <c r="K253" s="5">
         <v>12068.565760000001</v>
       </c>
       <c r="L253" t="s">
@@ -10768,7 +10767,7 @@
       <c r="J254">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K254" s="2">
+      <c r="K254" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L254" t="s">
@@ -10806,7 +10805,7 @@
       <c r="J255">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K255" s="2">
+      <c r="K255" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L255" t="s">
@@ -10844,7 +10843,7 @@
       <c r="J256">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K256" s="2">
+      <c r="K256" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L256" t="s">
@@ -10882,7 +10881,7 @@
       <c r="J257">
         <v>0.15</v>
       </c>
-      <c r="K257" s="2">
+      <c r="K257" s="5">
         <v>26384.956319999998</v>
       </c>
       <c r="L257" t="s">
@@ -10920,7 +10919,7 @@
       <c r="J258">
         <v>0.4</v>
       </c>
-      <c r="K258" s="2">
+      <c r="K258" s="5">
         <v>70359.883520000003</v>
       </c>
       <c r="L258" t="s">
@@ -10958,7 +10957,7 @@
       <c r="J259">
         <v>0.4</v>
       </c>
-      <c r="K259" s="2">
+      <c r="K259" s="5">
         <v>96289.60944</v>
       </c>
       <c r="L259" t="s">
@@ -10996,7 +10995,7 @@
       <c r="J260">
         <v>0.4</v>
       </c>
-      <c r="K260" s="2">
+      <c r="K260" s="5">
         <v>96289.60944</v>
       </c>
       <c r="L260" t="s">
@@ -11031,7 +11030,7 @@
       <c r="J261">
         <v>0.4</v>
       </c>
-      <c r="K261" s="2">
+      <c r="K261" s="5">
         <v>31205.403999999999</v>
       </c>
       <c r="L261" t="s">
@@ -11069,7 +11068,7 @@
       <c r="J262">
         <v>0.03</v>
       </c>
-      <c r="K262" s="2">
+      <c r="K262" s="5">
         <v>24300</v>
       </c>
       <c r="L262" t="s">
@@ -11107,7 +11106,7 @@
       <c r="J263">
         <v>0.03</v>
       </c>
-      <c r="K263" s="2">
+      <c r="K263" s="5">
         <v>24300</v>
       </c>
       <c r="L263" t="s">
@@ -11145,7 +11144,7 @@
       <c r="J264">
         <v>0.08</v>
       </c>
-      <c r="K264" s="2">
+      <c r="K264" s="5">
         <v>64800</v>
       </c>
       <c r="L264" t="s">
@@ -11183,7 +11182,7 @@
       <c r="J265">
         <v>0.08</v>
       </c>
-      <c r="K265" s="2">
+      <c r="K265" s="5">
         <v>64800</v>
       </c>
       <c r="L265" t="s">
@@ -11218,7 +11217,7 @@
       <c r="J266">
         <v>0.4</v>
       </c>
-      <c r="K266" s="2">
+      <c r="K266" s="5">
         <v>4000</v>
       </c>
       <c r="L266" t="s">
@@ -11256,7 +11255,7 @@
       <c r="J267">
         <v>0.01</v>
       </c>
-      <c r="K267" s="2">
+      <c r="K267" s="5">
         <v>34866.74</v>
       </c>
       <c r="L267" t="s">
@@ -11294,7 +11293,7 @@
       <c r="J268">
         <v>0.01</v>
       </c>
-      <c r="K268" s="2">
+      <c r="K268" s="5">
         <v>34866.74</v>
       </c>
       <c r="L268" t="s">
@@ -11332,7 +11331,7 @@
       <c r="J269">
         <v>0.05</v>
       </c>
-      <c r="K269" s="2">
+      <c r="K269" s="5">
         <v>35600</v>
       </c>
       <c r="L269" t="s">
@@ -11370,7 +11369,7 @@
       <c r="J270">
         <v>0.05</v>
       </c>
-      <c r="K270" s="2">
+      <c r="K270" s="5">
         <v>35600</v>
       </c>
       <c r="L270" t="s">
@@ -11405,7 +11404,7 @@
       <c r="J271">
         <v>0.2</v>
       </c>
-      <c r="K271" s="2">
+      <c r="K271" s="5">
         <v>98742.434079999992</v>
       </c>
       <c r="L271" t="s">
@@ -11443,7 +11442,7 @@
       <c r="J272">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K272" s="2">
+      <c r="K272" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L272" t="s">
@@ -11481,7 +11480,7 @@
       <c r="J273">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K273" s="2">
+      <c r="K273" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L273" t="s">
@@ -11516,7 +11515,7 @@
       <c r="J274">
         <v>0.05</v>
       </c>
-      <c r="K274" s="2">
+      <c r="K274" s="5">
         <v>30000</v>
       </c>
       <c r="L274" t="s">
@@ -11554,7 +11553,7 @@
       <c r="J275">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K275" s="2">
+      <c r="K275" s="5">
         <v>32400</v>
       </c>
       <c r="L275" t="s">
@@ -11589,7 +11588,7 @@
       <c r="J276">
         <v>0.2</v>
       </c>
-      <c r="K276" s="2">
+      <c r="K276" s="5">
         <v>6253.3512000000001</v>
       </c>
       <c r="L276" t="s">
@@ -11624,7 +11623,7 @@
       <c r="J277">
         <v>0.2</v>
       </c>
-      <c r="K277" s="2">
+      <c r="K277" s="5">
         <v>32668.829440000001</v>
       </c>
       <c r="L277" t="s">
@@ -11662,7 +11661,7 @@
       <c r="J278">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K278" s="2">
+      <c r="K278" s="5">
         <v>17433.37</v>
       </c>
       <c r="L278" t="s">
@@ -11697,7 +11696,7 @@
       <c r="J279">
         <v>0.1</v>
       </c>
-      <c r="K279" s="2">
+      <c r="K279" s="5">
         <v>90543.046000000002</v>
       </c>
       <c r="L279" t="s">
@@ -11735,7 +11734,7 @@
       <c r="J280">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K280" s="2">
+      <c r="K280" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L280" t="s">
@@ -11773,7 +11772,7 @@
       <c r="J281">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K281" s="2">
+      <c r="K281" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L281" t="s">
@@ -11811,7 +11810,7 @@
       <c r="J282">
         <v>0.1</v>
       </c>
-      <c r="K282" s="2">
+      <c r="K282" s="5">
         <v>17294.248600000003</v>
       </c>
       <c r="L282" t="s">
@@ -11846,7 +11845,7 @@
       <c r="J283">
         <v>0.1</v>
       </c>
-      <c r="K283" s="2">
+      <c r="K283" s="5">
         <v>26139.60008</v>
       </c>
       <c r="L283" t="s">
@@ -11881,7 +11880,7 @@
       <c r="J284">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K284" s="2">
+      <c r="K284" s="5">
         <v>26434.896253333329</v>
       </c>
       <c r="L284" t="s">
@@ -11916,7 +11915,7 @@
       <c r="J285">
         <v>0.1</v>
       </c>
-      <c r="K285" s="2">
+      <c r="K285" s="5">
         <v>3126.6756</v>
       </c>
       <c r="L285" t="s">
@@ -11951,7 +11950,7 @@
       <c r="J286">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K286" s="2">
+      <c r="K286" s="5">
         <v>26434.896253333329</v>
       </c>
       <c r="L286" t="s">
@@ -11986,7 +11985,7 @@
       <c r="J287">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K287" s="2">
+      <c r="K287" s="5">
         <v>26434.896253333329</v>
       </c>
       <c r="L287" t="s">
@@ -12021,7 +12020,7 @@
       <c r="J288">
         <v>0.15</v>
       </c>
-      <c r="K288" s="2">
+      <c r="K288" s="5">
         <v>13040.186400000001</v>
       </c>
       <c r="L288" t="s">
@@ -12056,7 +12055,7 @@
       <c r="J289">
         <v>0.4</v>
       </c>
-      <c r="K289" s="2">
+      <c r="K289" s="5">
         <v>34773.830399999999</v>
       </c>
       <c r="L289" t="s">
@@ -12094,7 +12093,7 @@
       <c r="J290">
         <v>0.15</v>
       </c>
-      <c r="K290" s="2">
+      <c r="K290" s="5">
         <v>36108.602999999996</v>
       </c>
       <c r="L290" t="s">
@@ -12132,7 +12131,7 @@
       <c r="J291">
         <v>0.4</v>
       </c>
-      <c r="K291" s="2">
+      <c r="K291" s="5">
         <v>96289.608000000007</v>
       </c>
       <c r="L291" t="s">
@@ -12170,7 +12169,7 @@
       <c r="J292">
         <v>0.4</v>
       </c>
-      <c r="K292" s="2">
+      <c r="K292" s="5">
         <v>92241.538880000007</v>
       </c>
       <c r="L292" t="s">
@@ -12208,7 +12207,7 @@
       <c r="J293">
         <v>0.03</v>
       </c>
-      <c r="K293" s="2">
+      <c r="K293" s="5">
         <v>24300</v>
       </c>
       <c r="L293" t="s">
@@ -12246,7 +12245,7 @@
       <c r="J294">
         <v>0.08</v>
       </c>
-      <c r="K294" s="2">
+      <c r="K294" s="5">
         <v>64800</v>
       </c>
       <c r="L294" t="s">
@@ -12284,7 +12283,7 @@
       <c r="J295">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K295" s="2">
+      <c r="K295" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L295" t="s">
@@ -12322,7 +12321,7 @@
       <c r="J296">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K296" s="2">
+      <c r="K296" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L296" t="s">
@@ -12360,7 +12359,7 @@
       <c r="J297">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K297" s="2">
+      <c r="K297" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L297" t="s">
@@ -12398,7 +12397,7 @@
       <c r="J298">
         <v>0.2</v>
       </c>
-      <c r="K298" s="2">
+      <c r="K298" s="5">
         <v>48144.804000000004</v>
       </c>
       <c r="L298" t="s">
@@ -12436,7 +12435,7 @@
       <c r="J299">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K299" s="2">
+      <c r="K299" s="5">
         <v>17433.37</v>
       </c>
       <c r="L299" t="s">
@@ -12471,7 +12470,7 @@
       <c r="J300">
         <v>0.2</v>
       </c>
-      <c r="K300" s="2">
+      <c r="K300" s="5">
         <v>3512.1992800000003</v>
       </c>
       <c r="L300" t="s">
@@ -12506,7 +12505,7 @@
       <c r="J301">
         <v>0.1</v>
       </c>
-      <c r="K301" s="2">
+      <c r="K301" s="5">
         <v>1756.0996400000001</v>
       </c>
       <c r="L301" t="s">
@@ -12541,7 +12540,7 @@
       <c r="J302">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K302" s="2">
+      <c r="K302" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L302" t="s">
@@ -12576,7 +12575,7 @@
       <c r="J303">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K303" s="2">
+      <c r="K303" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L303" t="s">
@@ -12611,7 +12610,7 @@
       <c r="J304">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K304" s="2">
+      <c r="K304" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L304" t="s">
@@ -12646,7 +12645,7 @@
       <c r="J305">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K305" s="2">
+      <c r="K305" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L305" t="s">
@@ -12681,7 +12680,7 @@
       <c r="J306">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K306" s="2">
+      <c r="K306" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L306" t="s">
@@ -12716,7 +12715,7 @@
       <c r="J307">
         <v>2.9411764705882353E-3</v>
       </c>
-      <c r="K307" s="2">
+      <c r="K307" s="5">
         <v>3017.1418494117647</v>
       </c>
       <c r="L307" t="s">
@@ -12751,7 +12750,7 @@
       <c r="J308">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K308" s="2">
+      <c r="K308" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L308" t="s">
@@ -12786,7 +12785,7 @@
       <c r="J309">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K309" s="2">
+      <c r="K309" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L309" t="s">
@@ -12821,7 +12820,7 @@
       <c r="J310">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K310" s="2">
+      <c r="K310" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L310" t="s">
@@ -12856,7 +12855,7 @@
       <c r="J311">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K311" s="2">
+      <c r="K311" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L311" t="s">
@@ -12891,7 +12890,7 @@
       <c r="J312">
         <v>5.8823529411764705E-3</v>
       </c>
-      <c r="K312" s="2">
+      <c r="K312" s="5">
         <v>6034.2836988235294</v>
       </c>
       <c r="L312" t="s">
@@ -12929,7 +12928,7 @@
       <c r="J313">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K313" s="2">
+      <c r="K313" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L313" t="s">
@@ -12967,7 +12966,7 @@
       <c r="J314">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K314" s="2">
+      <c r="K314" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L314" t="s">
@@ -13005,7 +13004,7 @@
       <c r="J315">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K315" s="2">
+      <c r="K315" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L315" t="s">
@@ -13043,7 +13042,7 @@
       <c r="J316">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="K316" s="2">
+      <c r="K316" s="5">
         <v>302352.20228999993</v>
       </c>
       <c r="L316" t="s">
@@ -13078,7 +13077,7 @@
       <c r="J317">
         <v>0.15</v>
       </c>
-      <c r="K317" s="2">
+      <c r="K317" s="5">
         <v>1412.0726399999996</v>
       </c>
       <c r="L317" t="s">
@@ -13113,7 +13112,7 @@
       <c r="J318">
         <v>0.15</v>
       </c>
-      <c r="K318" s="2">
+      <c r="K318" s="5">
         <v>2557.2779999999998</v>
       </c>
       <c r="L318" t="s">
@@ -13148,7 +13147,7 @@
       <c r="J319">
         <v>0.15</v>
       </c>
-      <c r="K319" s="2">
+      <c r="K319" s="5">
         <v>615.08651999999995</v>
       </c>
       <c r="L319" t="s">
@@ -13183,7 +13182,7 @@
       <c r="J320">
         <v>0.4</v>
       </c>
-      <c r="K320" s="2">
+      <c r="K320" s="5">
         <v>3765.5270399999995</v>
       </c>
       <c r="L320" t="s">
@@ -13218,7 +13217,7 @@
       <c r="J321">
         <v>0.4</v>
       </c>
-      <c r="K321" s="2">
+      <c r="K321" s="5">
         <v>6819.4080000000004</v>
       </c>
       <c r="L321" t="s">
@@ -13253,7 +13252,7 @@
       <c r="J322">
         <v>0.4</v>
       </c>
-      <c r="K322" s="2">
+      <c r="K322" s="5">
         <v>1640.23072</v>
       </c>
       <c r="L322" t="s">
@@ -13291,7 +13290,7 @@
       <c r="J323">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="K323" s="2">
+      <c r="K323" s="5">
         <v>35452.949966666667</v>
       </c>
       <c r="L323" t="s">
@@ -13326,7 +13325,7 @@
       <c r="J324">
         <v>0.2</v>
       </c>
-      <c r="K324" s="2">
+      <c r="K324" s="5">
         <v>71399.999839999989</v>
       </c>
       <c r="L324" t="s">
@@ -13361,7 +13360,7 @@
       <c r="J325">
         <v>0.02</v>
       </c>
-      <c r="K325" s="2">
+      <c r="K325" s="5">
         <v>69733.48</v>
       </c>
       <c r="L325" t="s">
@@ -13396,7 +13395,7 @@
       <c r="J326">
         <v>0.02</v>
       </c>
-      <c r="K326" s="2">
+      <c r="K326" s="5">
         <v>69733.48</v>
       </c>
       <c r="L326" t="s">
@@ -13431,7 +13430,7 @@
       <c r="J327">
         <v>0.15</v>
       </c>
-      <c r="K327" s="2">
+      <c r="K327" s="5">
         <v>2810.4131999999995</v>
       </c>
       <c r="L327" t="s">
@@ -13466,7 +13465,7 @@
       <c r="J328">
         <v>0.15</v>
       </c>
-      <c r="K328" s="2">
+      <c r="K328" s="5">
         <v>6252.9927599999983</v>
       </c>
       <c r="L328" t="s">
@@ -13501,7 +13500,7 @@
       <c r="J329">
         <v>0.1</v>
       </c>
-      <c r="K329" s="2">
+      <c r="K329" s="5">
         <v>36368.840839999997</v>
       </c>
       <c r="L329" t="s">
@@ -13539,7 +13538,7 @@
       <c r="J330">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K330" s="2">
+      <c r="K330" s="5">
         <v>94541.199911111122</v>
       </c>
       <c r="L330" t="s">
@@ -13577,7 +13576,7 @@
       <c r="J331">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K331" s="2">
+      <c r="K331" s="5">
         <v>47270.599955555561</v>
       </c>
       <c r="L331" t="s">
@@ -13615,7 +13614,7 @@
       <c r="J332">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K332" s="2">
+      <c r="K332" s="5">
         <v>23635.29997777778</v>
       </c>
       <c r="L332" t="s">
@@ -13653,7 +13652,7 @@
       <c r="J333">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K333" s="2">
+      <c r="K333" s="5">
         <v>23635.29997777778</v>
       </c>
       <c r="L333" t="s">
@@ -13688,7 +13687,7 @@
       <c r="J334">
         <v>0.15</v>
       </c>
-      <c r="K334" s="2">
+      <c r="K334" s="5">
         <v>14148.103559999998</v>
       </c>
       <c r="L334" t="s">
@@ -13723,7 +13722,7 @@
       <c r="J335">
         <v>0.4</v>
       </c>
-      <c r="K335" s="2">
+      <c r="K335" s="5">
         <v>37728.276160000001</v>
       </c>
       <c r="L335" t="s">
@@ -13758,7 +13757,7 @@
       <c r="J336">
         <v>0.2</v>
       </c>
-      <c r="K336" s="2">
+      <c r="K336" s="5">
         <v>18864.138080000001</v>
       </c>
       <c r="L336" t="s">
@@ -13793,7 +13792,7 @@
       <c r="J337">
         <v>0.1</v>
       </c>
-      <c r="K337" s="2">
+      <c r="K337" s="5">
         <v>9432.0690400000003</v>
       </c>
       <c r="L337" t="s">
@@ -13828,7 +13827,7 @@
       <c r="J338">
         <v>0.4</v>
       </c>
-      <c r="K338" s="2">
+      <c r="K338" s="5">
         <v>7494.435199999999</v>
       </c>
       <c r="L338" t="s">
@@ -13863,7 +13862,7 @@
       <c r="J339">
         <v>0.4</v>
       </c>
-      <c r="K339" s="2">
+      <c r="K339" s="5">
         <v>16674.647359999999</v>
       </c>
       <c r="L339" t="s">
@@ -13898,7 +13897,7 @@
       <c r="J340">
         <v>0.4</v>
       </c>
-      <c r="K340" s="2">
+      <c r="K340" s="5">
         <v>39397.200000000004</v>
       </c>
       <c r="L340" t="s">
@@ -13933,7 +13932,7 @@
       <c r="J341">
         <v>0.15</v>
       </c>
-      <c r="K341" s="2">
+      <c r="K341" s="5">
         <v>1859.55</v>
       </c>
       <c r="L341" t="s">
@@ -13968,7 +13967,7 @@
       <c r="J342">
         <v>0.15</v>
       </c>
-      <c r="K342" s="2">
+      <c r="K342" s="5">
         <v>1859.55</v>
       </c>
       <c r="L342" t="s">
@@ -14003,7 +14002,7 @@
       <c r="J343">
         <v>0.4</v>
       </c>
-      <c r="K343" s="2">
+      <c r="K343" s="5">
         <v>4958.8</v>
       </c>
       <c r="L343" t="s">
@@ -14038,7 +14037,7 @@
       <c r="J344">
         <v>0.2</v>
       </c>
-      <c r="K344" s="2">
+      <c r="K344" s="5">
         <v>2479.4</v>
       </c>
       <c r="L344" t="s">
@@ -14073,7 +14072,7 @@
       <c r="J345">
         <v>0.1</v>
       </c>
-      <c r="K345" s="2">
+      <c r="K345" s="5">
         <v>1239.7</v>
       </c>
       <c r="L345" t="s">
@@ -14111,7 +14110,7 @@
       <c r="J346">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K346" s="2">
+      <c r="K346" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L346" t="s">
@@ -14149,7 +14148,7 @@
       <c r="J347">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K347" s="2">
+      <c r="K347" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L347" t="s">
@@ -14187,7 +14186,7 @@
       <c r="J348">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K348" s="2">
+      <c r="K348" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L348" t="s">
@@ -14225,7 +14224,7 @@
       <c r="J349">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K349" s="2">
+      <c r="K349" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L349" t="s">
@@ -14263,7 +14262,7 @@
       <c r="J350">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K350" s="2">
+      <c r="K350" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L350" t="s">
@@ -14301,7 +14300,7 @@
       <c r="J351">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K351" s="2">
+      <c r="K351" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L351" t="s">
@@ -14339,7 +14338,7 @@
       <c r="J352">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K352" s="2">
+      <c r="K352" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L352" t="s">
@@ -14377,7 +14376,7 @@
       <c r="J353">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K353" s="2">
+      <c r="K353" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L353" t="s">
@@ -14415,7 +14414,7 @@
       <c r="J354">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K354" s="2">
+      <c r="K354" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L354" t="s">
@@ -14453,7 +14452,7 @@
       <c r="J355">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K355" s="2">
+      <c r="K355" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L355" t="s">
@@ -14491,7 +14490,7 @@
       <c r="J356">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K356" s="2">
+      <c r="K356" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L356" t="s">
@@ -14529,7 +14528,7 @@
       <c r="J357">
         <v>0.03</v>
       </c>
-      <c r="K357" s="2">
+      <c r="K357" s="5">
         <v>24300</v>
       </c>
       <c r="L357" t="s">
@@ -14567,7 +14566,7 @@
       <c r="J358">
         <v>0.08</v>
       </c>
-      <c r="K358" s="2">
+      <c r="K358" s="5">
         <v>64800</v>
       </c>
       <c r="L358" t="s">
@@ -14602,7 +14601,7 @@
       <c r="J359">
         <v>0.02</v>
       </c>
-      <c r="K359" s="2">
+      <c r="K359" s="5">
         <v>69733.48</v>
       </c>
       <c r="L359" t="s">
@@ -14640,7 +14639,7 @@
       <c r="J360">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K360" s="2">
+      <c r="K360" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L360" t="s">
@@ -14678,7 +14677,7 @@
       <c r="J361">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K361" s="2">
+      <c r="K361" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L361" t="s">
@@ -14716,7 +14715,7 @@
       <c r="J362">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K362" s="2">
+      <c r="K362" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L362" t="s">
@@ -14754,7 +14753,7 @@
       <c r="J363">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K363" s="2">
+      <c r="K363" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L363" t="s">
@@ -14792,7 +14791,7 @@
       <c r="J364">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K364" s="2">
+      <c r="K364" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L364" t="s">
@@ -14830,7 +14829,7 @@
       <c r="J365">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K365" s="2">
+      <c r="K365" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L365" t="s">
@@ -14868,7 +14867,7 @@
       <c r="J366">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K366" s="2">
+      <c r="K366" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L366" t="s">
@@ -14906,7 +14905,7 @@
       <c r="J367">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K367" s="2">
+      <c r="K367" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L367" t="s">
@@ -14944,7 +14943,7 @@
       <c r="J368">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K368" s="2">
+      <c r="K368" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L368" t="s">
@@ -14979,7 +14978,7 @@
       <c r="J369">
         <v>0.2</v>
       </c>
-      <c r="K369" s="2">
+      <c r="K369" s="5">
         <v>81320.316000000006</v>
       </c>
       <c r="L369" t="s">
@@ -15014,7 +15013,7 @@
       <c r="J370">
         <v>0.2</v>
       </c>
-      <c r="K370" s="2">
+      <c r="K370" s="5">
         <v>12118.212</v>
       </c>
       <c r="L370" t="s">
@@ -15052,7 +15051,7 @@
       <c r="J371">
         <v>1.2903225806451613E-2</v>
       </c>
-      <c r="K371" s="2">
+      <c r="K371" s="5">
         <v>156052.74956903225</v>
       </c>
       <c r="L371" t="s">
@@ -15087,7 +15086,7 @@
       <c r="J372">
         <v>0.15</v>
       </c>
-      <c r="K372" s="2">
+      <c r="K372" s="5">
         <v>38878.75662</v>
       </c>
       <c r="L372" t="s">
@@ -15125,7 +15124,7 @@
       <c r="J373">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K373" s="2">
+      <c r="K373" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L373" t="s">
@@ -15163,7 +15162,7 @@
       <c r="J374">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K374" s="2">
+      <c r="K374" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L374" t="s">
@@ -15201,7 +15200,7 @@
       <c r="J375">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K375" s="2">
+      <c r="K375" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L375" t="s">
@@ -15239,7 +15238,7 @@
       <c r="J376">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K376" s="2">
+      <c r="K376" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L376" t="s">
@@ -15277,7 +15276,7 @@
       <c r="J377">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K377" s="2">
+      <c r="K377" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L377" t="s">
@@ -15315,7 +15314,7 @@
       <c r="J378">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K378" s="2">
+      <c r="K378" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L378" t="s">
@@ -15353,7 +15352,7 @@
       <c r="J379">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K379" s="2">
+      <c r="K379" s="5">
         <v>94541.199911111122</v>
       </c>
       <c r="L379" t="s">
@@ -15391,7 +15390,7 @@
       <c r="J380">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="K380" s="2">
+      <c r="K380" s="5">
         <v>24250.399125</v>
       </c>
       <c r="L380" t="s">
@@ -15429,7 +15428,7 @@
       <c r="J381">
         <v>0.1</v>
       </c>
-      <c r="K381" s="2">
+      <c r="K381" s="5">
         <v>64667.731000000007</v>
       </c>
       <c r="L381" t="s">
@@ -15467,7 +15466,7 @@
       <c r="J382">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K382" s="2">
+      <c r="K382" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L382" t="s">
@@ -15505,7 +15504,7 @@
       <c r="J383">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K383" s="2">
+      <c r="K383" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L383" t="s">
@@ -15543,7 +15542,7 @@
       <c r="J384">
         <v>0.15</v>
       </c>
-      <c r="K384" s="2">
+      <c r="K384" s="5">
         <v>36108.602999999996</v>
       </c>
       <c r="L384" t="s">
@@ -15581,7 +15580,7 @@
       <c r="J385">
         <v>0.4</v>
       </c>
-      <c r="K385" s="2">
+      <c r="K385" s="5">
         <v>96289.608000000007</v>
       </c>
       <c r="L385" t="s">
@@ -15616,7 +15615,7 @@
       <c r="J386">
         <v>0.15</v>
       </c>
-      <c r="K386" s="2">
+      <c r="K386" s="5">
         <v>1819.2100199999998</v>
       </c>
       <c r="L386" t="s">
@@ -15651,7 +15650,7 @@
       <c r="J387">
         <v>0.4</v>
       </c>
-      <c r="K387" s="2">
+      <c r="K387" s="5">
         <v>4851.2267199999997</v>
       </c>
       <c r="L387" t="s">
@@ -15689,7 +15688,7 @@
       <c r="J388">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K388" s="2">
+      <c r="K388" s="5">
         <v>26867.162250000001</v>
       </c>
       <c r="L388" t="s">
@@ -15727,7 +15726,7 @@
       <c r="J389">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K389" s="2">
+      <c r="K389" s="5">
         <v>26867.162250000001</v>
       </c>
       <c r="L389" t="s">
@@ -15765,7 +15764,7 @@
       <c r="J390">
         <v>0.2</v>
       </c>
-      <c r="K390" s="2">
+      <c r="K390" s="5">
         <v>71645.766000000003</v>
       </c>
       <c r="L390" t="s">
@@ -15803,7 +15802,7 @@
       <c r="J391">
         <v>0.2</v>
       </c>
-      <c r="K391" s="2">
+      <c r="K391" s="5">
         <v>71645.766000000003</v>
       </c>
       <c r="L391" t="s">
@@ -15841,7 +15840,7 @@
       <c r="J392">
         <v>0.15</v>
       </c>
-      <c r="K392" s="2">
+      <c r="K392" s="5">
         <v>25941.372899999998</v>
       </c>
       <c r="L392" t="s">
@@ -15879,7 +15878,7 @@
       <c r="J393">
         <v>0.4</v>
       </c>
-      <c r="K393" s="2">
+      <c r="K393" s="5">
         <v>69176.994400000011</v>
       </c>
       <c r="L393" t="s">
@@ -15914,7 +15913,7 @@
       <c r="J394">
         <v>0.4</v>
       </c>
-      <c r="K394" s="2">
+      <c r="K394" s="5">
         <v>52322.635199999997</v>
       </c>
       <c r="L394" t="s">
@@ -15952,7 +15951,7 @@
       <c r="J395">
         <v>0.15</v>
       </c>
-      <c r="K395" s="2">
+      <c r="K395" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L395" t="s">
@@ -15990,7 +15989,7 @@
       <c r="J396">
         <v>0.4</v>
       </c>
-      <c r="K396" s="2">
+      <c r="K396" s="5">
         <v>96289.60944</v>
       </c>
       <c r="L396" t="s">
@@ -16028,7 +16027,7 @@
       <c r="J397">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K397" s="2">
+      <c r="K397" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L397" t="s">
@@ -16066,7 +16065,7 @@
       <c r="J398">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K398" s="2">
+      <c r="K398" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L398" t="s">
@@ -16104,7 +16103,7 @@
       <c r="J399">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K399" s="2">
+      <c r="K399" s="5">
         <v>11519.631591111112</v>
       </c>
       <c r="L399" t="s">
@@ -16142,7 +16141,7 @@
       <c r="J400">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K400" s="2">
+      <c r="K400" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L400" t="s">
@@ -16180,7 +16179,7 @@
       <c r="J401">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K401" s="2">
+      <c r="K401" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L401" t="s">
@@ -16218,7 +16217,7 @@
       <c r="J402">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K402" s="2">
+      <c r="K402" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L402" t="s">
@@ -16256,7 +16255,7 @@
       <c r="J403">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K403" s="2">
+      <c r="K403" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L403" t="s">
@@ -16294,7 +16293,7 @@
       <c r="J404">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K404" s="2">
+      <c r="K404" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L404" t="s">
@@ -16332,7 +16331,7 @@
       <c r="J405">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K405" s="2">
+      <c r="K405" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L405" t="s">
@@ -16370,7 +16369,7 @@
       <c r="J406">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="K406" s="2">
+      <c r="K406" s="5">
         <v>11519.632269473683</v>
       </c>
       <c r="L406" t="s">
@@ -16405,7 +16404,7 @@
       <c r="J407">
         <v>0.15</v>
       </c>
-      <c r="K407" s="2">
+      <c r="K407" s="5">
         <v>5053.6211999999996</v>
       </c>
       <c r="L407" t="s">
@@ -16440,7 +16439,7 @@
       <c r="J408">
         <v>0.4</v>
       </c>
-      <c r="K408" s="2">
+      <c r="K408" s="5">
         <v>13476.323199999999</v>
       </c>
       <c r="L408" t="s">
@@ -16475,7 +16474,7 @@
       <c r="J409">
         <v>0.15</v>
       </c>
-      <c r="K409" s="2">
+      <c r="K409" s="5">
         <v>38878.75662</v>
       </c>
       <c r="L409" t="s">
@@ -16510,7 +16509,7 @@
       <c r="J410">
         <v>1</v>
       </c>
-      <c r="K410" s="2">
+      <c r="K410" s="5">
         <v>30000.001199999999</v>
       </c>
       <c r="L410" t="s">
@@ -16545,7 +16544,7 @@
       <c r="J411">
         <v>0.15</v>
       </c>
-      <c r="K411" s="2">
+      <c r="K411" s="5">
         <v>1819.2100199999998</v>
       </c>
       <c r="L411" t="s">
@@ -16580,7 +16579,7 @@
       <c r="J412">
         <v>0.15</v>
       </c>
-      <c r="K412" s="2">
+      <c r="K412" s="5">
         <v>5053.6211999999996</v>
       </c>
       <c r="L412" t="s">
@@ -16615,7 +16614,7 @@
       <c r="J413">
         <v>0.15</v>
       </c>
-      <c r="K413" s="2">
+      <c r="K413" s="5">
         <v>56647.575720000001</v>
       </c>
       <c r="L413" t="s">
@@ -16650,7 +16649,7 @@
       <c r="J414">
         <v>0.15</v>
       </c>
-      <c r="K414" s="2">
+      <c r="K414" s="5">
         <v>1335.0497999999998</v>
       </c>
       <c r="L414" t="s">
@@ -16685,7 +16684,7 @@
       <c r="J415">
         <v>0.15</v>
       </c>
-      <c r="K415" s="2">
+      <c r="K415" s="5">
         <v>14148.103559999998</v>
       </c>
       <c r="L415" t="s">
@@ -16720,7 +16719,7 @@
       <c r="J416">
         <v>0.15</v>
       </c>
-      <c r="K416" s="2">
+      <c r="K416" s="5">
         <v>475593.48485999997</v>
       </c>
       <c r="L416" t="s">
@@ -16758,7 +16757,7 @@
       <c r="J417">
         <v>0.15</v>
       </c>
-      <c r="K417" s="2">
+      <c r="K417" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L417" t="s">
@@ -16796,7 +16795,7 @@
       <c r="J418">
         <v>0.15</v>
       </c>
-      <c r="K418" s="2">
+      <c r="K418" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L418" t="s">
@@ -16834,7 +16833,7 @@
       <c r="J419">
         <v>0.15</v>
       </c>
-      <c r="K419" s="2">
+      <c r="K419" s="5">
         <v>34590.577079999995</v>
       </c>
       <c r="L419" t="s">
@@ -16869,7 +16868,7 @@
       <c r="J420">
         <v>0.15</v>
       </c>
-      <c r="K420" s="2">
+      <c r="K420" s="5">
         <v>26851.622579999999</v>
       </c>
       <c r="L420" t="s">
@@ -16904,7 +16903,7 @@
       <c r="J421">
         <v>0.15</v>
       </c>
-      <c r="K421" s="2">
+      <c r="K421" s="5">
         <v>27753.372360000001</v>
       </c>
       <c r="L421" t="s">
@@ -16939,7 +16938,7 @@
       <c r="J422">
         <v>0.15</v>
       </c>
-      <c r="K422" s="2">
+      <c r="K422" s="5">
         <v>26405.961599999995</v>
       </c>
       <c r="L422" t="s">
@@ -16974,7 +16973,7 @@
       <c r="J423">
         <v>0.15</v>
       </c>
-      <c r="K423" s="2">
+      <c r="K423" s="5">
         <v>27128.1636</v>
       </c>
       <c r="L423" t="s">
@@ -17012,7 +17011,7 @@
       <c r="J424">
         <v>0.2</v>
       </c>
-      <c r="K424" s="2">
+      <c r="K424" s="5">
         <v>48144.804000000004</v>
       </c>
       <c r="L424" t="s">
@@ -17050,7 +17049,7 @@
       <c r="J425">
         <v>0.04</v>
       </c>
-      <c r="K425" s="2">
+      <c r="K425" s="5">
         <v>32400</v>
       </c>
       <c r="L425" t="s">
@@ -17088,7 +17087,7 @@
       <c r="J426">
         <v>0.2</v>
       </c>
-      <c r="K426" s="2">
+      <c r="K426" s="5">
         <v>48144.80472</v>
       </c>
       <c r="L426" t="s">
@@ -17126,7 +17125,7 @@
       <c r="J427">
         <v>0.4</v>
       </c>
-      <c r="K427" s="2">
+      <c r="K427" s="5">
         <v>96289.60944</v>
       </c>
       <c r="L427" t="s">
@@ -17164,7 +17163,7 @@
       <c r="J428">
         <v>0.15</v>
       </c>
-      <c r="K428" s="2">
+      <c r="K428" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L428" t="s">
@@ -17202,7 +17201,7 @@
       <c r="J429">
         <v>0.15</v>
       </c>
-      <c r="K429" s="2">
+      <c r="K429" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L429" t="s">
@@ -17240,7 +17239,7 @@
       <c r="J430">
         <v>0.15</v>
       </c>
-      <c r="K430" s="2">
+      <c r="K430" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L430" t="s">
@@ -17278,7 +17277,7 @@
       <c r="J431">
         <v>0.2</v>
       </c>
-      <c r="K431" s="2">
+      <c r="K431" s="5">
         <v>48144.80472</v>
       </c>
       <c r="L431" t="s">
@@ -17316,7 +17315,7 @@
       <c r="J432">
         <v>0.15</v>
       </c>
-      <c r="K432" s="2">
+      <c r="K432" s="5">
         <v>34590.577079999995</v>
       </c>
       <c r="L432" t="s">
@@ -17354,7 +17353,7 @@
       <c r="J433">
         <v>0.1</v>
       </c>
-      <c r="K433" s="2">
+      <c r="K433" s="5">
         <v>23060.384720000002</v>
       </c>
       <c r="L433" t="s">
@@ -17392,7 +17391,7 @@
       <c r="J434">
         <v>0.2</v>
       </c>
-      <c r="K434" s="2">
+      <c r="K434" s="5">
         <v>46120.769440000004</v>
       </c>
       <c r="L434" t="s">
@@ -17427,7 +17426,7 @@
       <c r="J435">
         <v>0.2</v>
       </c>
-      <c r="K435" s="2">
+      <c r="K435" s="5">
         <v>1882.7635199999997</v>
       </c>
       <c r="L435" t="s">
@@ -17462,7 +17461,7 @@
       <c r="J436">
         <v>0.2</v>
       </c>
-      <c r="K436" s="2">
+      <c r="K436" s="5">
         <v>3409.7040000000002</v>
       </c>
       <c r="L436" t="s">
@@ -17497,7 +17496,7 @@
       <c r="J437">
         <v>0.2</v>
       </c>
-      <c r="K437" s="2">
+      <c r="K437" s="5">
         <v>820.11536000000001</v>
       </c>
       <c r="L437" t="s">
@@ -17532,7 +17531,7 @@
       <c r="J438">
         <v>0.2</v>
       </c>
-      <c r="K438" s="2">
+      <c r="K438" s="5">
         <v>1780.0663999999997</v>
       </c>
       <c r="L438" t="s">
@@ -17567,7 +17566,7 @@
       <c r="J439">
         <v>0.15</v>
       </c>
-      <c r="K439" s="2">
+      <c r="K439" s="5">
         <v>1335.0497999999998</v>
       </c>
       <c r="L439" t="s">
@@ -17602,7 +17601,7 @@
       <c r="J440">
         <v>0.4</v>
       </c>
-      <c r="K440" s="2">
+      <c r="K440" s="5">
         <v>3560.1327999999994</v>
       </c>
       <c r="L440" t="s">
@@ -17640,7 +17639,7 @@
       <c r="J441">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K441" s="2">
+      <c r="K441" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L441" t="s">
@@ -17678,7 +17677,7 @@
       <c r="J442">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K442" s="2">
+      <c r="K442" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L442" t="s">
@@ -17716,7 +17715,7 @@
       <c r="J443">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K443" s="2">
+      <c r="K443" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L443" t="s">
@@ -17754,7 +17753,7 @@
       <c r="J444">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K444" s="2">
+      <c r="K444" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L444" t="s">
@@ -17792,7 +17791,7 @@
       <c r="J445">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K445" s="2">
+      <c r="K445" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L445" t="s">
@@ -17830,7 +17829,7 @@
       <c r="J446">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K446" s="2">
+      <c r="K446" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L446" t="s">
@@ -17868,7 +17867,7 @@
       <c r="J447">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K447" s="2">
+      <c r="K447" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L447" t="s">
@@ -17906,7 +17905,7 @@
       <c r="J448">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K448" s="2">
+      <c r="K448" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L448" t="s">
@@ -17944,7 +17943,7 @@
       <c r="J449">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K449" s="2">
+      <c r="K449" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L449" t="s">
@@ -17979,7 +17978,7 @@
       <c r="J450">
         <v>0.2</v>
       </c>
-      <c r="K450" s="2">
+      <c r="K450" s="5">
         <v>17386.915199999999</v>
       </c>
       <c r="L450" t="s">
@@ -18014,7 +18013,7 @@
       <c r="J451">
         <v>0.1</v>
       </c>
-      <c r="K451" s="2">
+      <c r="K451" s="5">
         <v>83073.795559999999</v>
       </c>
       <c r="L451" t="s">
@@ -18049,7 +18048,7 @@
       <c r="J452">
         <v>0.1</v>
       </c>
-      <c r="K452" s="2">
+      <c r="K452" s="5">
         <v>23158.627439999997</v>
       </c>
       <c r="L452" t="s">
@@ -18087,7 +18086,7 @@
       <c r="J453">
         <v>0.2</v>
       </c>
-      <c r="K453" s="2">
+      <c r="K453" s="5">
         <v>35179.941760000002</v>
       </c>
       <c r="L453" t="s">
@@ -18125,7 +18124,7 @@
       <c r="J454">
         <v>0.1</v>
       </c>
-      <c r="K454" s="2">
+      <c r="K454" s="5">
         <v>17589.970880000001</v>
       </c>
       <c r="L454" t="s">
@@ -18163,7 +18162,7 @@
       <c r="J455">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K455" s="2">
+      <c r="K455" s="5">
         <v>17433.37</v>
       </c>
       <c r="L455" t="s">
@@ -18201,7 +18200,7 @@
       <c r="J456">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K456" s="2">
+      <c r="K456" s="5">
         <v>17433.37</v>
       </c>
       <c r="L456" t="s">
@@ -18236,7 +18235,7 @@
       <c r="J457">
         <v>0.2</v>
       </c>
-      <c r="K457" s="2">
+      <c r="K457" s="5">
         <v>15602.701999999999</v>
       </c>
       <c r="L457" t="s">
@@ -18274,7 +18273,7 @@
       <c r="J458">
         <v>0.2</v>
       </c>
-      <c r="K458" s="2">
+      <c r="K458" s="5">
         <v>48144.80472</v>
       </c>
       <c r="L458" t="s">
@@ -18309,7 +18308,7 @@
       <c r="J459">
         <v>0.1</v>
       </c>
-      <c r="K459" s="2">
+      <c r="K459" s="5">
         <v>16334.414720000001</v>
       </c>
       <c r="L459" t="s">
@@ -18347,7 +18346,7 @@
       <c r="J460">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K460" s="2">
+      <c r="K460" s="5">
         <v>17800</v>
       </c>
       <c r="L460" t="s">
@@ -18385,7 +18384,7 @@
       <c r="J461">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K461" s="2">
+      <c r="K461" s="5">
         <v>17800</v>
       </c>
       <c r="L461" t="s">
@@ -18423,7 +18422,7 @@
       <c r="J462">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K462" s="2">
+      <c r="K462" s="5">
         <v>17800</v>
       </c>
       <c r="L462" t="s">
@@ -18461,7 +18460,7 @@
       <c r="J463">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K463" s="2">
+      <c r="K463" s="5">
         <v>16200</v>
       </c>
       <c r="L463" t="s">
@@ -18499,7 +18498,7 @@
       <c r="J464">
         <v>2.4390243902439024E-3</v>
       </c>
-      <c r="K464" s="2">
+      <c r="K464" s="5">
         <v>20616.088718093546</v>
       </c>
       <c r="L464" t="s">
@@ -18534,7 +18533,7 @@
       <c r="J465">
         <v>0.15</v>
       </c>
-      <c r="K465" s="2">
+      <c r="K465" s="5">
         <v>1500</v>
       </c>
       <c r="L465" t="s">
@@ -18569,7 +18568,7 @@
       <c r="J466">
         <v>0.2</v>
       </c>
-      <c r="K466" s="2">
+      <c r="K466" s="5">
         <v>2000</v>
       </c>
       <c r="L466" t="s">
@@ -18604,7 +18603,7 @@
       <c r="J467">
         <v>0.1</v>
       </c>
-      <c r="K467" s="2">
+      <c r="K467" s="5">
         <v>1000</v>
       </c>
       <c r="L467" t="s">
@@ -18642,7 +18641,7 @@
       <c r="J468">
         <v>0.2</v>
       </c>
-      <c r="K468" s="2">
+      <c r="K468" s="5">
         <v>34588.497200000005</v>
       </c>
       <c r="L468" t="s">
@@ -18677,7 +18676,7 @@
       <c r="J469">
         <v>0.1</v>
       </c>
-      <c r="K469" s="2">
+      <c r="K469" s="5">
         <v>941.38175999999987</v>
       </c>
       <c r="L469" t="s">
@@ -18712,7 +18711,7 @@
       <c r="J470">
         <v>0.1</v>
       </c>
-      <c r="K470" s="2">
+      <c r="K470" s="5">
         <v>1704.8520000000001</v>
       </c>
       <c r="L470" t="s">
@@ -18747,7 +18746,7 @@
       <c r="J471">
         <v>0.1</v>
       </c>
-      <c r="K471" s="2">
+      <c r="K471" s="5">
         <v>410.05768</v>
       </c>
       <c r="L471" t="s">
@@ -18782,7 +18781,7 @@
       <c r="J472">
         <v>0.1</v>
       </c>
-      <c r="K472" s="2">
+      <c r="K472" s="5">
         <v>890.03319999999985</v>
       </c>
       <c r="L472" t="s">
@@ -18817,7 +18816,7 @@
       <c r="J473">
         <v>0.2</v>
       </c>
-      <c r="K473" s="2">
+      <c r="K473" s="5">
         <v>6738.1615999999995</v>
       </c>
       <c r="L473" t="s">
@@ -18852,7 +18851,7 @@
       <c r="J474">
         <v>0.1</v>
       </c>
-      <c r="K474" s="2">
+      <c r="K474" s="5">
         <v>3369.0807999999997</v>
       </c>
       <c r="L474" t="s">
@@ -18887,7 +18886,7 @@
       <c r="J475">
         <v>0.1</v>
       </c>
-      <c r="K475" s="2">
+      <c r="K475" s="5">
         <v>23800</v>
       </c>
       <c r="L475" t="s">
@@ -18922,7 +18921,7 @@
       <c r="J476">
         <v>0.1</v>
       </c>
-      <c r="K476" s="2">
+      <c r="K476" s="5">
         <v>99534.413</v>
       </c>
       <c r="L476" t="s">
@@ -18957,7 +18956,7 @@
       <c r="J477">
         <v>0.1</v>
       </c>
-      <c r="K477" s="2">
+      <c r="K477" s="5">
         <v>6059.1059999999998</v>
       </c>
       <c r="L477" t="s">
@@ -18992,7 +18991,7 @@
       <c r="J478">
         <v>0.1</v>
       </c>
-      <c r="K478" s="2">
+      <c r="K478" s="5">
         <v>40660.158000000003</v>
       </c>
       <c r="L478" t="s">
@@ -19027,7 +19026,7 @@
       <c r="J479">
         <v>0.1</v>
       </c>
-      <c r="K479" s="2">
+      <c r="K479" s="5">
         <v>19581.472440000001</v>
       </c>
       <c r="L479" t="s">
@@ -19062,7 +19061,7 @@
       <c r="J480">
         <v>0.15</v>
       </c>
-      <c r="K480" s="2">
+      <c r="K480" s="5">
         <v>6336.4727399999992</v>
       </c>
       <c r="L480" t="s">
@@ -19097,7 +19096,7 @@
       <c r="J481">
         <v>0.15</v>
       </c>
-      <c r="K481" s="2">
+      <c r="K481" s="5">
         <v>26405.961599999995</v>
       </c>
       <c r="L481" t="s">
@@ -19132,7 +19131,7 @@
       <c r="J482">
         <v>0.4</v>
       </c>
-      <c r="K482" s="2">
+      <c r="K482" s="5">
         <v>70415.897599999997</v>
       </c>
       <c r="L482" t="s">
@@ -19170,7 +19169,7 @@
       <c r="J483">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="K483" s="2">
+      <c r="K483" s="5">
         <v>24250.399125</v>
       </c>
       <c r="L483" t="s">
@@ -19208,7 +19207,7 @@
       <c r="J484">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="K484" s="2">
+      <c r="K484" s="5">
         <v>24250.399125</v>
       </c>
       <c r="L484" t="s">
@@ -19246,7 +19245,7 @@
       <c r="J485">
         <v>0.1</v>
       </c>
-      <c r="K485" s="2">
+      <c r="K485" s="5">
         <v>64667.731000000007</v>
       </c>
       <c r="L485" t="s">
@@ -19284,7 +19283,7 @@
       <c r="J486">
         <v>0.1</v>
       </c>
-      <c r="K486" s="2">
+      <c r="K486" s="5">
         <v>64667.731000000007</v>
       </c>
       <c r="L486" t="s">
@@ -19322,7 +19321,7 @@
       <c r="J487">
         <v>0.15</v>
       </c>
-      <c r="K487" s="2">
+      <c r="K487" s="5">
         <v>34590.577079999995</v>
       </c>
       <c r="L487" t="s">
@@ -19360,7 +19359,7 @@
       <c r="J488">
         <v>0.4</v>
       </c>
-      <c r="K488" s="2">
+      <c r="K488" s="5">
         <v>92241.538880000007</v>
       </c>
       <c r="L488" t="s">
@@ -19398,7 +19397,7 @@
       <c r="J489">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K489" s="2">
+      <c r="K489" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L489" t="s">
@@ -19436,7 +19435,7 @@
       <c r="J490">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K490" s="2">
+      <c r="K490" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L490" t="s">
@@ -19471,7 +19470,7 @@
       <c r="J491">
         <v>0.4</v>
       </c>
-      <c r="K491" s="2">
+      <c r="K491" s="5">
         <v>165486.87072000004</v>
       </c>
       <c r="L491" t="s">
@@ -19509,7 +19508,7 @@
       <c r="J492">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K492" s="2">
+      <c r="K492" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L492" t="s">
@@ -19547,7 +19546,7 @@
       <c r="J493">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K493" s="2">
+      <c r="K493" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L493" t="s">
@@ -19585,7 +19584,7 @@
       <c r="J494">
         <v>6.4516129032258064E-3</v>
       </c>
-      <c r="K494" s="2">
+      <c r="K494" s="5">
         <v>78026.374784516127</v>
       </c>
       <c r="L494" t="s">
@@ -19623,7 +19622,7 @@
       <c r="J495">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K495" s="2">
+      <c r="K495" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L495" t="s">
@@ -19661,7 +19660,7 @@
       <c r="J496">
         <v>0.2</v>
       </c>
-      <c r="K496" s="2">
+      <c r="K496" s="5">
         <v>34588.497200000005</v>
       </c>
       <c r="L496" t="s">
@@ -19699,7 +19698,7 @@
       <c r="J497">
         <v>0.05</v>
       </c>
-      <c r="K497" s="2">
+      <c r="K497" s="5">
         <v>32333.865500000004</v>
       </c>
       <c r="L497" t="s">
@@ -19737,7 +19736,7 @@
       <c r="J498">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K498" s="2">
+      <c r="K498" s="5">
         <v>17433.37</v>
       </c>
       <c r="L498" t="s">
@@ -19775,7 +19774,7 @@
       <c r="J499">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K499" s="2">
+      <c r="K499" s="5">
         <v>17433.37</v>
       </c>
       <c r="L499" t="s">
@@ -19813,7 +19812,7 @@
       <c r="J500">
         <v>0.02</v>
       </c>
-      <c r="K500" s="2">
+      <c r="K500" s="5">
         <v>16200</v>
       </c>
       <c r="L500" t="s">
@@ -19848,7 +19847,7 @@
       <c r="J501">
         <v>0.1</v>
       </c>
-      <c r="K501" s="2">
+      <c r="K501" s="5">
         <v>7801.3509999999997</v>
       </c>
       <c r="L501" t="s">
@@ -19886,7 +19885,7 @@
       <c r="J502">
         <v>0.1</v>
       </c>
-      <c r="K502" s="2">
+      <c r="K502" s="5">
         <v>24072.402000000002</v>
       </c>
       <c r="L502" t="s">
@@ -19924,7 +19923,7 @@
       <c r="J503">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K503" s="2">
+      <c r="K503" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L503" t="s">
@@ -19962,7 +19961,7 @@
       <c r="J504">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K504" s="2">
+      <c r="K504" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L504" t="s">
@@ -20000,7 +19999,7 @@
       <c r="J505">
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K505" s="2">
+      <c r="K505" s="5">
         <v>5759.8161347368414</v>
       </c>
       <c r="L505" t="s">
@@ -20038,7 +20037,7 @@
       <c r="J506">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K506" s="2">
+      <c r="K506" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L506" t="s">
@@ -20076,7 +20075,7 @@
       <c r="J507">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K507" s="2">
+      <c r="K507" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L507" t="s">
@@ -20114,7 +20113,7 @@
       <c r="J508">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K508" s="2">
+      <c r="K508" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L508" t="s">
@@ -20152,7 +20151,7 @@
       <c r="J509">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K509" s="2">
+      <c r="K509" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L509" t="s">
@@ -20190,7 +20189,7 @@
       <c r="J510">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K510" s="2">
+      <c r="K510" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L510" t="s">
@@ -20228,7 +20227,7 @@
       <c r="J511">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K511" s="2">
+      <c r="K511" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L511" t="s">
@@ -20266,7 +20265,7 @@
       <c r="J512">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K512" s="2">
+      <c r="K512" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L512" t="s">
@@ -20304,7 +20303,7 @@
       <c r="J513">
         <v>5.263157894736842E-3</v>
       </c>
-      <c r="K513" s="2">
+      <c r="K513" s="5">
         <v>2879.9080673684207</v>
       </c>
       <c r="L513" t="s">
@@ -20342,7 +20341,7 @@
       <c r="J514">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K514" s="2">
+      <c r="K514" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L514" t="s">
@@ -20380,7 +20379,7 @@
       <c r="J515">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K515" s="2">
+      <c r="K515" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L515" t="s">
@@ -20418,7 +20417,7 @@
       <c r="J516">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K516" s="2">
+      <c r="K516" s="5">
         <v>5759.8157955555562</v>
       </c>
       <c r="L516" t="s">
@@ -20456,7 +20455,7 @@
       <c r="J517">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K517" s="2">
+      <c r="K517" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L517" t="s">
@@ -20494,7 +20493,7 @@
       <c r="J518">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K518" s="2">
+      <c r="K518" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L518" t="s">
@@ -20532,7 +20531,7 @@
       <c r="J519">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K519" s="2">
+      <c r="K519" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L519" t="s">
@@ -20570,7 +20569,7 @@
       <c r="J520">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K520" s="2">
+      <c r="K520" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L520" t="s">
@@ -20608,7 +20607,7 @@
       <c r="J521">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K521" s="2">
+      <c r="K521" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L521" t="s">
@@ -20646,7 +20645,7 @@
       <c r="J522">
         <v>0.05</v>
       </c>
-      <c r="K522" s="2">
+      <c r="K522" s="5">
         <v>17600</v>
       </c>
       <c r="L522" t="s">
@@ -20684,7 +20683,7 @@
       <c r="J523">
         <v>0.1</v>
       </c>
-      <c r="K523" s="2">
+      <c r="K523" s="5">
         <v>35822.883000000002</v>
       </c>
       <c r="L523" t="s">
@@ -20722,7 +20721,7 @@
       <c r="J524">
         <v>0.05</v>
       </c>
-      <c r="K524" s="2">
+      <c r="K524" s="5">
         <v>17911.441500000001</v>
       </c>
       <c r="L524" t="s">
@@ -20757,7 +20756,7 @@
       <c r="J525">
         <v>0.1</v>
       </c>
-      <c r="K525" s="2">
+      <c r="K525" s="5">
         <v>8693.4575999999997</v>
       </c>
       <c r="L525" t="s">
@@ -20795,7 +20794,7 @@
       <c r="J526">
         <v>0.2</v>
       </c>
-      <c r="K526" s="2">
+      <c r="K526" s="5">
         <v>48144.80472</v>
       </c>
       <c r="L526" t="s">
@@ -20833,7 +20832,7 @@
       <c r="J527">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K527" s="2">
+      <c r="K527" s="5">
         <v>2879.9078977777781</v>
       </c>
       <c r="L527" t="s">
@@ -20868,7 +20867,7 @@
       <c r="J528">
         <v>0.2</v>
       </c>
-      <c r="K528" s="2">
+      <c r="K528" s="5">
         <v>26161.317599999998</v>
       </c>
       <c r="L528" t="s">
@@ -20903,7 +20902,7 @@
       <c r="J529">
         <v>0.2</v>
       </c>
-      <c r="K529" s="2">
+      <c r="K529" s="5">
         <v>35207.948799999998</v>
       </c>
       <c r="L529" t="s">
@@ -20941,7 +20940,7 @@
       <c r="J530">
         <v>0.1</v>
       </c>
-      <c r="K530" s="2">
+      <c r="K530" s="5">
         <v>35822.883000000002</v>
       </c>
       <c r="L530" t="s">
@@ -20979,7 +20978,7 @@
       <c r="J531">
         <v>0.15</v>
       </c>
-      <c r="K531" s="2">
+      <c r="K531" s="5">
         <v>34797.315179999998</v>
       </c>
       <c r="L531" t="s">
@@ -21014,7 +21013,7 @@
       <c r="J532">
         <v>0.15</v>
       </c>
-      <c r="K532" s="2">
+      <c r="K532" s="5">
         <v>34797.315179999998</v>
       </c>
       <c r="L532" t="s">
@@ -21052,7 +21051,7 @@
       <c r="J533">
         <v>0.15</v>
       </c>
-      <c r="K533" s="2">
+      <c r="K533" s="5">
         <v>34590.577079999995</v>
       </c>
       <c r="L533" t="s">
@@ -21090,7 +21089,7 @@
       <c r="J534">
         <v>0.03</v>
       </c>
-      <c r="K534" s="2">
+      <c r="K534" s="5">
         <v>24300</v>
       </c>
       <c r="L534" t="s">
@@ -21128,7 +21127,7 @@
       <c r="J535">
         <v>0.15</v>
       </c>
-      <c r="K535" s="2">
+      <c r="K535" s="5">
         <v>26400</v>
       </c>
       <c r="L535" t="s">
@@ -21166,7 +21165,7 @@
       <c r="J536">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="K536" s="2">
+      <c r="K536" s="5">
         <v>24250.399125</v>
       </c>
       <c r="L536" t="s">
@@ -21204,7 +21203,7 @@
       <c r="J537">
         <v>0.08</v>
       </c>
-      <c r="K537" s="2">
+      <c r="K537" s="5">
         <v>64800</v>
       </c>
       <c r="L537" t="s">
@@ -21242,7 +21241,7 @@
       <c r="J538">
         <v>0.4</v>
       </c>
-      <c r="K538" s="2">
+      <c r="K538" s="5">
         <v>70400</v>
       </c>
       <c r="L538" t="s">
@@ -21280,7 +21279,7 @@
       <c r="J539">
         <v>0.1</v>
       </c>
-      <c r="K539" s="2">
+      <c r="K539" s="5">
         <v>64667.731000000007</v>
       </c>
       <c r="L539" t="s">
@@ -21318,7 +21317,7 @@
       <c r="J540">
         <v>0.2</v>
       </c>
-      <c r="K540" s="2">
+      <c r="K540" s="5">
         <v>35200</v>
       </c>
       <c r="L540" t="s">
@@ -21353,7 +21352,7 @@
       <c r="J541">
         <v>0.4</v>
       </c>
-      <c r="K541" s="2">
+      <c r="K541" s="5">
         <v>34179.108</v>
       </c>
       <c r="L541" t="s">
@@ -21388,7 +21387,7 @@
       <c r="J542">
         <v>0.2</v>
       </c>
-      <c r="K542" s="2">
+      <c r="K542" s="5">
         <v>17089.554</v>
       </c>
       <c r="L542" t="s">
@@ -21423,7 +21422,7 @@
       <c r="J543">
         <v>0.2</v>
       </c>
-      <c r="K543" s="2">
+      <c r="K543" s="5">
         <v>2425.6133599999998</v>
       </c>
       <c r="L543" t="s">
@@ -21458,7 +21457,7 @@
       <c r="J544">
         <v>0.1</v>
       </c>
-      <c r="K544" s="2">
+      <c r="K544" s="5">
         <v>1212.8066799999999</v>
       </c>
       <c r="L544" t="s">
@@ -21496,7 +21495,7 @@
       <c r="J545">
         <v>0.04</v>
       </c>
-      <c r="K545" s="2">
+      <c r="K545" s="5">
         <v>32400</v>
       </c>
       <c r="L545" t="s">
@@ -21534,7 +21533,7 @@
       <c r="J546">
         <v>0.02</v>
       </c>
-      <c r="K546" s="2">
+      <c r="K546" s="5">
         <v>16200</v>
       </c>
       <c r="L546" t="s">
@@ -21572,7 +21571,7 @@
       <c r="J547">
         <v>0.05</v>
       </c>
-      <c r="K547" s="2">
+      <c r="K547" s="5">
         <v>32333.865500000004</v>
       </c>
       <c r="L547" t="s">
@@ -21610,7 +21609,7 @@
       <c r="J548">
         <v>0.1</v>
       </c>
-      <c r="K548" s="2">
+      <c r="K548" s="5">
         <v>17600</v>
       </c>
       <c r="L548" t="s">
@@ -21645,7 +21644,7 @@
       <c r="J549">
         <v>0.15</v>
       </c>
-      <c r="K549" s="2">
+      <c r="K549" s="5">
         <v>37336.53</v>
       </c>
       <c r="L549" t="s">
@@ -21680,7 +21679,7 @@
       <c r="J550">
         <v>0.15</v>
       </c>
-      <c r="K550" s="2">
+      <c r="K550" s="5">
         <v>39982.14978</v>
       </c>
       <c r="L550" t="s">
@@ -21715,7 +21714,7 @@
       <c r="J551">
         <v>0.15</v>
       </c>
-      <c r="K551" s="2">
+      <c r="K551" s="5">
         <v>26851.622579999999</v>
       </c>
       <c r="L551" t="s">
@@ -21750,7 +21749,7 @@
       <c r="J552">
         <v>0.15</v>
       </c>
-      <c r="K552" s="2">
+      <c r="K552" s="5">
         <v>27753.372360000001</v>
       </c>
       <c r="L552" t="s">
@@ -21785,7 +21784,7 @@
       <c r="J553">
         <v>0.15</v>
       </c>
-      <c r="K553" s="2">
+      <c r="K553" s="5">
         <v>39823.199999999997</v>
       </c>
       <c r="L553" t="s">
@@ -21820,7 +21819,7 @@
       <c r="J554">
         <v>0.15</v>
       </c>
-      <c r="K554" s="2">
+      <c r="K554" s="5">
         <v>127500</v>
       </c>
       <c r="L554" t="s">
@@ -21858,7 +21857,7 @@
       <c r="J555">
         <v>0.4</v>
       </c>
-      <c r="K555" s="2">
+      <c r="K555" s="5">
         <v>92241.538880000007</v>
       </c>
       <c r="L555" t="s">
@@ -21896,7 +21895,7 @@
       <c r="J556">
         <v>0.4</v>
       </c>
-      <c r="K556" s="2">
+      <c r="K556" s="5">
         <v>92792.840480000013</v>
       </c>
       <c r="L556" t="s">
@@ -21931,7 +21930,7 @@
       <c r="J557">
         <v>0.4</v>
       </c>
-      <c r="K557" s="2">
+      <c r="K557" s="5">
         <v>72341.7696</v>
       </c>
       <c r="L557" t="s">
@@ -21966,7 +21965,7 @@
       <c r="J558">
         <v>0.15</v>
       </c>
-      <c r="K558" s="2">
+      <c r="K558" s="5">
         <v>56647.575720000001</v>
       </c>
       <c r="L558" t="s">
@@ -22004,7 +22003,7 @@
       <c r="J559">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K559" s="2">
+      <c r="K559" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L559" t="s">
@@ -22042,7 +22041,7 @@
       <c r="J560">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K560" s="2">
+      <c r="K560" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L560" t="s">
@@ -22080,7 +22079,7 @@
       <c r="J561">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K561" s="2">
+      <c r="K561" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L561" t="s">
@@ -22118,7 +22117,7 @@
       <c r="J562">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K562" s="2">
+      <c r="K562" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L562" t="s">
@@ -22156,7 +22155,7 @@
       <c r="J563">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K563" s="2">
+      <c r="K563" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L563" t="s">
@@ -22194,7 +22193,7 @@
       <c r="J564">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K564" s="2">
+      <c r="K564" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L564" t="s">
@@ -22232,7 +22231,7 @@
       <c r="J565">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K565" s="2">
+      <c r="K565" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L565" t="s">
@@ -22270,7 +22269,7 @@
       <c r="J566">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K566" s="2">
+      <c r="K566" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L566" t="s">
@@ -22308,7 +22307,7 @@
       <c r="J567">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K567" s="2">
+      <c r="K567" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L567" t="s">
@@ -22346,7 +22345,7 @@
       <c r="J568">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K568" s="2">
+      <c r="K568" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L568" t="s">
@@ -22384,7 +22383,7 @@
       <c r="J569">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K569" s="2">
+      <c r="K569" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L569" t="s">
@@ -22422,7 +22421,7 @@
       <c r="J570">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K570" s="2">
+      <c r="K570" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L570" t="s">
@@ -22460,7 +22459,7 @@
       <c r="J571">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K571" s="2">
+      <c r="K571" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L571" t="s">
@@ -22498,7 +22497,7 @@
       <c r="J572">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K572" s="2">
+      <c r="K572" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L572" t="s">
@@ -22536,7 +22535,7 @@
       <c r="J573">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K573" s="2">
+      <c r="K573" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L573" t="s">
@@ -22574,7 +22573,7 @@
       <c r="J574">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K574" s="2">
+      <c r="K574" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L574" t="s">
@@ -22612,7 +22611,7 @@
       <c r="J575">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K575" s="2">
+      <c r="K575" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L575" t="s">
@@ -22650,7 +22649,7 @@
       <c r="J576">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K576" s="2">
+      <c r="K576" s="5">
         <v>8392.23344</v>
       </c>
       <c r="L576" t="s">
@@ -22688,7 +22687,7 @@
       <c r="J577">
         <v>0.4</v>
       </c>
-      <c r="K577" s="2">
+      <c r="K577" s="5">
         <v>96289.60944</v>
       </c>
       <c r="L577" t="s">
@@ -22726,7 +22725,7 @@
       <c r="J578">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K578" s="2">
+      <c r="K578" s="5">
         <v>32333.865714285719</v>
       </c>
       <c r="L578" t="s">
@@ -22764,7 +22763,7 @@
       <c r="J579">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K579" s="2">
+      <c r="K579" s="5">
         <v>32333.865714285719</v>
       </c>
       <c r="L579" t="s">
@@ -22802,7 +22801,7 @@
       <c r="J580">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="K580" s="2">
+      <c r="K580" s="5">
         <v>47270.599955555561</v>
       </c>
       <c r="L580" t="s">
@@ -22840,7 +22839,7 @@
       <c r="J581">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K581" s="2">
+      <c r="K581" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L581" t="s">
@@ -22878,7 +22877,7 @@
       <c r="J582">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K582" s="2">
+      <c r="K582" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L582" t="s">
@@ -22916,7 +22915,7 @@
       <c r="J583">
         <v>2.8571428571428574E-2</v>
       </c>
-      <c r="K583" s="2">
+      <c r="K583" s="5">
         <v>32333.865714285719</v>
       </c>
       <c r="L583" t="s">
@@ -22954,7 +22953,7 @@
       <c r="J584">
         <v>0.05</v>
       </c>
-      <c r="K584" s="2">
+      <c r="K584" s="5">
         <v>32333.865500000004</v>
       </c>
       <c r="L584" t="s">
@@ -22992,7 +22991,7 @@
       <c r="J585">
         <v>0.04</v>
       </c>
-      <c r="K585" s="2">
+      <c r="K585" s="5">
         <v>32400</v>
       </c>
       <c r="L585" t="s">
@@ -23030,7 +23029,7 @@
       <c r="J586">
         <v>0.2</v>
       </c>
-      <c r="K586" s="2">
+      <c r="K586" s="5">
         <v>46396.420240000007</v>
       </c>
       <c r="L586" t="s">
@@ -23068,7 +23067,7 @@
       <c r="J587">
         <v>0.2</v>
       </c>
-      <c r="K587" s="2">
+      <c r="K587" s="5">
         <v>46120.769440000004</v>
       </c>
       <c r="L587" t="s">
@@ -23106,7 +23105,7 @@
       <c r="J588">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K588" s="2">
+      <c r="K588" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L588" t="s">
@@ -23144,7 +23143,7 @@
       <c r="J589">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K589" s="2">
+      <c r="K589" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L589" t="s">
@@ -23182,7 +23181,7 @@
       <c r="J590">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K590" s="2">
+      <c r="K590" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L590" t="s">
@@ -23220,7 +23219,7 @@
       <c r="J591">
         <v>0.05</v>
       </c>
-      <c r="K591" s="2">
+      <c r="K591" s="5">
         <v>17911.441500000001</v>
       </c>
       <c r="L591" t="s">
@@ -23258,7 +23257,7 @@
       <c r="J592">
         <v>0.1</v>
       </c>
-      <c r="K592" s="2">
+      <c r="K592" s="5">
         <v>24072.402000000002</v>
       </c>
       <c r="L592" t="s">
@@ -23296,7 +23295,7 @@
       <c r="J593">
         <v>0.1</v>
       </c>
-      <c r="K593" s="2">
+      <c r="K593" s="5">
         <v>24072.40236</v>
       </c>
       <c r="L593" t="s">
@@ -23334,7 +23333,7 @@
       <c r="J594">
         <v>0.1</v>
       </c>
-      <c r="K594" s="2">
+      <c r="K594" s="5">
         <v>17294.248600000003</v>
       </c>
       <c r="L594" t="s">
@@ -23372,7 +23371,7 @@
       <c r="J595">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K595" s="2">
+      <c r="K595" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L595" t="s">
@@ -23410,7 +23409,7 @@
       <c r="J596">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K596" s="2">
+      <c r="K596" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L596" t="s">
@@ -23448,7 +23447,7 @@
       <c r="J597">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K597" s="2">
+      <c r="K597" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L597" t="s">
@@ -23486,7 +23485,7 @@
       <c r="J598">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K598" s="2">
+      <c r="K598" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L598" t="s">
@@ -23524,7 +23523,7 @@
       <c r="J599">
         <v>3.2258064516129032E-3</v>
       </c>
-      <c r="K599" s="2">
+      <c r="K599" s="5">
         <v>39013.187392258063</v>
       </c>
       <c r="L599" t="s">
@@ -23562,7 +23561,7 @@
       <c r="J600">
         <v>0.1</v>
       </c>
-      <c r="K600" s="2">
+      <c r="K600" s="5">
         <v>17294.248600000003</v>
       </c>
       <c r="L600" t="s">
@@ -23597,7 +23596,7 @@
       <c r="J601">
         <v>0.1</v>
       </c>
-      <c r="K601" s="2">
+      <c r="K601" s="5">
         <v>13080.658799999999</v>
       </c>
       <c r="L601" t="s">
@@ -23632,7 +23631,7 @@
       <c r="J602">
         <v>0.1</v>
       </c>
-      <c r="K602" s="2">
+      <c r="K602" s="5">
         <v>49371.217039999996</v>
       </c>
       <c r="L602" t="s">
@@ -23667,7 +23666,7 @@
       <c r="J603">
         <v>0.15</v>
       </c>
-      <c r="K603" s="2">
+      <c r="K603" s="5">
         <v>6336.4727399999992</v>
       </c>
       <c r="L603" t="s">
@@ -23702,7 +23701,7 @@
       <c r="J604">
         <v>0.4</v>
       </c>
-      <c r="K604" s="2">
+      <c r="K604" s="5">
         <v>16897.26064</v>
       </c>
       <c r="L604" t="s">
@@ -23737,7 +23736,7 @@
       <c r="J605">
         <v>0.2</v>
       </c>
-      <c r="K605" s="2">
+      <c r="K605" s="5">
         <v>8448.6303200000002</v>
       </c>
       <c r="L605" t="s">
@@ -23772,7 +23771,7 @@
       <c r="J606">
         <v>0.1</v>
       </c>
-      <c r="K606" s="2">
+      <c r="K606" s="5">
         <v>4224.3151600000001</v>
       </c>
       <c r="L606" t="s">
@@ -23810,7 +23809,7 @@
       <c r="J607">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K607" s="2">
+      <c r="K607" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L607" t="s">
@@ -23848,7 +23847,7 @@
       <c r="J608">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K608" s="2">
+      <c r="K608" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L608" t="s">
@@ -23886,7 +23885,7 @@
       <c r="J609">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K609" s="2">
+      <c r="K609" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L609" t="s">
@@ -23924,7 +23923,7 @@
       <c r="J610">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K610" s="2">
+      <c r="K610" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L610" t="s">
@@ -23959,7 +23958,7 @@
       <c r="J611">
         <v>1</v>
       </c>
-      <c r="K611" s="2">
+      <c r="K611" s="5">
         <v>132909.80719999998</v>
       </c>
       <c r="L611" t="s">
@@ -23997,7 +23996,7 @@
       <c r="J612">
         <v>0.15</v>
       </c>
-      <c r="K612" s="2">
+      <c r="K612" s="5">
         <v>40575.754259999994</v>
       </c>
       <c r="L612" t="s">
@@ -24032,7 +24031,7 @@
       <c r="J613">
         <v>0.15</v>
       </c>
-      <c r="K613" s="2">
+      <c r="K613" s="5">
         <v>2413.4324999999999</v>
       </c>
       <c r="L613" t="s">
@@ -24070,7 +24069,7 @@
       <c r="J614">
         <v>0.15</v>
       </c>
-      <c r="K614" s="2">
+      <c r="K614" s="5">
         <v>34797.315179999998</v>
       </c>
       <c r="L614" t="s">
@@ -24108,7 +24107,7 @@
       <c r="J615">
         <v>0.15</v>
       </c>
-      <c r="K615" s="2">
+      <c r="K615" s="5">
         <v>36108.603539999996</v>
       </c>
       <c r="L615" t="s">
@@ -24146,7 +24145,7 @@
       <c r="J616">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K616" s="2">
+      <c r="K616" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L616" t="s">
@@ -24184,7 +24183,7 @@
       <c r="J617">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K617" s="2">
+      <c r="K617" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L617" t="s">
@@ -24222,7 +24221,7 @@
       <c r="J618">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K618" s="2">
+      <c r="K618" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L618" t="s">
@@ -24260,7 +24259,7 @@
       <c r="J619">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="K619" s="2">
+      <c r="K619" s="5">
         <v>158531.16162</v>
       </c>
       <c r="L619" t="s">
@@ -24295,7 +24294,7 @@
       <c r="J620">
         <v>0.15</v>
       </c>
-      <c r="K620" s="2">
+      <c r="K620" s="5">
         <v>2413.4324999999999</v>
       </c>
       <c r="L620" t="s">
@@ -24333,7 +24332,7 @@
       <c r="J621">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K621" s="2">
+      <c r="K621" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L621" t="s">
@@ -24371,7 +24370,7 @@
       <c r="J622">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K622" s="2">
+      <c r="K622" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L622" t="s">
@@ -24409,7 +24408,7 @@
       <c r="J623">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K623" s="2">
+      <c r="K623" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L623" t="s">
@@ -24447,7 +24446,7 @@
       <c r="J624">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K624" s="2">
+      <c r="K624" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L624" t="s">
@@ -24482,7 +24481,7 @@
       <c r="J625">
         <v>0.4</v>
       </c>
-      <c r="K625" s="2">
+      <c r="K625" s="5">
         <v>74008.992960000003</v>
       </c>
       <c r="L625" t="s">
@@ -24520,7 +24519,7 @@
       <c r="J626">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K626" s="2">
+      <c r="K626" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L626" t="s">
@@ -24558,7 +24557,7 @@
       <c r="J627">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K627" s="2">
+      <c r="K627" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L627" t="s">
@@ -24596,7 +24595,7 @@
       <c r="J628">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K628" s="2">
+      <c r="K628" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L628" t="s">
@@ -24631,7 +24630,7 @@
       <c r="J629">
         <v>0.4</v>
       </c>
-      <c r="K629" s="2">
+      <c r="K629" s="5">
         <v>106195.20000000001</v>
       </c>
       <c r="L629" t="s">
@@ -24669,7 +24668,7 @@
       <c r="J630">
         <v>0.04</v>
       </c>
-      <c r="K630" s="2">
+      <c r="K630" s="5">
         <v>32400</v>
       </c>
       <c r="L630" t="s">
@@ -24707,7 +24706,7 @@
       <c r="J631">
         <v>0.04</v>
       </c>
-      <c r="K631" s="2">
+      <c r="K631" s="5">
         <v>32400</v>
       </c>
       <c r="L631" t="s">
@@ -24745,7 +24744,7 @@
       <c r="J632">
         <v>0.2</v>
       </c>
-      <c r="K632" s="2">
+      <c r="K632" s="5">
         <v>48144.80472</v>
       </c>
       <c r="L632" t="s">
@@ -24783,7 +24782,7 @@
       <c r="J633">
         <v>0.2</v>
       </c>
-      <c r="K633" s="2">
+      <c r="K633" s="5">
         <v>46120.769440000004</v>
       </c>
       <c r="L633" t="s">
@@ -24821,7 +24820,7 @@
       <c r="J634">
         <v>1.4285714285714287E-2</v>
       </c>
-      <c r="K634" s="2">
+      <c r="K634" s="5">
         <v>16166.93285714286</v>
       </c>
       <c r="L634" t="s">
@@ -24859,7 +24858,7 @@
       <c r="J635">
         <v>1.4285714285714287E-2</v>
       </c>
-      <c r="K635" s="2">
+      <c r="K635" s="5">
         <v>16166.93285714286</v>
       </c>
       <c r="L635" t="s">
@@ -24897,7 +24896,7 @@
       <c r="J636">
         <v>1.4285714285714287E-2</v>
       </c>
-      <c r="K636" s="2">
+      <c r="K636" s="5">
         <v>16166.93285714286</v>
       </c>
       <c r="L636" t="s">
@@ -24935,7 +24934,7 @@
       <c r="J637">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K637" s="2">
+      <c r="K637" s="5">
         <v>16166.932750000002</v>
       </c>
       <c r="L637" t="s">
@@ -24970,7 +24969,7 @@
       <c r="J638">
         <v>0.1</v>
       </c>
-      <c r="K638" s="2">
+      <c r="K638" s="5">
         <v>35699.999919999995</v>
       </c>
       <c r="L638" t="s">
@@ -25008,7 +25007,7 @@
       <c r="J639">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K639" s="2">
+      <c r="K639" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L639" t="s">
@@ -25046,7 +25045,7 @@
       <c r="J640">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="K640" s="2">
+      <c r="K640" s="5">
         <v>4196.11672</v>
       </c>
       <c r="L640" t="s">
@@ -25081,7 +25080,7 @@
       <c r="J641">
         <v>0.1</v>
       </c>
-      <c r="K641" s="2">
+      <c r="K641" s="5">
         <v>17603.974399999999</v>
       </c>
       <c r="L641" t="s">
@@ -25116,7 +25115,7 @@
       <c r="J642">
         <v>0.15</v>
       </c>
-      <c r="K642" s="2">
+      <c r="K642" s="5">
         <v>37336.53</v>
       </c>
       <c r="L642" t="s">
@@ -25151,7 +25150,7 @@
       <c r="J643">
         <v>0.15</v>
       </c>
-      <c r="K643" s="2">
+      <c r="K643" s="5">
         <v>39982.14978</v>
       </c>
       <c r="L643" t="s">
@@ -25189,7 +25188,7 @@
       <c r="J644">
         <v>1.2903225806451613E-2</v>
       </c>
-      <c r="K644" s="2">
+      <c r="K644" s="5">
         <v>156052.74956903225</v>
       </c>
       <c r="L644" t="s">
@@ -25227,7 +25226,7 @@
       <c r="J645">
         <v>1.2903225806451613E-2</v>
       </c>
-      <c r="K645" s="2">
+      <c r="K645" s="5">
         <v>156052.74956903225</v>
       </c>
       <c r="L645" t="s">
@@ -25265,7 +25264,7 @@
       <c r="J646">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K646" s="2">
+      <c r="K646" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L646" t="s">
@@ -25303,7 +25302,7 @@
       <c r="J647">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K647" s="2">
+      <c r="K647" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L647" t="s">
@@ -25341,7 +25340,7 @@
       <c r="J648">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K648" s="2">
+      <c r="K648" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L648" t="s">
@@ -25379,7 +25378,7 @@
       <c r="J649">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K649" s="2">
+      <c r="K649" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L649" t="s">
@@ -25417,7 +25416,7 @@
       <c r="J650">
         <v>0.05</v>
       </c>
-      <c r="K650" s="2">
+      <c r="K650" s="5">
         <v>32333.865500000004</v>
       </c>
       <c r="L650" t="s">
@@ -25452,7 +25451,7 @@
       <c r="J651">
         <v>0.2</v>
       </c>
-      <c r="K651" s="2">
+      <c r="K651" s="5">
         <v>35802.163439999997</v>
       </c>
       <c r="L651" t="s">
@@ -25490,7 +25489,7 @@
       <c r="J652">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K652" s="2">
+      <c r="K652" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L652" t="s">
@@ -25528,7 +25527,7 @@
       <c r="J653">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K653" s="2">
+      <c r="K653" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L653" t="s">
@@ -25566,7 +25565,7 @@
       <c r="J654">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K654" s="2">
+      <c r="K654" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L654" t="s">
@@ -25604,7 +25603,7 @@
       <c r="J655">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K655" s="2">
+      <c r="K655" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L655" t="s">
@@ -25639,7 +25638,7 @@
       <c r="J656">
         <v>0.2</v>
       </c>
-      <c r="K656" s="2">
+      <c r="K656" s="5">
         <v>82743.435360000018</v>
       </c>
       <c r="L656" t="s">
@@ -25674,7 +25673,7 @@
       <c r="J657">
         <v>0.2</v>
       </c>
-      <c r="K657" s="2">
+      <c r="K657" s="5">
         <v>36170.8848</v>
       </c>
       <c r="L657" t="s">
@@ -25709,7 +25708,7 @@
       <c r="J658">
         <v>0.2</v>
       </c>
-      <c r="K658" s="2">
+      <c r="K658" s="5">
         <v>19698.600000000002</v>
       </c>
       <c r="L658" t="s">
@@ -25744,7 +25743,7 @@
       <c r="J659">
         <v>0.2</v>
       </c>
-      <c r="K659" s="2">
+      <c r="K659" s="5">
         <v>3747.2175999999995</v>
       </c>
       <c r="L659" t="s">
@@ -25779,7 +25778,7 @@
       <c r="J660">
         <v>0.2</v>
       </c>
-      <c r="K660" s="2">
+      <c r="K660" s="5">
         <v>8337.3236799999995</v>
       </c>
       <c r="L660" t="s">
@@ -25814,7 +25813,7 @@
       <c r="J661">
         <v>0.1</v>
       </c>
-      <c r="K661" s="2">
+      <c r="K661" s="5">
         <v>9849.3000000000011</v>
       </c>
       <c r="L661" t="s">
@@ -25849,7 +25848,7 @@
       <c r="J662">
         <v>0.1</v>
       </c>
-      <c r="K662" s="2">
+      <c r="K662" s="5">
         <v>1873.6087999999997</v>
       </c>
       <c r="L662" t="s">
@@ -25884,7 +25883,7 @@
       <c r="J663">
         <v>0.1</v>
       </c>
-      <c r="K663" s="2">
+      <c r="K663" s="5">
         <v>4168.6618399999998</v>
       </c>
       <c r="L663" t="s">
@@ -25922,7 +25921,7 @@
       <c r="J664">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K664" s="2">
+      <c r="K664" s="5">
         <v>16166.932750000002</v>
       </c>
       <c r="L664" t="s">
@@ -25960,7 +25959,7 @@
       <c r="J665">
         <v>0.02</v>
       </c>
-      <c r="K665" s="2">
+      <c r="K665" s="5">
         <v>16200</v>
       </c>
       <c r="L665" t="s">
@@ -25998,7 +25997,7 @@
       <c r="J666">
         <v>0.02</v>
       </c>
-      <c r="K666" s="2">
+      <c r="K666" s="5">
         <v>16200</v>
       </c>
       <c r="L666" t="s">
@@ -26036,7 +26035,7 @@
       <c r="J667">
         <v>0.02</v>
       </c>
-      <c r="K667" s="2">
+      <c r="K667" s="5">
         <v>16200</v>
       </c>
       <c r="L667" t="s">
@@ -26074,7 +26073,7 @@
       <c r="J668">
         <v>0.4</v>
       </c>
-      <c r="K668" s="2">
+      <c r="K668" s="5">
         <v>429482.00592000014</v>
       </c>
       <c r="L668" t="s">
@@ -26109,7 +26108,7 @@
       <c r="J669">
         <v>0.15</v>
       </c>
-      <c r="K669" s="2">
+      <c r="K669" s="5">
         <v>7281.4350000000004</v>
       </c>
       <c r="L669" t="s">
@@ -26144,7 +26143,7 @@
       <c r="J670">
         <v>0.15</v>
       </c>
-      <c r="K670" s="2">
+      <c r="K670" s="5">
         <v>7281.4350000000004</v>
       </c>
       <c r="L670" t="s">
@@ -26182,7 +26181,7 @@
       <c r="J671">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="K671" s="2">
+      <c r="K671" s="5">
         <v>302352.20228999993</v>
       </c>
       <c r="L671" t="s">
@@ -26220,7 +26219,7 @@
       <c r="J672">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="K672" s="2">
+      <c r="K672" s="5">
         <v>158531.16162</v>
       </c>
       <c r="L672" t="s">
@@ -26258,7 +26257,7 @@
       <c r="J673">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="K673" s="2">
+      <c r="K673" s="5">
         <v>158531.16162</v>
       </c>
       <c r="L673" t="s">
@@ -26296,7 +26295,7 @@
       <c r="J674">
         <v>0.4</v>
       </c>
-      <c r="K674" s="2">
+      <c r="K674" s="5">
         <v>92792.840480000013</v>
       </c>
       <c r="L674" t="s">
@@ -26334,7 +26333,7 @@
       <c r="J675">
         <v>3.6585365853658534E-3</v>
       </c>
-      <c r="K675" s="2">
+      <c r="K675" s="5">
         <v>30924.133077140315</v>
       </c>
       <c r="L675" t="s">
@@ -26372,7 +26371,7 @@
       <c r="J676">
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="K676" s="2">
+      <c r="K676" s="5">
         <v>82464.354872374184</v>
       </c>
       <c r="L676" t="s">
@@ -26410,7 +26409,7 @@
       <c r="J677">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K677" s="2">
+      <c r="K677" s="5">
         <v>16166.932750000002</v>
       </c>
       <c r="L677" t="s">
@@ -26448,7 +26447,7 @@
       <c r="J678">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K678" s="2">
+      <c r="K678" s="5">
         <v>16166.932750000002</v>
       </c>
       <c r="L678" t="s">
@@ -26483,7 +26482,7 @@
       <c r="J679">
         <v>0.2</v>
       </c>
-      <c r="K679" s="2">
+      <c r="K679" s="5">
         <v>53097.600000000006</v>
       </c>
       <c r="L679" t="s">
@@ -26521,7 +26520,7 @@
       <c r="J680">
         <v>4.8780487804878049E-3</v>
       </c>
-      <c r="K680" s="2">
+      <c r="K680" s="5">
         <v>41232.177436187092</v>
       </c>
       <c r="L680" t="s">
@@ -26556,7 +26555,7 @@
       <c r="J681">
         <v>0.2</v>
       </c>
-      <c r="K681" s="2">
+      <c r="K681" s="5">
         <v>37004.496480000002</v>
       </c>
       <c r="L681" t="s">
@@ -26594,7 +26593,7 @@
       <c r="J682">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K682" s="2">
+      <c r="K682" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L682" t="s">
@@ -26632,7 +26631,7 @@
       <c r="J683">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="K683" s="2">
+      <c r="K683" s="5">
         <v>2098.05836</v>
       </c>
       <c r="L683" t="s">
@@ -26670,7 +26669,7 @@
       <c r="J684">
         <v>0.1</v>
       </c>
-      <c r="K684" s="2">
+      <c r="K684" s="5">
         <v>24072.40236</v>
       </c>
       <c r="L684" t="s">
@@ -26708,7 +26707,7 @@
       <c r="J685">
         <v>0.1</v>
       </c>
-      <c r="K685" s="2">
+      <c r="K685" s="5">
         <v>24072.40236</v>
       </c>
       <c r="L685" t="s">
@@ -26719,7 +26718,7 @@
       <c r="A686" s="1">
         <v>45450</v>
       </c>
-      <c r="B686" s="6" t="s">
+      <c r="B686" t="s">
         <v>326</v>
       </c>
       <c r="C686" t="s">
@@ -26746,7 +26745,7 @@
       <c r="J686">
         <v>0.1</v>
       </c>
-      <c r="K686" s="2">
+      <c r="K686" s="5">
         <v>23060.384720000002</v>
       </c>
       <c r="L686" t="s">

--- a/datasets/Ventas_Vori_Vost_2024.xlsx
+++ b/datasets/Ventas_Vori_Vost_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FACEB04-B7C2-41C4-B668-E7F470CA93E1}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96A4598-9BAD-45C2-B745-FFD6F2092BE8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C751E623-A2D5-4481-B6AF-2D07DB0C8E71}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="394">
   <si>
     <t>FECHA</t>
   </si>
@@ -1034,9 +1034,6 @@
     <t>Vista Verde Prototipo Roble Lote 26</t>
   </si>
   <si>
-    <t>L 26</t>
-  </si>
-  <si>
     <t>CTVV 2632</t>
   </si>
   <si>
@@ -1203,6 +1200,24 @@
   </si>
   <si>
     <t>L 38</t>
+  </si>
+  <si>
+    <t>Prototipo A (Isma)</t>
+  </si>
+  <si>
+    <t>PEND 5</t>
+  </si>
+  <si>
+    <t>Prototipo Nicaragua</t>
+  </si>
+  <si>
+    <t>L 33 - 9A</t>
+  </si>
+  <si>
+    <t>CTVV 2938-C4</t>
+  </si>
+  <si>
+    <t>Veronesa Prototipo C (4ta Casa)</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1254,15 +1269,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1285,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}" name="Tabla1" displayName="Tabla1" ref="A1:L686" totalsRowShown="0">
-  <autoFilter ref="A1:L686" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}" name="Tabla1" displayName="Tabla1" ref="A1:L705" totalsRowShown="0">
+  <autoFilter ref="A1:L705" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7105FF0D-C5A9-4187-B96A-33FB756183B6}" name="FECHA" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{5B617DB1-79A2-407B-9ED4-293700021272}" name="CTVV"/>
@@ -1622,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E294A03A-0BD5-47C2-87E5-BF6F2CE97FDF}">
-  <dimension ref="A1:L686"/>
+  <dimension ref="A1:L705"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K686"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20970,7 +20985,7 @@
         <v>16</v>
       </c>
       <c r="H531" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="I531">
         <v>0.15</v>
@@ -21101,10 +21116,10 @@
         <v>45412</v>
       </c>
       <c r="B535" t="s">
+        <v>332</v>
+      </c>
+      <c r="C535" t="s">
         <v>333</v>
-      </c>
-      <c r="C535" t="s">
-        <v>334</v>
       </c>
       <c r="D535" t="s">
         <v>85</v>
@@ -21215,10 +21230,10 @@
         <v>45412</v>
       </c>
       <c r="B538" t="s">
+        <v>332</v>
+      </c>
+      <c r="C538" t="s">
         <v>333</v>
-      </c>
-      <c r="C538" t="s">
-        <v>334</v>
       </c>
       <c r="D538" t="s">
         <v>85</v>
@@ -21291,10 +21306,10 @@
         <v>45412</v>
       </c>
       <c r="B540" t="s">
+        <v>332</v>
+      </c>
+      <c r="C540" t="s">
         <v>333</v>
-      </c>
-      <c r="C540" t="s">
-        <v>334</v>
       </c>
       <c r="D540" t="s">
         <v>85</v>
@@ -21583,10 +21598,10 @@
         <v>45412</v>
       </c>
       <c r="B548" t="s">
+        <v>332</v>
+      </c>
+      <c r="C548" t="s">
         <v>333</v>
-      </c>
-      <c r="C548" t="s">
-        <v>334</v>
       </c>
       <c r="D548" t="s">
         <v>85</v>
@@ -21621,10 +21636,10 @@
         <v>45413</v>
       </c>
       <c r="B549" t="s">
+        <v>334</v>
+      </c>
+      <c r="C549" t="s">
         <v>335</v>
-      </c>
-      <c r="C549" t="s">
-        <v>336</v>
       </c>
       <c r="D549" t="s">
         <v>88</v>
@@ -21648,7 +21663,7 @@
         <v>37336.53</v>
       </c>
       <c r="L549" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.45">
@@ -21656,10 +21671,10 @@
         <v>45413</v>
       </c>
       <c r="B550" t="s">
+        <v>337</v>
+      </c>
+      <c r="C550" t="s">
         <v>338</v>
-      </c>
-      <c r="C550" t="s">
-        <v>339</v>
       </c>
       <c r="D550" t="s">
         <v>88</v>
@@ -21683,7 +21698,7 @@
         <v>39982.14978</v>
       </c>
       <c r="L550" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.45">
@@ -21718,7 +21733,7 @@
         <v>26851.622579999999</v>
       </c>
       <c r="L551" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.45">
@@ -21753,7 +21768,7 @@
         <v>27753.372360000001</v>
       </c>
       <c r="L552" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.45">
@@ -21788,7 +21803,7 @@
         <v>39823.199999999997</v>
       </c>
       <c r="L553" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.45">
@@ -21796,10 +21811,10 @@
         <v>45426</v>
       </c>
       <c r="B554" t="s">
+        <v>339</v>
+      </c>
+      <c r="C554" t="s">
         <v>340</v>
-      </c>
-      <c r="C554" t="s">
-        <v>341</v>
       </c>
       <c r="D554">
         <v>0</v>
@@ -21823,7 +21838,7 @@
         <v>127500</v>
       </c>
       <c r="L554" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.45">
@@ -21861,7 +21876,7 @@
         <v>92241.538880000007</v>
       </c>
       <c r="L555" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.45">
@@ -21869,10 +21884,10 @@
         <v>45415</v>
       </c>
       <c r="B556" t="s">
+        <v>341</v>
+      </c>
+      <c r="C556" t="s">
         <v>342</v>
-      </c>
-      <c r="C556" t="s">
-        <v>343</v>
       </c>
       <c r="D556" t="s">
         <v>88</v>
@@ -21887,7 +21902,7 @@
         <v>79</v>
       </c>
       <c r="H556" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I556">
         <v>0.4</v>
@@ -21899,7 +21914,7 @@
         <v>92792.840480000013</v>
       </c>
       <c r="L556" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.45">
@@ -21934,7 +21949,7 @@
         <v>72341.7696</v>
       </c>
       <c r="L557" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.45">
@@ -21969,7 +21984,7 @@
         <v>56647.575720000001</v>
       </c>
       <c r="L558" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.45">
@@ -21995,7 +22010,7 @@
         <v>79</v>
       </c>
       <c r="H559" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I559">
         <v>0.4</v>
@@ -22007,7 +22022,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L559" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.45">
@@ -22033,7 +22048,7 @@
         <v>79</v>
       </c>
       <c r="H560" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I560">
         <v>0.4</v>
@@ -22045,7 +22060,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L560" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.45">
@@ -22071,7 +22086,7 @@
         <v>79</v>
       </c>
       <c r="H561" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I561">
         <v>0.4</v>
@@ -22083,7 +22098,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L561" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.45">
@@ -22109,7 +22124,7 @@
         <v>79</v>
       </c>
       <c r="H562" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I562">
         <v>0.4</v>
@@ -22121,7 +22136,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L562" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.45">
@@ -22147,7 +22162,7 @@
         <v>79</v>
       </c>
       <c r="H563" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I563">
         <v>0.4</v>
@@ -22159,7 +22174,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L563" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.45">
@@ -22185,7 +22200,7 @@
         <v>79</v>
       </c>
       <c r="H564" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I564">
         <v>0.4</v>
@@ -22197,7 +22212,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L564" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.45">
@@ -22223,7 +22238,7 @@
         <v>79</v>
       </c>
       <c r="H565" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I565">
         <v>0.4</v>
@@ -22235,7 +22250,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L565" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.45">
@@ -22261,7 +22276,7 @@
         <v>79</v>
       </c>
       <c r="H566" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I566">
         <v>0.4</v>
@@ -22273,7 +22288,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L566" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.45">
@@ -22299,7 +22314,7 @@
         <v>79</v>
       </c>
       <c r="H567" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I567">
         <v>0.4</v>
@@ -22311,7 +22326,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L567" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.45">
@@ -22337,7 +22352,7 @@
         <v>79</v>
       </c>
       <c r="H568" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I568">
         <v>0.4</v>
@@ -22349,7 +22364,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L568" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.45">
@@ -22375,7 +22390,7 @@
         <v>79</v>
       </c>
       <c r="H569" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I569">
         <v>0.4</v>
@@ -22387,7 +22402,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L569" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.45">
@@ -22413,7 +22428,7 @@
         <v>79</v>
       </c>
       <c r="H570" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I570">
         <v>0.4</v>
@@ -22425,7 +22440,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L570" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.45">
@@ -22451,7 +22466,7 @@
         <v>79</v>
       </c>
       <c r="H571" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I571">
         <v>0.4</v>
@@ -22463,7 +22478,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L571" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.45">
@@ -22489,7 +22504,7 @@
         <v>79</v>
       </c>
       <c r="H572" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I572">
         <v>0.4</v>
@@ -22501,7 +22516,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L572" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.45">
@@ -22527,7 +22542,7 @@
         <v>79</v>
       </c>
       <c r="H573" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I573">
         <v>0.4</v>
@@ -22539,7 +22554,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L573" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.45">
@@ -22565,7 +22580,7 @@
         <v>79</v>
       </c>
       <c r="H574" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I574">
         <v>0.4</v>
@@ -22577,7 +22592,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L574" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.45">
@@ -22603,7 +22618,7 @@
         <v>79</v>
       </c>
       <c r="H575" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I575">
         <v>0.4</v>
@@ -22615,7 +22630,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L575" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.45">
@@ -22641,7 +22656,7 @@
         <v>79</v>
       </c>
       <c r="H576" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I576">
         <v>0.4</v>
@@ -22653,7 +22668,7 @@
         <v>8392.23344</v>
       </c>
       <c r="L576" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.45">
@@ -22691,7 +22706,7 @@
         <v>96289.60944</v>
       </c>
       <c r="L577" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.45">
@@ -22729,7 +22744,7 @@
         <v>32333.865714285719</v>
       </c>
       <c r="L578" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.45">
@@ -22767,7 +22782,7 @@
         <v>32333.865714285719</v>
       </c>
       <c r="L579" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.45">
@@ -22805,7 +22820,7 @@
         <v>47270.599955555561</v>
       </c>
       <c r="L580" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.45">
@@ -22843,7 +22858,7 @@
         <v>41232.177436187092</v>
       </c>
       <c r="L581" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.45">
@@ -22869,7 +22884,7 @@
         <v>106</v>
       </c>
       <c r="H582" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I582">
         <v>0.2</v>
@@ -22881,7 +22896,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L582" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.45">
@@ -22919,7 +22934,7 @@
         <v>32333.865714285719</v>
       </c>
       <c r="L583" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.45">
@@ -22957,7 +22972,7 @@
         <v>32333.865500000004</v>
       </c>
       <c r="L584" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.45">
@@ -22995,7 +23010,7 @@
         <v>32400</v>
       </c>
       <c r="L585" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.45">
@@ -23003,10 +23018,10 @@
         <v>45425</v>
       </c>
       <c r="B586" t="s">
+        <v>341</v>
+      </c>
+      <c r="C586" t="s">
         <v>342</v>
-      </c>
-      <c r="C586" t="s">
-        <v>343</v>
       </c>
       <c r="D586" t="s">
         <v>88</v>
@@ -23021,7 +23036,7 @@
         <v>106</v>
       </c>
       <c r="H586" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I586">
         <v>0.2</v>
@@ -23033,7 +23048,7 @@
         <v>46396.420240000007</v>
       </c>
       <c r="L586" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.45">
@@ -23071,7 +23086,7 @@
         <v>46120.769440000004</v>
       </c>
       <c r="L587" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.45">
@@ -23097,7 +23112,7 @@
         <v>106</v>
       </c>
       <c r="H588" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I588">
         <v>0.2</v>
@@ -23109,7 +23124,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L588" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.45">
@@ -23135,7 +23150,7 @@
         <v>106</v>
       </c>
       <c r="H589" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I589">
         <v>0.2</v>
@@ -23147,7 +23162,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L589" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.45">
@@ -23173,7 +23188,7 @@
         <v>106</v>
       </c>
       <c r="H590" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I590">
         <v>0.2</v>
@@ -23185,7 +23200,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L590" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.45">
@@ -23223,7 +23238,7 @@
         <v>17911.441500000001</v>
       </c>
       <c r="L591" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.45">
@@ -23261,7 +23276,7 @@
         <v>24072.402000000002</v>
       </c>
       <c r="L592" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.45">
@@ -23299,7 +23314,7 @@
         <v>24072.40236</v>
       </c>
       <c r="L593" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.45">
@@ -23337,7 +23352,7 @@
         <v>17294.248600000003</v>
       </c>
       <c r="L594" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.45">
@@ -23363,7 +23378,7 @@
         <v>125</v>
       </c>
       <c r="H595" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I595">
         <v>0.1</v>
@@ -23375,7 +23390,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L595" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.45">
@@ -23401,7 +23416,7 @@
         <v>125</v>
       </c>
       <c r="H596" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I596">
         <v>0.1</v>
@@ -23413,7 +23428,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L596" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.45">
@@ -23439,7 +23454,7 @@
         <v>125</v>
       </c>
       <c r="H597" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I597">
         <v>0.1</v>
@@ -23451,7 +23466,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L597" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.45">
@@ -23477,7 +23492,7 @@
         <v>125</v>
       </c>
       <c r="H598" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I598">
         <v>0.1</v>
@@ -23489,7 +23504,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L598" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.45">
@@ -23527,7 +23542,7 @@
         <v>39013.187392258063</v>
       </c>
       <c r="L599" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.45">
@@ -23565,7 +23580,7 @@
         <v>17294.248600000003</v>
       </c>
       <c r="L600" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.45">
@@ -23600,7 +23615,7 @@
         <v>13080.658799999999</v>
       </c>
       <c r="L601" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.45">
@@ -23635,7 +23650,7 @@
         <v>49371.217039999996</v>
       </c>
       <c r="L602" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.45">
@@ -23670,7 +23685,7 @@
         <v>6336.4727399999992</v>
       </c>
       <c r="L603" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.45">
@@ -23705,7 +23720,7 @@
         <v>16897.26064</v>
       </c>
       <c r="L604" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.45">
@@ -23740,7 +23755,7 @@
         <v>8448.6303200000002</v>
       </c>
       <c r="L605" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.45">
@@ -23775,7 +23790,7 @@
         <v>4224.3151600000001</v>
       </c>
       <c r="L606" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.45">
@@ -23801,7 +23816,7 @@
         <v>106</v>
       </c>
       <c r="H607" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I607">
         <v>0.2</v>
@@ -23813,7 +23828,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L607" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.45">
@@ -23839,7 +23854,7 @@
         <v>106</v>
       </c>
       <c r="H608" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I608">
         <v>0.2</v>
@@ -23851,7 +23866,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L608" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.45">
@@ -23877,7 +23892,7 @@
         <v>106</v>
       </c>
       <c r="H609" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I609">
         <v>0.2</v>
@@ -23889,7 +23904,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L609" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.45">
@@ -23915,7 +23930,7 @@
         <v>106</v>
       </c>
       <c r="H610" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I610">
         <v>0.2</v>
@@ -23927,7 +23942,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L610" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.45">
@@ -23935,10 +23950,10 @@
         <v>45415</v>
       </c>
       <c r="B611" t="s">
+        <v>362</v>
+      </c>
+      <c r="C611" t="s">
         <v>363</v>
-      </c>
-      <c r="C611" t="s">
-        <v>364</v>
       </c>
       <c r="D611" t="s">
         <v>88</v>
@@ -23962,7 +23977,7 @@
         <v>132909.80719999998</v>
       </c>
       <c r="L611" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.45">
@@ -23970,10 +23985,10 @@
         <v>45415</v>
       </c>
       <c r="B612" t="s">
+        <v>364</v>
+      </c>
+      <c r="C612" t="s">
         <v>365</v>
-      </c>
-      <c r="C612" t="s">
-        <v>366</v>
       </c>
       <c r="D612" t="s">
         <v>88</v>
@@ -23988,7 +24003,7 @@
         <v>16</v>
       </c>
       <c r="H612" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I612">
         <v>0.15</v>
@@ -24000,7 +24015,7 @@
         <v>40575.754259999994</v>
       </c>
       <c r="L612" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.45">
@@ -24008,13 +24023,13 @@
         <v>45421</v>
       </c>
       <c r="B613" t="s">
+        <v>367</v>
+      </c>
+      <c r="C613" t="s">
         <v>368</v>
       </c>
-      <c r="C613" t="s">
+      <c r="D613" t="s">
         <v>369</v>
-      </c>
-      <c r="D613" t="s">
-        <v>370</v>
       </c>
       <c r="E613" t="s">
         <v>15</v>
@@ -24035,7 +24050,7 @@
         <v>2413.4324999999999</v>
       </c>
       <c r="L613" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.45">
@@ -24043,10 +24058,10 @@
         <v>45422</v>
       </c>
       <c r="B614" t="s">
+        <v>341</v>
+      </c>
+      <c r="C614" t="s">
         <v>342</v>
-      </c>
-      <c r="C614" t="s">
-        <v>343</v>
       </c>
       <c r="D614" t="s">
         <v>88</v>
@@ -24061,7 +24076,7 @@
         <v>16</v>
       </c>
       <c r="H614" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I614">
         <v>0.15</v>
@@ -24073,7 +24088,7 @@
         <v>34797.315179999998</v>
       </c>
       <c r="L614" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.45">
@@ -24111,7 +24126,7 @@
         <v>36108.603539999996</v>
       </c>
       <c r="L615" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.45">
@@ -24137,7 +24152,7 @@
         <v>29</v>
       </c>
       <c r="H616" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I616">
         <v>0.15</v>
@@ -24149,7 +24164,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L616" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.45">
@@ -24175,7 +24190,7 @@
         <v>16</v>
       </c>
       <c r="H617" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I617">
         <v>0.15</v>
@@ -24187,7 +24202,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L617" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.45">
@@ -24213,7 +24228,7 @@
         <v>16</v>
       </c>
       <c r="H618" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I618">
         <v>0.15</v>
@@ -24225,7 +24240,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L618" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.45">
@@ -24251,7 +24266,7 @@
         <v>29</v>
       </c>
       <c r="H619" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I619">
         <v>0.15</v>
@@ -24263,7 +24278,7 @@
         <v>158531.16162</v>
       </c>
       <c r="L619" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.45">
@@ -24271,13 +24286,13 @@
         <v>45436</v>
       </c>
       <c r="B620" t="s">
+        <v>367</v>
+      </c>
+      <c r="C620" t="s">
         <v>368</v>
       </c>
-      <c r="C620" t="s">
+      <c r="D620" t="s">
         <v>369</v>
-      </c>
-      <c r="D620" t="s">
-        <v>370</v>
       </c>
       <c r="E620" t="s">
         <v>15</v>
@@ -24298,7 +24313,7 @@
         <v>2413.4324999999999</v>
       </c>
       <c r="L620" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.45">
@@ -24324,7 +24339,7 @@
         <v>29</v>
       </c>
       <c r="H621" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I621">
         <v>0.15</v>
@@ -24336,7 +24351,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L621" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.45">
@@ -24362,7 +24377,7 @@
         <v>29</v>
       </c>
       <c r="H622" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I622">
         <v>0.15</v>
@@ -24374,7 +24389,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L622" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.45">
@@ -24400,7 +24415,7 @@
         <v>16</v>
       </c>
       <c r="H623" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I623">
         <v>0.15</v>
@@ -24412,7 +24427,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L623" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.45">
@@ -24438,7 +24453,7 @@
         <v>29</v>
       </c>
       <c r="H624" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I624">
         <v>0.15</v>
@@ -24450,7 +24465,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L624" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.45">
@@ -24485,7 +24500,7 @@
         <v>74008.992960000003</v>
       </c>
       <c r="L625" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.45">
@@ -24511,7 +24526,7 @@
         <v>16</v>
       </c>
       <c r="H626" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I626">
         <v>0.15</v>
@@ -24523,7 +24538,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L626" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.45">
@@ -24549,7 +24564,7 @@
         <v>29</v>
       </c>
       <c r="H627" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I627">
         <v>0.15</v>
@@ -24561,7 +24576,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L627" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.45">
@@ -24587,7 +24602,7 @@
         <v>79</v>
       </c>
       <c r="H628" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I628">
         <v>0.4</v>
@@ -24599,7 +24614,7 @@
         <v>82464.354872374184</v>
       </c>
       <c r="L628" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.45">
@@ -24634,7 +24649,7 @@
         <v>106195.20000000001</v>
       </c>
       <c r="L629" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.45">
@@ -24672,7 +24687,7 @@
         <v>32400</v>
       </c>
       <c r="L630" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.45">
@@ -24710,7 +24725,7 @@
         <v>32400</v>
       </c>
       <c r="L631" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.45">
@@ -24748,7 +24763,7 @@
         <v>48144.80472</v>
       </c>
       <c r="L632" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.45">
@@ -24786,7 +24801,7 @@
         <v>46120.769440000004</v>
       </c>
       <c r="L633" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.45">
@@ -24824,7 +24839,7 @@
         <v>16166.93285714286</v>
       </c>
       <c r="L634" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.45">
@@ -24862,7 +24877,7 @@
         <v>16166.93285714286</v>
       </c>
       <c r="L635" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.45">
@@ -24900,7 +24915,7 @@
         <v>16166.93285714286</v>
       </c>
       <c r="L636" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.45">
@@ -24938,7 +24953,7 @@
         <v>16166.932750000002</v>
       </c>
       <c r="L637" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.45">
@@ -24973,7 +24988,7 @@
         <v>35699.999919999995</v>
       </c>
       <c r="L638" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.45">
@@ -24999,7 +25014,7 @@
         <v>106</v>
       </c>
       <c r="H639" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I639">
         <v>0.2</v>
@@ -25011,7 +25026,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L639" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.45">
@@ -25037,7 +25052,7 @@
         <v>106</v>
       </c>
       <c r="H640" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I640">
         <v>0.2</v>
@@ -25049,7 +25064,7 @@
         <v>4196.11672</v>
       </c>
       <c r="L640" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.45">
@@ -25084,7 +25099,7 @@
         <v>17603.974399999999</v>
       </c>
       <c r="L641" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.45">
@@ -25092,10 +25107,10 @@
         <v>45442</v>
       </c>
       <c r="B642" t="s">
+        <v>334</v>
+      </c>
+      <c r="C642" t="s">
         <v>335</v>
-      </c>
-      <c r="C642" t="s">
-        <v>336</v>
       </c>
       <c r="D642" t="s">
         <v>88</v>
@@ -25119,7 +25134,7 @@
         <v>37336.53</v>
       </c>
       <c r="L642" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.45">
@@ -25127,10 +25142,10 @@
         <v>45442</v>
       </c>
       <c r="B643" t="s">
+        <v>337</v>
+      </c>
+      <c r="C643" t="s">
         <v>338</v>
-      </c>
-      <c r="C643" t="s">
-        <v>339</v>
       </c>
       <c r="D643" t="s">
         <v>88</v>
@@ -25154,7 +25169,7 @@
         <v>39982.14978</v>
       </c>
       <c r="L643" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.45">
@@ -25180,7 +25195,7 @@
         <v>79</v>
       </c>
       <c r="H644" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I644">
         <v>0.4</v>
@@ -25192,7 +25207,7 @@
         <v>156052.74956903225</v>
       </c>
       <c r="L644" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.45">
@@ -25218,7 +25233,7 @@
         <v>79</v>
       </c>
       <c r="H645" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I645">
         <v>0.4</v>
@@ -25230,7 +25245,7 @@
         <v>156052.74956903225</v>
       </c>
       <c r="L645" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.45">
@@ -25256,7 +25271,7 @@
         <v>29</v>
       </c>
       <c r="H646" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I646">
         <v>0.15</v>
@@ -25268,7 +25283,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L646" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.45">
@@ -25294,7 +25309,7 @@
         <v>29</v>
       </c>
       <c r="H647" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I647">
         <v>0.15</v>
@@ -25306,7 +25321,7 @@
         <v>30924.133077140315</v>
       </c>
       <c r="L647" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.45">
@@ -25332,7 +25347,7 @@
         <v>79</v>
       </c>
       <c r="H648" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I648">
         <v>0.4</v>
@@ -25344,7 +25359,7 @@
         <v>82464.354872374184</v>
       </c>
       <c r="L648" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.45">
@@ -25370,7 +25385,7 @@
         <v>79</v>
       </c>
       <c r="H649" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I649">
         <v>0.4</v>
@@ -25382,7 +25397,7 @@
         <v>82464.354872374184</v>
       </c>
       <c r="L649" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.45">
@@ -25420,7 +25435,7 @@
         <v>32333.865500000004</v>
       </c>
       <c r="L650" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.45">
@@ -25455,7 +25470,7 @@
         <v>35802.163439999997</v>
       </c>
       <c r="L651" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.45">
@@ -25481,7 +25496,7 @@
         <v>125</v>
       </c>
       <c r="H652" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I652">
         <v>0.1</v>
@@ -25493,7 +25508,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L652" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.45">
@@ -25519,7 +25534,7 @@
         <v>125</v>
       </c>
       <c r="H653" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I653">
         <v>0.1</v>
@@ -25531,7 +25546,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L653" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.45">
@@ -25557,7 +25572,7 @@
         <v>125</v>
       </c>
       <c r="H654" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I654">
         <v>0.1</v>
@@ -25569,7 +25584,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L654" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.45">
@@ -25595,7 +25610,7 @@
         <v>125</v>
       </c>
       <c r="H655" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I655">
         <v>0.1</v>
@@ -25607,7 +25622,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L655" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.45">
@@ -25642,7 +25657,7 @@
         <v>82743.435360000018</v>
       </c>
       <c r="L656" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.45">
@@ -25677,7 +25692,7 @@
         <v>36170.8848</v>
       </c>
       <c r="L657" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.45">
@@ -25712,7 +25727,7 @@
         <v>19698.600000000002</v>
       </c>
       <c r="L658" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.45">
@@ -25747,7 +25762,7 @@
         <v>3747.2175999999995</v>
       </c>
       <c r="L659" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.45">
@@ -25782,7 +25797,7 @@
         <v>8337.3236799999995</v>
       </c>
       <c r="L660" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.45">
@@ -25817,7 +25832,7 @@
         <v>9849.3000000000011</v>
       </c>
       <c r="L661" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.45">
@@ -25852,7 +25867,7 @@
         <v>1873.6087999999997</v>
       </c>
       <c r="L662" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.45">
@@ -25887,7 +25902,7 @@
         <v>4168.6618399999998</v>
       </c>
       <c r="L663" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.45">
@@ -25925,7 +25940,7 @@
         <v>16166.932750000002</v>
       </c>
       <c r="L664" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.45">
@@ -25963,7 +25978,7 @@
         <v>16200</v>
       </c>
       <c r="L665" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.45">
@@ -26001,7 +26016,7 @@
         <v>16200</v>
       </c>
       <c r="L666" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.45">
@@ -26039,7 +26054,7 @@
         <v>16200</v>
       </c>
       <c r="L667" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.45">
@@ -26065,7 +26080,7 @@
         <v>79</v>
       </c>
       <c r="H668" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I668">
         <v>0.4</v>
@@ -26077,42 +26092,42 @@
         <v>429482.00592000014</v>
       </c>
       <c r="L668" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A669" s="1">
-        <v>45450</v>
+        <v>45442</v>
       </c>
       <c r="B669" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="C669" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="D669" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="E669" t="s">
         <v>21</v>
       </c>
       <c r="F669">
-        <v>48542.9</v>
+        <v>179010.81719999999</v>
       </c>
       <c r="G669" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I669">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="J669">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="K669" s="5">
-        <v>7281.4350000000004</v>
+        <v>71604.326879999993</v>
       </c>
       <c r="L669" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.45">
@@ -26120,13 +26135,13 @@
         <v>45450</v>
       </c>
       <c r="B670" t="s">
+        <v>380</v>
+      </c>
+      <c r="C670" t="s">
         <v>381</v>
       </c>
-      <c r="C670" t="s">
+      <c r="D670" t="s">
         <v>382</v>
-      </c>
-      <c r="D670" t="s">
-        <v>383</v>
       </c>
       <c r="E670" t="s">
         <v>21</v>
@@ -26135,7 +26150,7 @@
         <v>48542.9</v>
       </c>
       <c r="G670" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I670">
         <v>0.15</v>
@@ -26147,7 +26162,7 @@
         <v>7281.4350000000004</v>
       </c>
       <c r="L670" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.45">
@@ -26155,37 +26170,34 @@
         <v>45450</v>
       </c>
       <c r="B671" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
       <c r="C671" t="s">
-        <v>213</v>
+        <v>381</v>
       </c>
       <c r="D671" t="s">
-        <v>213</v>
+        <v>382</v>
       </c>
       <c r="E671" t="s">
         <v>21</v>
       </c>
       <c r="F671">
-        <v>12094088.091599999</v>
+        <v>48542.9</v>
       </c>
       <c r="G671" t="s">
         <v>29</v>
       </c>
-      <c r="H671" t="s">
-        <v>385</v>
-      </c>
       <c r="I671">
         <v>0.15</v>
       </c>
       <c r="J671">
-        <v>2.4999999999999998E-2</v>
+        <v>0.15</v>
       </c>
       <c r="K671" s="5">
-        <v>302352.20228999993</v>
+        <v>7281.4350000000004</v>
       </c>
       <c r="L671" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.45">
@@ -26193,37 +26205,37 @@
         <v>45450</v>
       </c>
       <c r="B672" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="C672" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="D672" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="E672" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F672">
-        <v>3170623.2324000001</v>
+        <v>12094088.091599999</v>
       </c>
       <c r="G672" t="s">
         <v>29</v>
       </c>
       <c r="H672" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I672">
         <v>0.15</v>
       </c>
       <c r="J672">
-        <v>4.9999999999999996E-2</v>
+        <v>2.4999999999999998E-2</v>
       </c>
       <c r="K672" s="5">
-        <v>158531.16162</v>
+        <v>302352.20228999993</v>
       </c>
       <c r="L672" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.45">
@@ -26249,7 +26261,7 @@
         <v>29</v>
       </c>
       <c r="H673" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I673">
         <v>0.15</v>
@@ -26261,7 +26273,7 @@
         <v>158531.16162</v>
       </c>
       <c r="L673" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.45">
@@ -26269,37 +26281,37 @@
         <v>45450</v>
       </c>
       <c r="B674" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="C674" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="D674" t="s">
         <v>88</v>
       </c>
       <c r="E674" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F674">
-        <v>231982.1012</v>
+        <v>3170623.2324000001</v>
       </c>
       <c r="G674" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H674" t="s">
-        <v>207</v>
+        <v>386</v>
       </c>
       <c r="I674">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="J674">
-        <v>0.4</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="K674" s="5">
-        <v>92792.840480000013</v>
+        <v>158531.16162</v>
       </c>
       <c r="L674" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.45">
@@ -26307,37 +26319,37 @@
         <v>45450</v>
       </c>
       <c r="B675" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="C675" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="D675" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E675" t="s">
         <v>21</v>
       </c>
       <c r="F675">
-        <v>8452596.3744183537</v>
+        <v>231982.1012</v>
       </c>
       <c r="G675" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H675" t="s">
-        <v>388</v>
+        <v>207</v>
       </c>
       <c r="I675">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="J675">
-        <v>3.6585365853658534E-3</v>
+        <v>0.4</v>
       </c>
       <c r="K675" s="5">
-        <v>30924.133077140315</v>
+        <v>92792.840480000013</v>
       </c>
       <c r="L675" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.45">
@@ -26360,22 +26372,22 @@
         <v>8452596.3744183537</v>
       </c>
       <c r="G676" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H676" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I676">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="J676">
-        <v>9.7560975609756097E-3</v>
+        <v>3.6585365853658534E-3</v>
       </c>
       <c r="K676" s="5">
-        <v>82464.354872374184</v>
+        <v>30924.133077140315</v>
       </c>
       <c r="L676" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.45">
@@ -26383,37 +26395,37 @@
         <v>45450</v>
       </c>
       <c r="B677" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="C677" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="D677" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E677" t="s">
         <v>21</v>
       </c>
       <c r="F677">
-        <v>646677.31000000006</v>
+        <v>8452596.3744183537</v>
       </c>
       <c r="G677" t="s">
-        <v>125</v>
-      </c>
-      <c r="H677">
-        <v>1177</v>
+        <v>79</v>
+      </c>
+      <c r="H677" t="s">
+        <v>387</v>
       </c>
       <c r="I677">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J677">
-        <v>2.5000000000000001E-2</v>
+        <v>9.7560975609756097E-3</v>
       </c>
       <c r="K677" s="5">
-        <v>16166.932750000002</v>
+        <v>82464.354872374184</v>
       </c>
       <c r="L677" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.45">
@@ -26439,7 +26451,7 @@
         <v>125</v>
       </c>
       <c r="H678">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I678">
         <v>0.1</v>
@@ -26451,7 +26463,7 @@
         <v>16166.932750000002</v>
       </c>
       <c r="L678" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.45">
@@ -26459,34 +26471,37 @@
         <v>45450</v>
       </c>
       <c r="B679" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="C679" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="D679" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E679" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F679">
-        <v>265488</v>
+        <v>646677.31000000006</v>
       </c>
       <c r="G679" t="s">
-        <v>106</v>
+        <v>125</v>
+      </c>
+      <c r="H679">
+        <v>1178</v>
       </c>
       <c r="I679">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J679">
-        <v>0.2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K679" s="5">
-        <v>53097.600000000006</v>
+        <v>16166.932750000002</v>
       </c>
       <c r="L679" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.45">
@@ -26494,37 +26509,34 @@
         <v>45450</v>
       </c>
       <c r="B680" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C680" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D680" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E680" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F680">
-        <v>8452596.3744183537</v>
+        <v>265488</v>
       </c>
       <c r="G680" t="s">
         <v>106</v>
       </c>
-      <c r="H680" t="s">
-        <v>374</v>
-      </c>
       <c r="I680">
         <v>0.2</v>
       </c>
       <c r="J680">
-        <v>4.8780487804878049E-3</v>
+        <v>0.2</v>
       </c>
       <c r="K680" s="5">
-        <v>41232.177436187092</v>
+        <v>53097.600000000006</v>
       </c>
       <c r="L680" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.45">
@@ -26532,34 +26544,37 @@
         <v>45450</v>
       </c>
       <c r="B681" t="s">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="C681" t="s">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="D681" t="s">
-        <v>316</v>
+        <v>51</v>
       </c>
       <c r="E681" t="s">
         <v>21</v>
       </c>
       <c r="F681">
-        <v>185022.48240000001</v>
+        <v>8452596.3744183537</v>
       </c>
       <c r="G681" t="s">
         <v>106</v>
       </c>
+      <c r="H681" t="s">
+        <v>373</v>
+      </c>
       <c r="I681">
         <v>0.2</v>
       </c>
       <c r="J681">
-        <v>0.2</v>
+        <v>4.8780487804878049E-3</v>
       </c>
       <c r="K681" s="5">
-        <v>37004.496480000002</v>
+        <v>41232.177436187092</v>
       </c>
       <c r="L681" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.45">
@@ -26567,37 +26582,34 @@
         <v>45450</v>
       </c>
       <c r="B682" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C682" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D682" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="E682" t="s">
         <v>21</v>
       </c>
       <c r="F682">
-        <v>377650.5048</v>
+        <v>185022.48240000001</v>
       </c>
       <c r="G682" t="s">
-        <v>125</v>
-      </c>
-      <c r="H682" t="s">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="I682">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J682">
-        <v>5.5555555555555558E-3</v>
+        <v>0.2</v>
       </c>
       <c r="K682" s="5">
-        <v>2098.05836</v>
+        <v>37004.496480000002</v>
       </c>
       <c r="L682" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.45">
@@ -26623,7 +26635,7 @@
         <v>125</v>
       </c>
       <c r="H683" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I683">
         <v>0.1</v>
@@ -26635,7 +26647,7 @@
         <v>2098.05836</v>
       </c>
       <c r="L683" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.45">
@@ -26643,37 +26655,37 @@
         <v>45450</v>
       </c>
       <c r="B684" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="C684" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="D684" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="E684" t="s">
         <v>21</v>
       </c>
       <c r="F684">
-        <v>240724.02359999999</v>
+        <v>377650.5048</v>
       </c>
       <c r="G684" t="s">
         <v>125</v>
       </c>
       <c r="H684" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="I684">
         <v>0.1</v>
       </c>
       <c r="J684">
-        <v>0.1</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="K684" s="5">
-        <v>24072.40236</v>
+        <v>2098.05836</v>
       </c>
       <c r="L684" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.45">
@@ -26681,10 +26693,10 @@
         <v>45450</v>
       </c>
       <c r="B685" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C685" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D685" t="s">
         <v>88</v>
@@ -26699,7 +26711,7 @@
         <v>125</v>
       </c>
       <c r="H685" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="I685">
         <v>0.1</v>
@@ -26711,7 +26723,7 @@
         <v>24072.40236</v>
       </c>
       <c r="L685" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.45">
@@ -26719,10 +26731,10 @@
         <v>45450</v>
       </c>
       <c r="B686" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="C686" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="D686" t="s">
         <v>88</v>
@@ -26731,13 +26743,13 @@
         <v>21</v>
       </c>
       <c r="F686">
-        <v>230603.84719999999</v>
+        <v>240724.02359999999</v>
       </c>
       <c r="G686" t="s">
         <v>125</v>
       </c>
       <c r="H686" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="I686">
         <v>0.1</v>
@@ -26746,10 +26758,714 @@
         <v>0.1</v>
       </c>
       <c r="K686" s="5">
+        <v>24072.40236</v>
+      </c>
+      <c r="L686" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A687" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B687" t="s">
+        <v>326</v>
+      </c>
+      <c r="C687" t="s">
+        <v>327</v>
+      </c>
+      <c r="D687" t="s">
+        <v>88</v>
+      </c>
+      <c r="E687" t="s">
+        <v>21</v>
+      </c>
+      <c r="F687">
+        <v>230603.84719999999</v>
+      </c>
+      <c r="G687" t="s">
+        <v>125</v>
+      </c>
+      <c r="H687" t="s">
+        <v>328</v>
+      </c>
+      <c r="I687">
+        <v>0.1</v>
+      </c>
+      <c r="J687">
+        <v>0.1</v>
+      </c>
+      <c r="K687" s="5">
         <v>23060.384720000002</v>
       </c>
-      <c r="L686" t="s">
-        <v>384</v>
+      <c r="L687" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A688" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B688" t="s">
+        <v>212</v>
+      </c>
+      <c r="C688" t="s">
+        <v>213</v>
+      </c>
+      <c r="D688" t="s">
+        <v>213</v>
+      </c>
+      <c r="E688" t="s">
+        <v>21</v>
+      </c>
+      <c r="F688">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G688" t="s">
+        <v>29</v>
+      </c>
+      <c r="H688" t="s">
+        <v>388</v>
+      </c>
+      <c r="I688">
+        <v>0.15</v>
+      </c>
+      <c r="J688">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="K688" s="5">
+        <v>302352.20228999993</v>
+      </c>
+      <c r="L688" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A689" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B689" t="s">
+        <v>389</v>
+      </c>
+      <c r="C689" t="s">
+        <v>390</v>
+      </c>
+      <c r="D689" t="s">
+        <v>213</v>
+      </c>
+      <c r="E689" t="s">
+        <v>21</v>
+      </c>
+      <c r="F689">
+        <v>130000</v>
+      </c>
+      <c r="G689" t="s">
+        <v>29</v>
+      </c>
+      <c r="I689">
+        <v>0.15</v>
+      </c>
+      <c r="J689">
+        <v>0.15</v>
+      </c>
+      <c r="K689" s="5">
+        <v>19500</v>
+      </c>
+      <c r="L689" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A690" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B690" t="s">
+        <v>111</v>
+      </c>
+      <c r="C690" t="s">
+        <v>112</v>
+      </c>
+      <c r="D690" t="s">
+        <v>51</v>
+      </c>
+      <c r="E690" t="s">
+        <v>21</v>
+      </c>
+      <c r="F690">
+        <v>8452596.3744183537</v>
+      </c>
+      <c r="G690" t="s">
+        <v>29</v>
+      </c>
+      <c r="H690" t="s">
+        <v>391</v>
+      </c>
+      <c r="I690">
+        <v>0.15</v>
+      </c>
+      <c r="J690">
+        <v>3.6585365853658534E-3</v>
+      </c>
+      <c r="K690" s="5">
+        <v>30924.133077140315</v>
+      </c>
+      <c r="L690" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A691" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B691" t="s">
+        <v>111</v>
+      </c>
+      <c r="C691" t="s">
+        <v>112</v>
+      </c>
+      <c r="D691" t="s">
+        <v>51</v>
+      </c>
+      <c r="E691" t="s">
+        <v>21</v>
+      </c>
+      <c r="F691">
+        <v>8452596.3744183537</v>
+      </c>
+      <c r="G691" t="s">
+        <v>79</v>
+      </c>
+      <c r="H691" t="s">
+        <v>391</v>
+      </c>
+      <c r="I691">
+        <v>0.4</v>
+      </c>
+      <c r="J691">
+        <v>9.7560975609756097E-3</v>
+      </c>
+      <c r="K691" s="5">
+        <v>82464.354872374184</v>
+      </c>
+      <c r="L691" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A692" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B692" t="s">
+        <v>392</v>
+      </c>
+      <c r="C692" t="s">
+        <v>393</v>
+      </c>
+      <c r="D692" t="s">
+        <v>316</v>
+      </c>
+      <c r="E692" t="s">
+        <v>21</v>
+      </c>
+      <c r="F692">
+        <v>176039.74399999998</v>
+      </c>
+      <c r="G692" t="s">
+        <v>16</v>
+      </c>
+      <c r="I692">
+        <v>0.15</v>
+      </c>
+      <c r="J692">
+        <v>0.15</v>
+      </c>
+      <c r="K692" s="5">
+        <v>26405.961599999995</v>
+      </c>
+      <c r="L692" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A693" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B693" t="s">
+        <v>392</v>
+      </c>
+      <c r="C693" t="s">
+        <v>393</v>
+      </c>
+      <c r="D693" t="s">
+        <v>316</v>
+      </c>
+      <c r="E693" t="s">
+        <v>21</v>
+      </c>
+      <c r="F693">
+        <v>176039.74399999998</v>
+      </c>
+      <c r="G693" t="s">
+        <v>29</v>
+      </c>
+      <c r="I693">
+        <v>0.15</v>
+      </c>
+      <c r="J693">
+        <v>0.15</v>
+      </c>
+      <c r="K693" s="5">
+        <v>26405.961599999995</v>
+      </c>
+      <c r="L693" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A694" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B694" t="s">
+        <v>392</v>
+      </c>
+      <c r="C694" t="s">
+        <v>393</v>
+      </c>
+      <c r="D694" t="s">
+        <v>316</v>
+      </c>
+      <c r="E694" t="s">
+        <v>21</v>
+      </c>
+      <c r="F694">
+        <v>176039.74399999998</v>
+      </c>
+      <c r="G694" t="s">
+        <v>79</v>
+      </c>
+      <c r="I694">
+        <v>0.4</v>
+      </c>
+      <c r="J694">
+        <v>0.4</v>
+      </c>
+      <c r="K694" s="5">
+        <v>70415.897599999997</v>
+      </c>
+      <c r="L694" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A695" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B695" t="s">
+        <v>153</v>
+      </c>
+      <c r="C695" t="s">
+        <v>154</v>
+      </c>
+      <c r="D695" t="s">
+        <v>88</v>
+      </c>
+      <c r="E695" t="s">
+        <v>15</v>
+      </c>
+      <c r="F695">
+        <v>265488</v>
+      </c>
+      <c r="G695" t="s">
+        <v>125</v>
+      </c>
+      <c r="I695">
+        <v>0.1</v>
+      </c>
+      <c r="J695">
+        <v>0.1</v>
+      </c>
+      <c r="K695" s="5">
+        <v>26548.800000000003</v>
+      </c>
+      <c r="L695" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A696" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B696" t="s">
+        <v>111</v>
+      </c>
+      <c r="C696" t="s">
+        <v>112</v>
+      </c>
+      <c r="D696" t="s">
+        <v>51</v>
+      </c>
+      <c r="E696" t="s">
+        <v>21</v>
+      </c>
+      <c r="F696">
+        <v>8452596.3744183537</v>
+      </c>
+      <c r="G696" t="s">
+        <v>106</v>
+      </c>
+      <c r="H696" t="s">
+        <v>376</v>
+      </c>
+      <c r="I696">
+        <v>0.2</v>
+      </c>
+      <c r="J696">
+        <v>4.8780487804878049E-3</v>
+      </c>
+      <c r="K696" s="5">
+        <v>41232.177436187092</v>
+      </c>
+      <c r="L696" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A697" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B697" t="s">
+        <v>111</v>
+      </c>
+      <c r="C697" t="s">
+        <v>112</v>
+      </c>
+      <c r="D697" t="s">
+        <v>51</v>
+      </c>
+      <c r="E697" t="s">
+        <v>21</v>
+      </c>
+      <c r="F697">
+        <v>8452596.3744183537</v>
+      </c>
+      <c r="G697" t="s">
+        <v>125</v>
+      </c>
+      <c r="H697" t="s">
+        <v>284</v>
+      </c>
+      <c r="I697">
+        <v>0.1</v>
+      </c>
+      <c r="J697">
+        <v>2.4390243902439024E-3</v>
+      </c>
+      <c r="K697" s="5">
+        <v>20616.088718093546</v>
+      </c>
+      <c r="L697" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A698" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B698" t="s">
+        <v>111</v>
+      </c>
+      <c r="C698" t="s">
+        <v>112</v>
+      </c>
+      <c r="D698" t="s">
+        <v>51</v>
+      </c>
+      <c r="E698" t="s">
+        <v>21</v>
+      </c>
+      <c r="F698">
+        <v>8452596.3744183537</v>
+      </c>
+      <c r="G698" t="s">
+        <v>125</v>
+      </c>
+      <c r="H698" t="s">
+        <v>329</v>
+      </c>
+      <c r="I698">
+        <v>0.1</v>
+      </c>
+      <c r="J698">
+        <v>2.4390243902439024E-3</v>
+      </c>
+      <c r="K698" s="5">
+        <v>20616.088718093546</v>
+      </c>
+      <c r="L698" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A699" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B699" t="s">
+        <v>202</v>
+      </c>
+      <c r="C699" t="s">
+        <v>203</v>
+      </c>
+      <c r="D699" t="s">
+        <v>88</v>
+      </c>
+      <c r="E699" t="s">
+        <v>21</v>
+      </c>
+      <c r="F699">
+        <v>240724.02359999999</v>
+      </c>
+      <c r="G699" t="s">
+        <v>125</v>
+      </c>
+      <c r="H699" t="s">
+        <v>204</v>
+      </c>
+      <c r="I699">
+        <v>0.1</v>
+      </c>
+      <c r="J699">
+        <v>0.1</v>
+      </c>
+      <c r="K699" s="5">
+        <v>24072.40236</v>
+      </c>
+      <c r="L699" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A700" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B700" t="s">
+        <v>341</v>
+      </c>
+      <c r="C700" t="s">
+        <v>342</v>
+      </c>
+      <c r="D700" t="s">
+        <v>88</v>
+      </c>
+      <c r="E700" t="s">
+        <v>21</v>
+      </c>
+      <c r="F700">
+        <v>231982.1012</v>
+      </c>
+      <c r="G700" t="s">
+        <v>125</v>
+      </c>
+      <c r="H700" t="s">
+        <v>343</v>
+      </c>
+      <c r="I700">
+        <v>0.1</v>
+      </c>
+      <c r="J700">
+        <v>0.1</v>
+      </c>
+      <c r="K700" s="5">
+        <v>23198.210120000003</v>
+      </c>
+      <c r="L700" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A701" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B701" t="s">
+        <v>314</v>
+      </c>
+      <c r="C701" t="s">
+        <v>315</v>
+      </c>
+      <c r="D701" t="s">
+        <v>316</v>
+      </c>
+      <c r="E701" t="s">
+        <v>21</v>
+      </c>
+      <c r="F701">
+        <v>179010.81719999999</v>
+      </c>
+      <c r="G701" t="s">
+        <v>125</v>
+      </c>
+      <c r="I701">
+        <v>0.1</v>
+      </c>
+      <c r="J701">
+        <v>0.1</v>
+      </c>
+      <c r="K701" s="5">
+        <v>17901.081719999998</v>
+      </c>
+      <c r="L701" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A702" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B702" t="s">
+        <v>308</v>
+      </c>
+      <c r="C702" t="s">
+        <v>309</v>
+      </c>
+      <c r="D702" t="s">
+        <v>161</v>
+      </c>
+      <c r="E702" t="s">
+        <v>21</v>
+      </c>
+      <c r="F702">
+        <v>377650.5048</v>
+      </c>
+      <c r="G702" t="s">
+        <v>106</v>
+      </c>
+      <c r="H702" t="s">
+        <v>354</v>
+      </c>
+      <c r="I702">
+        <v>0.2</v>
+      </c>
+      <c r="J702">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K702" s="5">
+        <v>4196.11672</v>
+      </c>
+      <c r="L702" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A703" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B703" t="s">
+        <v>308</v>
+      </c>
+      <c r="C703" t="s">
+        <v>309</v>
+      </c>
+      <c r="D703" t="s">
+        <v>161</v>
+      </c>
+      <c r="E703" t="s">
+        <v>21</v>
+      </c>
+      <c r="F703">
+        <v>377650.5048</v>
+      </c>
+      <c r="G703" t="s">
+        <v>106</v>
+      </c>
+      <c r="H703" t="s">
+        <v>355</v>
+      </c>
+      <c r="I703">
+        <v>0.2</v>
+      </c>
+      <c r="J703">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K703" s="5">
+        <v>4196.11672</v>
+      </c>
+      <c r="L703" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A704" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B704" t="s">
+        <v>308</v>
+      </c>
+      <c r="C704" t="s">
+        <v>309</v>
+      </c>
+      <c r="D704" t="s">
+        <v>161</v>
+      </c>
+      <c r="E704" t="s">
+        <v>21</v>
+      </c>
+      <c r="F704">
+        <v>377650.5048</v>
+      </c>
+      <c r="G704" t="s">
+        <v>125</v>
+      </c>
+      <c r="H704" t="s">
+        <v>354</v>
+      </c>
+      <c r="I704">
+        <v>0.1</v>
+      </c>
+      <c r="J704">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K704" s="5">
+        <v>2098.05836</v>
+      </c>
+      <c r="L704" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A705" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B705" t="s">
+        <v>308</v>
+      </c>
+      <c r="C705" t="s">
+        <v>309</v>
+      </c>
+      <c r="D705" t="s">
+        <v>161</v>
+      </c>
+      <c r="E705" t="s">
+        <v>21</v>
+      </c>
+      <c r="F705">
+        <v>377650.5048</v>
+      </c>
+      <c r="G705" t="s">
+        <v>125</v>
+      </c>
+      <c r="H705" t="s">
+        <v>355</v>
+      </c>
+      <c r="I705">
+        <v>0.1</v>
+      </c>
+      <c r="J705">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K705" s="5">
+        <v>2098.05836</v>
+      </c>
+      <c r="L705" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Ventas_Vori_Vost_2024.xlsx
+++ b/datasets/Ventas_Vori_Vost_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96A4598-9BAD-45C2-B745-FFD6F2092BE8}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34748DFC-D874-4DD5-B451-E2D2E76635B3}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C751E623-A2D5-4481-B6AF-2D07DB0C8E71}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4535" uniqueCount="394">
   <si>
     <t>FECHA</t>
   </si>
@@ -1300,8 +1300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}" name="Tabla1" displayName="Tabla1" ref="A1:L705" totalsRowShown="0">
-  <autoFilter ref="A1:L705" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}" name="Tabla1" displayName="Tabla1" ref="A1:L710" totalsRowShown="0">
+  <autoFilter ref="A1:L710" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7105FF0D-C5A9-4187-B96A-33FB756183B6}" name="FECHA" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{5B617DB1-79A2-407B-9ED4-293700021272}" name="CTVV"/>
@@ -1637,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E294A03A-0BD5-47C2-87E5-BF6F2CE97FDF}">
-  <dimension ref="A1:L705"/>
+  <dimension ref="A1:L710"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L705"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24435,19 +24435,19 @@
         <v>45436</v>
       </c>
       <c r="B624" t="s">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="C624" t="s">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="D624" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E624" t="s">
         <v>21</v>
       </c>
       <c r="F624">
-        <v>8452596.3744183537</v>
+        <v>270505.02839999995</v>
       </c>
       <c r="G624" t="s">
         <v>29</v>
@@ -24459,10 +24459,10 @@
         <v>0.15</v>
       </c>
       <c r="J624">
-        <v>3.6585365853658534E-3</v>
+        <v>0.15</v>
       </c>
       <c r="K624" s="5">
-        <v>30924.133077140315</v>
+        <v>40575.754259999994</v>
       </c>
       <c r="L624" t="s">
         <v>336</v>
@@ -27465,6 +27465,190 @@
         <v>2098.05836</v>
       </c>
       <c r="L705" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A706" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B706" t="s">
+        <v>111</v>
+      </c>
+      <c r="C706" t="s">
+        <v>112</v>
+      </c>
+      <c r="D706" t="s">
+        <v>51</v>
+      </c>
+      <c r="E706" t="s">
+        <v>21</v>
+      </c>
+      <c r="F706">
+        <v>8452596.3744183537</v>
+      </c>
+      <c r="G706" t="s">
+        <v>106</v>
+      </c>
+      <c r="H706" t="s">
+        <v>377</v>
+      </c>
+      <c r="I706">
+        <v>0.2</v>
+      </c>
+      <c r="J706">
+        <v>4.8780487804878049E-3</v>
+      </c>
+      <c r="K706" s="5">
+        <v>41232.177436187092</v>
+      </c>
+      <c r="L706" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A707" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B707" t="s">
+        <v>392</v>
+      </c>
+      <c r="C707" t="s">
+        <v>393</v>
+      </c>
+      <c r="D707" t="s">
+        <v>316</v>
+      </c>
+      <c r="E707" t="s">
+        <v>21</v>
+      </c>
+      <c r="F707">
+        <v>176039.74399999998</v>
+      </c>
+      <c r="G707" t="s">
+        <v>106</v>
+      </c>
+      <c r="I707">
+        <v>0.2</v>
+      </c>
+      <c r="J707">
+        <v>0.2</v>
+      </c>
+      <c r="K707" s="5">
+        <v>35207.948799999998</v>
+      </c>
+      <c r="L707" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A708" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B708" t="s">
+        <v>73</v>
+      </c>
+      <c r="C708" t="s">
+        <v>74</v>
+      </c>
+      <c r="D708" t="s">
+        <v>75</v>
+      </c>
+      <c r="E708" t="s">
+        <v>15</v>
+      </c>
+      <c r="F708">
+        <v>1073705.0148000002</v>
+      </c>
+      <c r="G708" t="s">
+        <v>106</v>
+      </c>
+      <c r="I708">
+        <v>0.2</v>
+      </c>
+      <c r="J708">
+        <v>0.2</v>
+      </c>
+      <c r="K708" s="5">
+        <v>214741.00296000007</v>
+      </c>
+      <c r="L708" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A709" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B709" t="s">
+        <v>364</v>
+      </c>
+      <c r="C709" t="s">
+        <v>365</v>
+      </c>
+      <c r="D709" t="s">
+        <v>88</v>
+      </c>
+      <c r="E709" t="s">
+        <v>21</v>
+      </c>
+      <c r="F709">
+        <v>270505.02839999995</v>
+      </c>
+      <c r="G709" t="s">
+        <v>79</v>
+      </c>
+      <c r="H709" t="s">
+        <v>366</v>
+      </c>
+      <c r="I709">
+        <v>0.4</v>
+      </c>
+      <c r="J709">
+        <v>0.4</v>
+      </c>
+      <c r="K709" s="5">
+        <v>108202.01135999999</v>
+      </c>
+      <c r="L709" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A710" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B710" t="s">
+        <v>208</v>
+      </c>
+      <c r="C710" t="s">
+        <v>209</v>
+      </c>
+      <c r="D710" t="s">
+        <v>88</v>
+      </c>
+      <c r="E710" t="s">
+        <v>21</v>
+      </c>
+      <c r="F710">
+        <v>231982.1012</v>
+      </c>
+      <c r="G710" t="s">
+        <v>79</v>
+      </c>
+      <c r="H710" t="s">
+        <v>210</v>
+      </c>
+      <c r="I710">
+        <v>0.4</v>
+      </c>
+      <c r="J710">
+        <v>0.4</v>
+      </c>
+      <c r="K710" s="5">
+        <v>92792.840480000013</v>
+      </c>
+      <c r="L710" t="s">
         <v>383</v>
       </c>
     </row>

--- a/datasets/Ventas_Vori_Vost_2024.xlsx
+++ b/datasets/Ventas_Vori_Vost_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FDD75FE-6303-4006-87DB-3C92B7D0712C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE1BB85-3A62-4CB5-BAF6-9B96A887CD78}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C751E623-A2D5-4481-B6AF-2D07DB0C8E71}"/>
   </bookViews>
@@ -1563,6 +1563,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1905,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E294A03A-0BD5-47C2-87E5-BF6F2CE97FDF}">
   <dimension ref="A1:L815"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A712" workbookViewId="0">
-      <selection activeCell="A748" sqref="A748"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A720" workbookViewId="0">
+      <selection activeCell="I724" sqref="I724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datasets/Ventas_Vori_Vost_2024.xlsx
+++ b/datasets/Ventas_Vori_Vost_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{639B6A5F-3703-413C-8825-416C30121334}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4A9A7C9-6365-4BDA-8A8C-CB594FD6A159}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C751E623-A2D5-4481-B6AF-2D07DB0C8E71}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C751E623-A2D5-4481-B6AF-2D07DB0C8E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6301" uniqueCount="613">
   <si>
     <t>FECHA</t>
   </si>
@@ -1638,6 +1638,243 @@
   </si>
   <si>
     <t>Herrería Casa Acosta</t>
+  </si>
+  <si>
+    <t>CTVV 3047</t>
+  </si>
+  <si>
+    <t>Lomalta 8</t>
+  </si>
+  <si>
+    <t>septiembre</t>
+  </si>
+  <si>
+    <t>CTVV 2436</t>
+  </si>
+  <si>
+    <t>Lomalta 9</t>
+  </si>
+  <si>
+    <t>CTVV 3148</t>
+  </si>
+  <si>
+    <t>Vista Verde - 11A MZ01 (reposición de mobiliario)</t>
+  </si>
+  <si>
+    <t>CTVV 3153</t>
+  </si>
+  <si>
+    <t>Vista Verde - 2A MZ02 (reposicipon de mobiliario)</t>
+  </si>
+  <si>
+    <t>CTVV 3165</t>
+  </si>
+  <si>
+    <t>Vista Verde - 9A MZ01 (reposición de mobiliario)</t>
+  </si>
+  <si>
+    <t>CTVV 3166</t>
+  </si>
+  <si>
+    <t>Vista Verde - 10A MZ01 (reposición de mobiliario)</t>
+  </si>
+  <si>
+    <t>CTVV 3167</t>
+  </si>
+  <si>
+    <t>Vista Verde - 5A MZ02 (reposición de mobiliario)</t>
+  </si>
+  <si>
+    <t>CTVV 3168</t>
+  </si>
+  <si>
+    <t>Vista Verde - 6A MZ01 (reposición de mobiliario)</t>
+  </si>
+  <si>
+    <t>CTVV 3162</t>
+  </si>
+  <si>
+    <t>Vista Verde - 4A MZ01 - 2 (reposición de mobiliario)</t>
+  </si>
+  <si>
+    <t>CTVV 3177</t>
+  </si>
+  <si>
+    <t>Vista Verde - 3A MZ01 (reposición de mobiliario)</t>
+  </si>
+  <si>
+    <t>CTVV 3115</t>
+  </si>
+  <si>
+    <t>Bancas Exteriores</t>
+  </si>
+  <si>
+    <t>Star Médica</t>
+  </si>
+  <si>
+    <t>CTVV 3142</t>
+  </si>
+  <si>
+    <t>Propuesta Verona Zamora (10 casas)</t>
+  </si>
+  <si>
+    <t>CTVV 3161</t>
+  </si>
+  <si>
+    <t>Reemplazo de Mobiliario</t>
+  </si>
+  <si>
+    <t>CTVV 3174</t>
+  </si>
+  <si>
+    <t>Prototipo Bilbao Torres Castillejo Torre C (6 viviendas)</t>
+  </si>
+  <si>
+    <t>CTVV 3180</t>
+  </si>
+  <si>
+    <t>Prototipo K06 Villas del Sur Cubiertas Baños</t>
+  </si>
+  <si>
+    <t>CTVV 3185</t>
+  </si>
+  <si>
+    <t>Prototipo T01 Vialba Villas del pedregal III 5° Etapa (15 viviendas)</t>
+  </si>
+  <si>
+    <t>CTVV 3193</t>
+  </si>
+  <si>
+    <t>Mueble de Mesero Arracház Morelia</t>
+  </si>
+  <si>
+    <t>Grupo Mogar</t>
+  </si>
+  <si>
+    <t>CTVV 3187</t>
+  </si>
+  <si>
+    <t>Aditiva 1 Remodelación Puerta Sur</t>
+  </si>
+  <si>
+    <t>CTVV 3120</t>
+  </si>
+  <si>
+    <t>Terraza</t>
+  </si>
+  <si>
+    <t>José Miguel Nájera</t>
+  </si>
+  <si>
+    <t>CTVV 3046</t>
+  </si>
+  <si>
+    <t>Lomalta 7</t>
+  </si>
+  <si>
+    <t>CTVV 3164</t>
+  </si>
+  <si>
+    <t>Aditiva 2 Casa JML Espejos</t>
+  </si>
+  <si>
+    <t>CTVV 3186</t>
+  </si>
+  <si>
+    <t>Natura Lobby Torre A</t>
+  </si>
+  <si>
+    <t>CTVV 3048</t>
+  </si>
+  <si>
+    <t>Lomalta 6</t>
+  </si>
+  <si>
+    <t>CTVV  3196</t>
+  </si>
+  <si>
+    <t>Prototipo B05 Villas del Sur (5 casas)</t>
+  </si>
+  <si>
+    <t>CTVV 3204</t>
+  </si>
+  <si>
+    <t>Hotel Grand Cantalagua Suite Presidencial Burós</t>
+  </si>
+  <si>
+    <t>CTVV 3184</t>
+  </si>
+  <si>
+    <t>Aditiva 01 Hercom 301</t>
+  </si>
+  <si>
+    <t>CTVV 3072</t>
+  </si>
+  <si>
+    <t>Lomalta 5</t>
+  </si>
+  <si>
+    <t>1 de 10</t>
+  </si>
+  <si>
+    <t>2 de 10</t>
+  </si>
+  <si>
+    <t>3 de 10</t>
+  </si>
+  <si>
+    <t>CTVV 3181</t>
+  </si>
+  <si>
+    <t>Veronesa Prototipo C Lote 11</t>
+  </si>
+  <si>
+    <t>Casa 4</t>
+  </si>
+  <si>
+    <t>1 de 15</t>
+  </si>
+  <si>
+    <t>2 de 15</t>
+  </si>
+  <si>
+    <t>3 de 15</t>
+  </si>
+  <si>
+    <t>4 de 15</t>
+  </si>
+  <si>
+    <t>5 de 15</t>
+  </si>
+  <si>
+    <t>CTVV 3144</t>
+  </si>
+  <si>
+    <t>Torre Aria Prototipo A (2 departamentos)</t>
+  </si>
+  <si>
+    <t>Injesa</t>
+  </si>
+  <si>
+    <t>CTVV 3202</t>
+  </si>
+  <si>
+    <t>Viviente Mezcal</t>
+  </si>
+  <si>
+    <t>Camila Gudiño</t>
+  </si>
+  <si>
+    <t>CTVV 3199</t>
+  </si>
+  <si>
+    <t>Cubierta Lavaneta Barrica 134 Andana</t>
+  </si>
+  <si>
+    <t>6 de 15</t>
+  </si>
+  <si>
+    <t>4 de 10</t>
   </si>
 </sst>
 </file>
@@ -1715,13 +1952,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}" name="Tabla1" displayName="Tabla1" ref="A1:L904" totalsRowShown="0">
-  <autoFilter ref="A1:L904" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}" name="Tabla1" displayName="Tabla1" ref="A1:L989" totalsRowShown="0">
+  <autoFilter ref="A1:L989" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7105FF0D-C5A9-4187-B96A-33FB756183B6}" name="FECHA" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{5B617DB1-79A2-407B-9ED4-293700021272}" name="CTVV"/>
@@ -2057,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E294A03A-0BD5-47C2-87E5-BF6F2CE97FDF}">
-  <dimension ref="A1:L904"/>
+  <dimension ref="A1:L989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E925" workbookViewId="0">
+      <selection activeCell="A905" sqref="A905:L989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35102,6 +35335,3071 @@
         <v>486</v>
       </c>
     </row>
+    <row r="905" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A905" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B905" t="s">
+        <v>534</v>
+      </c>
+      <c r="C905" t="s">
+        <v>535</v>
+      </c>
+      <c r="D905" t="s">
+        <v>88</v>
+      </c>
+      <c r="E905" t="s">
+        <v>15</v>
+      </c>
+      <c r="F905">
+        <v>267179.48239999998</v>
+      </c>
+      <c r="G905" t="s">
+        <v>16</v>
+      </c>
+      <c r="I905">
+        <v>0.15</v>
+      </c>
+      <c r="J905">
+        <v>0.15</v>
+      </c>
+      <c r="K905" s="5">
+        <v>40076.922359999997</v>
+      </c>
+      <c r="L905" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="906" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A906" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B906" t="s">
+        <v>537</v>
+      </c>
+      <c r="C906" t="s">
+        <v>538</v>
+      </c>
+      <c r="D906" t="s">
+        <v>88</v>
+      </c>
+      <c r="E906" t="s">
+        <v>15</v>
+      </c>
+      <c r="F906">
+        <v>275408.58039999998</v>
+      </c>
+      <c r="G906" t="s">
+        <v>16</v>
+      </c>
+      <c r="I906">
+        <v>0.15</v>
+      </c>
+      <c r="J906">
+        <v>0.15</v>
+      </c>
+      <c r="K906" s="5">
+        <v>41311.287059999995</v>
+      </c>
+      <c r="L906" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="907" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A907" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B907" t="s">
+        <v>539</v>
+      </c>
+      <c r="C907" t="s">
+        <v>540</v>
+      </c>
+      <c r="D907" t="s">
+        <v>88</v>
+      </c>
+      <c r="E907" t="s">
+        <v>21</v>
+      </c>
+      <c r="F907">
+        <v>3509.6147999999998</v>
+      </c>
+      <c r="G907" t="s">
+        <v>16</v>
+      </c>
+      <c r="I907">
+        <v>1</v>
+      </c>
+      <c r="J907">
+        <v>1</v>
+      </c>
+      <c r="K907" s="5">
+        <v>3509.6147999999998</v>
+      </c>
+      <c r="L907" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="908" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A908" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B908" t="s">
+        <v>541</v>
+      </c>
+      <c r="C908" t="s">
+        <v>542</v>
+      </c>
+      <c r="D908" t="s">
+        <v>88</v>
+      </c>
+      <c r="E908" t="s">
+        <v>21</v>
+      </c>
+      <c r="F908">
+        <v>10369.147199999999</v>
+      </c>
+      <c r="G908" t="s">
+        <v>16</v>
+      </c>
+      <c r="I908">
+        <v>1</v>
+      </c>
+      <c r="J908">
+        <v>1</v>
+      </c>
+      <c r="K908" s="5">
+        <v>10369.147199999999</v>
+      </c>
+      <c r="L908" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="909" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A909" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B909" t="s">
+        <v>543</v>
+      </c>
+      <c r="C909" t="s">
+        <v>544</v>
+      </c>
+      <c r="D909" t="s">
+        <v>88</v>
+      </c>
+      <c r="E909" t="s">
+        <v>21</v>
+      </c>
+      <c r="F909">
+        <v>1638.8595999999998</v>
+      </c>
+      <c r="G909" t="s">
+        <v>16</v>
+      </c>
+      <c r="I909">
+        <v>1</v>
+      </c>
+      <c r="J909">
+        <v>1</v>
+      </c>
+      <c r="K909" s="5">
+        <v>1638.8595999999998</v>
+      </c>
+      <c r="L909" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="910" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A910" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B910" t="s">
+        <v>545</v>
+      </c>
+      <c r="C910" t="s">
+        <v>546</v>
+      </c>
+      <c r="D910" t="s">
+        <v>88</v>
+      </c>
+      <c r="E910" t="s">
+        <v>21</v>
+      </c>
+      <c r="F910">
+        <v>1638.8595999999998</v>
+      </c>
+      <c r="G910" t="s">
+        <v>16</v>
+      </c>
+      <c r="I910">
+        <v>1</v>
+      </c>
+      <c r="J910">
+        <v>1</v>
+      </c>
+      <c r="K910" s="5">
+        <v>1638.8595999999998</v>
+      </c>
+      <c r="L910" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="911" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A911" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B911" t="s">
+        <v>547</v>
+      </c>
+      <c r="C911" t="s">
+        <v>548</v>
+      </c>
+      <c r="D911" t="s">
+        <v>88</v>
+      </c>
+      <c r="E911" t="s">
+        <v>21</v>
+      </c>
+      <c r="F911">
+        <v>818.24079999999992</v>
+      </c>
+      <c r="G911" t="s">
+        <v>16</v>
+      </c>
+      <c r="I911">
+        <v>1</v>
+      </c>
+      <c r="J911">
+        <v>1</v>
+      </c>
+      <c r="K911" s="5">
+        <v>818.24079999999992</v>
+      </c>
+      <c r="L911" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="912" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A912" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B912" t="s">
+        <v>549</v>
+      </c>
+      <c r="C912" t="s">
+        <v>550</v>
+      </c>
+      <c r="D912" t="s">
+        <v>88</v>
+      </c>
+      <c r="E912" t="s">
+        <v>21</v>
+      </c>
+      <c r="F912">
+        <v>818.24079999999992</v>
+      </c>
+      <c r="G912" t="s">
+        <v>16</v>
+      </c>
+      <c r="I912">
+        <v>1</v>
+      </c>
+      <c r="J912">
+        <v>1</v>
+      </c>
+      <c r="K912" s="5">
+        <v>818.24079999999992</v>
+      </c>
+      <c r="L912" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="913" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A913" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B913" t="s">
+        <v>551</v>
+      </c>
+      <c r="C913" t="s">
+        <v>552</v>
+      </c>
+      <c r="D913" t="s">
+        <v>88</v>
+      </c>
+      <c r="E913" t="s">
+        <v>21</v>
+      </c>
+      <c r="F913">
+        <v>2532.7091999999998</v>
+      </c>
+      <c r="G913" t="s">
+        <v>16</v>
+      </c>
+      <c r="I913">
+        <v>1</v>
+      </c>
+      <c r="J913">
+        <v>1</v>
+      </c>
+      <c r="K913" s="5">
+        <v>2532.7091999999998</v>
+      </c>
+      <c r="L913" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="914" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A914" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B914" t="s">
+        <v>553</v>
+      </c>
+      <c r="C914" t="s">
+        <v>554</v>
+      </c>
+      <c r="D914" t="s">
+        <v>88</v>
+      </c>
+      <c r="E914" t="s">
+        <v>21</v>
+      </c>
+      <c r="F914">
+        <v>4916.5671999999995</v>
+      </c>
+      <c r="G914" t="s">
+        <v>16</v>
+      </c>
+      <c r="I914">
+        <v>1</v>
+      </c>
+      <c r="J914">
+        <v>1</v>
+      </c>
+      <c r="K914" s="5">
+        <v>4916.5671999999995</v>
+      </c>
+      <c r="L914" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="915" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A915" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B915" t="s">
+        <v>555</v>
+      </c>
+      <c r="C915" t="s">
+        <v>556</v>
+      </c>
+      <c r="D915" t="s">
+        <v>557</v>
+      </c>
+      <c r="E915" t="s">
+        <v>15</v>
+      </c>
+      <c r="F915">
+        <v>57390.443199999994</v>
+      </c>
+      <c r="G915" t="s">
+        <v>16</v>
+      </c>
+      <c r="I915">
+        <v>0.15</v>
+      </c>
+      <c r="J915">
+        <v>0.15</v>
+      </c>
+      <c r="K915" s="5">
+        <v>8608.5664799999995</v>
+      </c>
+      <c r="L915" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="916" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A916" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B916" t="s">
+        <v>558</v>
+      </c>
+      <c r="C916" t="s">
+        <v>559</v>
+      </c>
+      <c r="D916" t="s">
+        <v>233</v>
+      </c>
+      <c r="E916" t="s">
+        <v>21</v>
+      </c>
+      <c r="F916">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G916" t="s">
+        <v>16</v>
+      </c>
+      <c r="I916">
+        <v>0.15</v>
+      </c>
+      <c r="J916">
+        <v>0.15</v>
+      </c>
+      <c r="K916" s="5">
+        <v>80450.519939999984</v>
+      </c>
+      <c r="L916" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="917" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A917" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B917" t="s">
+        <v>560</v>
+      </c>
+      <c r="C917" t="s">
+        <v>561</v>
+      </c>
+      <c r="D917" t="s">
+        <v>395</v>
+      </c>
+      <c r="E917" t="s">
+        <v>21</v>
+      </c>
+      <c r="F917">
+        <v>5091.7619999999997</v>
+      </c>
+      <c r="G917" t="s">
+        <v>16</v>
+      </c>
+      <c r="I917">
+        <v>0.15</v>
+      </c>
+      <c r="J917">
+        <v>0.15</v>
+      </c>
+      <c r="K917" s="5">
+        <v>763.76429999999993</v>
+      </c>
+      <c r="L917" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="918" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A918" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B918" t="s">
+        <v>562</v>
+      </c>
+      <c r="C918" t="s">
+        <v>563</v>
+      </c>
+      <c r="D918" t="s">
+        <v>395</v>
+      </c>
+      <c r="E918" t="s">
+        <v>21</v>
+      </c>
+      <c r="F918">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G918" t="s">
+        <v>16</v>
+      </c>
+      <c r="I918">
+        <v>0.15</v>
+      </c>
+      <c r="J918">
+        <v>0.15</v>
+      </c>
+      <c r="K918" s="5">
+        <v>41129.999939999994</v>
+      </c>
+      <c r="L918" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="919" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A919" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B919" t="s">
+        <v>564</v>
+      </c>
+      <c r="C919" t="s">
+        <v>565</v>
+      </c>
+      <c r="D919" t="s">
+        <v>161</v>
+      </c>
+      <c r="E919" t="s">
+        <v>21</v>
+      </c>
+      <c r="F919">
+        <v>21528.532800000001</v>
+      </c>
+      <c r="G919" t="s">
+        <v>16</v>
+      </c>
+      <c r="I919">
+        <v>0.15</v>
+      </c>
+      <c r="J919">
+        <v>0.15</v>
+      </c>
+      <c r="K919" s="5">
+        <v>3229.2799199999999</v>
+      </c>
+      <c r="L919" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="920" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A920" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B920" t="s">
+        <v>566</v>
+      </c>
+      <c r="C920" t="s">
+        <v>567</v>
+      </c>
+      <c r="D920" t="s">
+        <v>161</v>
+      </c>
+      <c r="E920" t="s">
+        <v>21</v>
+      </c>
+      <c r="F920">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G920" t="s">
+        <v>16</v>
+      </c>
+      <c r="I920">
+        <v>0.15</v>
+      </c>
+      <c r="J920">
+        <v>0.15</v>
+      </c>
+      <c r="K920" s="5">
+        <v>67500.009659999996</v>
+      </c>
+      <c r="L920" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="921" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A921" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B921" t="s">
+        <v>568</v>
+      </c>
+      <c r="C921" t="s">
+        <v>569</v>
+      </c>
+      <c r="D921" t="s">
+        <v>570</v>
+      </c>
+      <c r="E921" t="s">
+        <v>15</v>
+      </c>
+      <c r="F921">
+        <v>3499.9983999999995</v>
+      </c>
+      <c r="G921" t="s">
+        <v>16</v>
+      </c>
+      <c r="I921">
+        <v>0.15</v>
+      </c>
+      <c r="J921">
+        <v>0.15</v>
+      </c>
+      <c r="K921" s="5">
+        <v>524.99975999999992</v>
+      </c>
+      <c r="L921" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="922" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A922" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B922" t="s">
+        <v>571</v>
+      </c>
+      <c r="C922" t="s">
+        <v>572</v>
+      </c>
+      <c r="D922" t="s">
+        <v>489</v>
+      </c>
+      <c r="E922" t="s">
+        <v>15</v>
+      </c>
+      <c r="F922">
+        <v>16402.840799999998</v>
+      </c>
+      <c r="G922" t="s">
+        <v>16</v>
+      </c>
+      <c r="I922">
+        <v>1</v>
+      </c>
+      <c r="J922">
+        <v>1</v>
+      </c>
+      <c r="K922" s="5">
+        <v>16402.840799999998</v>
+      </c>
+      <c r="L922" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="923" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A923" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B923" t="s">
+        <v>573</v>
+      </c>
+      <c r="C923" t="s">
+        <v>574</v>
+      </c>
+      <c r="D923" t="s">
+        <v>575</v>
+      </c>
+      <c r="E923" t="s">
+        <v>15</v>
+      </c>
+      <c r="F923">
+        <v>51087.68280000001</v>
+      </c>
+      <c r="G923" t="s">
+        <v>16</v>
+      </c>
+      <c r="I923">
+        <v>0.15</v>
+      </c>
+      <c r="J923">
+        <v>0.15</v>
+      </c>
+      <c r="K923" s="5">
+        <v>7663.1524200000013</v>
+      </c>
+      <c r="L923" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="924" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A924" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B924" t="s">
+        <v>576</v>
+      </c>
+      <c r="C924" t="s">
+        <v>577</v>
+      </c>
+      <c r="D924" t="s">
+        <v>88</v>
+      </c>
+      <c r="E924" t="s">
+        <v>15</v>
+      </c>
+      <c r="F924">
+        <v>266991.49279999995</v>
+      </c>
+      <c r="G924" t="s">
+        <v>16</v>
+      </c>
+      <c r="I924">
+        <v>0.15</v>
+      </c>
+      <c r="J924">
+        <v>0.15</v>
+      </c>
+      <c r="K924" s="5">
+        <v>40048.723919999989</v>
+      </c>
+      <c r="L924" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="925" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A925" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B925" t="s">
+        <v>578</v>
+      </c>
+      <c r="C925" t="s">
+        <v>579</v>
+      </c>
+      <c r="D925" t="s">
+        <v>166</v>
+      </c>
+      <c r="E925" t="s">
+        <v>15</v>
+      </c>
+      <c r="F925">
+        <v>19441.484</v>
+      </c>
+      <c r="G925" t="s">
+        <v>16</v>
+      </c>
+      <c r="I925">
+        <v>1</v>
+      </c>
+      <c r="J925">
+        <v>1</v>
+      </c>
+      <c r="K925" s="5">
+        <v>19441.484</v>
+      </c>
+      <c r="L925" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="926" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A926" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B926" t="s">
+        <v>580</v>
+      </c>
+      <c r="C926" t="s">
+        <v>581</v>
+      </c>
+      <c r="D926" t="s">
+        <v>39</v>
+      </c>
+      <c r="E926" t="s">
+        <v>21</v>
+      </c>
+      <c r="F926">
+        <v>79999.991599999994</v>
+      </c>
+      <c r="G926" t="s">
+        <v>16</v>
+      </c>
+      <c r="I926">
+        <v>0.15</v>
+      </c>
+      <c r="J926">
+        <v>0.15</v>
+      </c>
+      <c r="K926" s="5">
+        <v>11999.998739999999</v>
+      </c>
+      <c r="L926" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="927" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A927" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B927" t="s">
+        <v>582</v>
+      </c>
+      <c r="C927" t="s">
+        <v>583</v>
+      </c>
+      <c r="D927" t="s">
+        <v>88</v>
+      </c>
+      <c r="E927" t="s">
+        <v>15</v>
+      </c>
+      <c r="F927">
+        <v>277694.30239999999</v>
+      </c>
+      <c r="G927" t="s">
+        <v>16</v>
+      </c>
+      <c r="I927">
+        <v>0.15</v>
+      </c>
+      <c r="J927">
+        <v>0.15</v>
+      </c>
+      <c r="K927" s="5">
+        <v>41654.145359999995</v>
+      </c>
+      <c r="L927" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="928" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A928" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B928" t="s">
+        <v>584</v>
+      </c>
+      <c r="C928" t="s">
+        <v>585</v>
+      </c>
+      <c r="D928" t="s">
+        <v>161</v>
+      </c>
+      <c r="E928" t="s">
+        <v>21</v>
+      </c>
+      <c r="F928">
+        <v>147884.11959999998</v>
+      </c>
+      <c r="G928" t="s">
+        <v>16</v>
+      </c>
+      <c r="I928">
+        <v>0.15</v>
+      </c>
+      <c r="J928">
+        <v>0.15</v>
+      </c>
+      <c r="K928" s="5">
+        <v>22182.617939999996</v>
+      </c>
+      <c r="L928" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="929" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A929" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B929" t="s">
+        <v>586</v>
+      </c>
+      <c r="C929" t="s">
+        <v>587</v>
+      </c>
+      <c r="D929" t="s">
+        <v>510</v>
+      </c>
+      <c r="E929" t="s">
+        <v>21</v>
+      </c>
+      <c r="F929">
+        <v>6852.5955999999996</v>
+      </c>
+      <c r="G929" t="s">
+        <v>16</v>
+      </c>
+      <c r="I929">
+        <v>1</v>
+      </c>
+      <c r="J929">
+        <v>1</v>
+      </c>
+      <c r="K929" s="5">
+        <v>6852.5955999999996</v>
+      </c>
+      <c r="L929" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="930" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A930" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B930" t="s">
+        <v>588</v>
+      </c>
+      <c r="C930" t="s">
+        <v>589</v>
+      </c>
+      <c r="D930" t="s">
+        <v>211</v>
+      </c>
+      <c r="E930" t="s">
+        <v>21</v>
+      </c>
+      <c r="F930">
+        <v>93744.912799999991</v>
+      </c>
+      <c r="G930" t="s">
+        <v>16</v>
+      </c>
+      <c r="I930">
+        <v>1</v>
+      </c>
+      <c r="J930">
+        <v>1</v>
+      </c>
+      <c r="K930" s="5">
+        <v>93744.912799999991</v>
+      </c>
+      <c r="L930" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="931" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A931" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B931" t="s">
+        <v>590</v>
+      </c>
+      <c r="C931" t="s">
+        <v>591</v>
+      </c>
+      <c r="D931" t="s">
+        <v>88</v>
+      </c>
+      <c r="E931" t="s">
+        <v>15</v>
+      </c>
+      <c r="F931">
+        <v>293068.06079999998</v>
+      </c>
+      <c r="G931" t="s">
+        <v>16</v>
+      </c>
+      <c r="I931">
+        <v>0.15</v>
+      </c>
+      <c r="J931">
+        <v>0.15</v>
+      </c>
+      <c r="K931" s="5">
+        <v>43960.209119999992</v>
+      </c>
+      <c r="L931" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="932" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A932" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B932" t="s">
+        <v>580</v>
+      </c>
+      <c r="C932" t="s">
+        <v>581</v>
+      </c>
+      <c r="D932" t="s">
+        <v>39</v>
+      </c>
+      <c r="E932" t="s">
+        <v>21</v>
+      </c>
+      <c r="F932">
+        <v>79999.991599999994</v>
+      </c>
+      <c r="G932" t="s">
+        <v>29</v>
+      </c>
+      <c r="I932">
+        <v>0.15</v>
+      </c>
+      <c r="J932">
+        <v>0.15</v>
+      </c>
+      <c r="K932" s="5">
+        <v>11999.998739999999</v>
+      </c>
+      <c r="L932" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="933" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A933" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B933" t="s">
+        <v>508</v>
+      </c>
+      <c r="C933" t="s">
+        <v>509</v>
+      </c>
+      <c r="D933" t="s">
+        <v>510</v>
+      </c>
+      <c r="E933" t="s">
+        <v>21</v>
+      </c>
+      <c r="F933">
+        <v>122482.1728</v>
+      </c>
+      <c r="G933" t="s">
+        <v>29</v>
+      </c>
+      <c r="I933">
+        <v>0.15</v>
+      </c>
+      <c r="J933">
+        <v>0.15</v>
+      </c>
+      <c r="K933" s="5">
+        <v>18372.325919999999</v>
+      </c>
+      <c r="L933" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="934" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A934" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B934" t="s">
+        <v>461</v>
+      </c>
+      <c r="C934" t="s">
+        <v>462</v>
+      </c>
+      <c r="D934" t="s">
+        <v>463</v>
+      </c>
+      <c r="E934" t="s">
+        <v>15</v>
+      </c>
+      <c r="F934">
+        <v>61675.019199999995</v>
+      </c>
+      <c r="G934" t="s">
+        <v>106</v>
+      </c>
+      <c r="I934">
+        <v>0.2</v>
+      </c>
+      <c r="J934">
+        <v>0.2</v>
+      </c>
+      <c r="K934" s="5">
+        <v>12335.003839999999</v>
+      </c>
+      <c r="L934" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="935" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A935" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B935" t="s">
+        <v>206</v>
+      </c>
+      <c r="C935" t="s">
+        <v>207</v>
+      </c>
+      <c r="D935" t="s">
+        <v>88</v>
+      </c>
+      <c r="E935" t="s">
+        <v>21</v>
+      </c>
+      <c r="F935">
+        <v>231982.1012</v>
+      </c>
+      <c r="G935" t="s">
+        <v>125</v>
+      </c>
+      <c r="H935" t="s">
+        <v>208</v>
+      </c>
+      <c r="I935">
+        <v>0.1</v>
+      </c>
+      <c r="J935">
+        <v>0.1</v>
+      </c>
+      <c r="K935" s="5">
+        <v>23198.210120000003</v>
+      </c>
+      <c r="L935" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="936" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A936" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B936" t="s">
+        <v>416</v>
+      </c>
+      <c r="C936" t="s">
+        <v>417</v>
+      </c>
+      <c r="D936" t="s">
+        <v>418</v>
+      </c>
+      <c r="E936" t="s">
+        <v>15</v>
+      </c>
+      <c r="F936">
+        <v>324924.93199999997</v>
+      </c>
+      <c r="G936" t="s">
+        <v>106</v>
+      </c>
+      <c r="I936">
+        <v>0.2</v>
+      </c>
+      <c r="J936">
+        <v>0.2</v>
+      </c>
+      <c r="K936" s="5">
+        <v>64984.986399999994</v>
+      </c>
+      <c r="L936" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="937" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A937" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B937" t="s">
+        <v>449</v>
+      </c>
+      <c r="C937" t="s">
+        <v>450</v>
+      </c>
+      <c r="D937" t="s">
+        <v>451</v>
+      </c>
+      <c r="E937" t="s">
+        <v>15</v>
+      </c>
+      <c r="F937">
+        <v>278299.54399999999</v>
+      </c>
+      <c r="G937" t="s">
+        <v>106</v>
+      </c>
+      <c r="I937">
+        <v>0.2</v>
+      </c>
+      <c r="J937">
+        <v>0.2</v>
+      </c>
+      <c r="K937" s="5">
+        <v>55659.908800000005</v>
+      </c>
+      <c r="L937" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="938" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A938" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B938" t="s">
+        <v>435</v>
+      </c>
+      <c r="C938" t="s">
+        <v>436</v>
+      </c>
+      <c r="D938" t="s">
+        <v>145</v>
+      </c>
+      <c r="E938" t="s">
+        <v>15</v>
+      </c>
+      <c r="F938">
+        <v>75421.065600000002</v>
+      </c>
+      <c r="G938" t="s">
+        <v>106</v>
+      </c>
+      <c r="I938">
+        <v>0.2</v>
+      </c>
+      <c r="J938">
+        <v>0.2</v>
+      </c>
+      <c r="K938" s="5">
+        <v>15084.21312</v>
+      </c>
+      <c r="L938" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="939" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A939" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B939" t="s">
+        <v>487</v>
+      </c>
+      <c r="C939" t="s">
+        <v>488</v>
+      </c>
+      <c r="D939" t="s">
+        <v>489</v>
+      </c>
+      <c r="E939" t="s">
+        <v>15</v>
+      </c>
+      <c r="F939">
+        <v>101258.3836</v>
+      </c>
+      <c r="G939" t="s">
+        <v>79</v>
+      </c>
+      <c r="I939">
+        <v>0.4</v>
+      </c>
+      <c r="J939">
+        <v>0.4</v>
+      </c>
+      <c r="K939" s="5">
+        <v>40503.353440000006</v>
+      </c>
+      <c r="L939" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="940" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A940" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B940" t="s">
+        <v>487</v>
+      </c>
+      <c r="C940" t="s">
+        <v>488</v>
+      </c>
+      <c r="D940" t="s">
+        <v>489</v>
+      </c>
+      <c r="E940" t="s">
+        <v>15</v>
+      </c>
+      <c r="F940">
+        <v>101258.3836</v>
+      </c>
+      <c r="G940" t="s">
+        <v>106</v>
+      </c>
+      <c r="I940">
+        <v>0.2</v>
+      </c>
+      <c r="J940">
+        <v>0.2</v>
+      </c>
+      <c r="K940" s="5">
+        <v>20251.676720000003</v>
+      </c>
+      <c r="L940" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="941" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A941" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B941" t="s">
+        <v>404</v>
+      </c>
+      <c r="C941" t="s">
+        <v>405</v>
+      </c>
+      <c r="D941" t="s">
+        <v>406</v>
+      </c>
+      <c r="E941" t="s">
+        <v>15</v>
+      </c>
+      <c r="F941">
+        <v>902071.04760000005</v>
+      </c>
+      <c r="G941" t="s">
+        <v>79</v>
+      </c>
+      <c r="I941">
+        <v>0.4</v>
+      </c>
+      <c r="J941">
+        <v>0.4</v>
+      </c>
+      <c r="K941" s="5">
+        <v>360828.41904000007</v>
+      </c>
+      <c r="L941" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="942" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A942" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B942" t="s">
+        <v>409</v>
+      </c>
+      <c r="C942" t="s">
+        <v>410</v>
+      </c>
+      <c r="D942" t="s">
+        <v>406</v>
+      </c>
+      <c r="E942" t="s">
+        <v>15</v>
+      </c>
+      <c r="F942">
+        <v>140998.3848</v>
+      </c>
+      <c r="G942" t="s">
+        <v>79</v>
+      </c>
+      <c r="I942">
+        <v>0.4</v>
+      </c>
+      <c r="J942">
+        <v>0.4</v>
+      </c>
+      <c r="K942" s="5">
+        <v>56399.353920000001</v>
+      </c>
+      <c r="L942" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="943" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A943" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B943" t="s">
+        <v>419</v>
+      </c>
+      <c r="C943" t="s">
+        <v>420</v>
+      </c>
+      <c r="D943" t="s">
+        <v>406</v>
+      </c>
+      <c r="E943" t="s">
+        <v>15</v>
+      </c>
+      <c r="F943">
+        <v>391910.00040000002</v>
+      </c>
+      <c r="G943" t="s">
+        <v>79</v>
+      </c>
+      <c r="I943">
+        <v>0.4</v>
+      </c>
+      <c r="J943">
+        <v>0.4</v>
+      </c>
+      <c r="K943" s="5">
+        <v>156764.00016000003</v>
+      </c>
+      <c r="L943" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A944" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B944" t="s">
+        <v>404</v>
+      </c>
+      <c r="C944" t="s">
+        <v>405</v>
+      </c>
+      <c r="D944" t="s">
+        <v>406</v>
+      </c>
+      <c r="E944" t="s">
+        <v>15</v>
+      </c>
+      <c r="F944">
+        <v>902071.04760000005</v>
+      </c>
+      <c r="G944" t="s">
+        <v>106</v>
+      </c>
+      <c r="I944">
+        <v>0.2</v>
+      </c>
+      <c r="J944">
+        <v>0.2</v>
+      </c>
+      <c r="K944" s="5">
+        <v>180414.20952000003</v>
+      </c>
+      <c r="L944" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="945" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A945" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B945" t="s">
+        <v>409</v>
+      </c>
+      <c r="C945" t="s">
+        <v>410</v>
+      </c>
+      <c r="D945" t="s">
+        <v>406</v>
+      </c>
+      <c r="E945" t="s">
+        <v>15</v>
+      </c>
+      <c r="F945">
+        <v>140998.3848</v>
+      </c>
+      <c r="G945" t="s">
+        <v>106</v>
+      </c>
+      <c r="I945">
+        <v>0.2</v>
+      </c>
+      <c r="J945">
+        <v>0.2</v>
+      </c>
+      <c r="K945" s="5">
+        <v>28199.676960000001</v>
+      </c>
+      <c r="L945" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="946" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A946" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B946" t="s">
+        <v>419</v>
+      </c>
+      <c r="C946" t="s">
+        <v>420</v>
+      </c>
+      <c r="D946" t="s">
+        <v>406</v>
+      </c>
+      <c r="E946" t="s">
+        <v>15</v>
+      </c>
+      <c r="F946">
+        <v>391910.00040000002</v>
+      </c>
+      <c r="G946" t="s">
+        <v>106</v>
+      </c>
+      <c r="I946">
+        <v>0.2</v>
+      </c>
+      <c r="J946">
+        <v>0.2</v>
+      </c>
+      <c r="K946" s="5">
+        <v>78382.000080000013</v>
+      </c>
+      <c r="L946" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="947" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A947" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B947" t="s">
+        <v>558</v>
+      </c>
+      <c r="C947" t="s">
+        <v>559</v>
+      </c>
+      <c r="D947" t="s">
+        <v>233</v>
+      </c>
+      <c r="E947" t="s">
+        <v>21</v>
+      </c>
+      <c r="F947">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G947" t="s">
+        <v>79</v>
+      </c>
+      <c r="H947" t="s">
+        <v>592</v>
+      </c>
+      <c r="I947">
+        <v>0.4</v>
+      </c>
+      <c r="J947">
+        <v>0.04</v>
+      </c>
+      <c r="K947" s="5">
+        <v>21453.471983999996</v>
+      </c>
+      <c r="L947" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="948" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A948" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B948" t="s">
+        <v>558</v>
+      </c>
+      <c r="C948" t="s">
+        <v>559</v>
+      </c>
+      <c r="D948" t="s">
+        <v>233</v>
+      </c>
+      <c r="E948" t="s">
+        <v>21</v>
+      </c>
+      <c r="F948">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G948" t="s">
+        <v>79</v>
+      </c>
+      <c r="H948" t="s">
+        <v>593</v>
+      </c>
+      <c r="I948">
+        <v>0.4</v>
+      </c>
+      <c r="J948">
+        <v>0.04</v>
+      </c>
+      <c r="K948" s="5">
+        <v>21453.471983999996</v>
+      </c>
+      <c r="L948" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="949" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A949" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B949" t="s">
+        <v>558</v>
+      </c>
+      <c r="C949" t="s">
+        <v>559</v>
+      </c>
+      <c r="D949" t="s">
+        <v>233</v>
+      </c>
+      <c r="E949" t="s">
+        <v>21</v>
+      </c>
+      <c r="F949">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G949" t="s">
+        <v>79</v>
+      </c>
+      <c r="H949" t="s">
+        <v>594</v>
+      </c>
+      <c r="I949">
+        <v>0.4</v>
+      </c>
+      <c r="J949">
+        <v>0.04</v>
+      </c>
+      <c r="K949" s="5">
+        <v>21453.471983999996</v>
+      </c>
+      <c r="L949" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="950" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A950" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B950" t="s">
+        <v>558</v>
+      </c>
+      <c r="C950" t="s">
+        <v>559</v>
+      </c>
+      <c r="D950" t="s">
+        <v>233</v>
+      </c>
+      <c r="E950" t="s">
+        <v>21</v>
+      </c>
+      <c r="F950">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G950" t="s">
+        <v>106</v>
+      </c>
+      <c r="H950" t="s">
+        <v>592</v>
+      </c>
+      <c r="I950">
+        <v>0.2</v>
+      </c>
+      <c r="J950">
+        <v>0.02</v>
+      </c>
+      <c r="K950" s="5">
+        <v>10726.735991999998</v>
+      </c>
+      <c r="L950" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="951" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A951" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B951" t="s">
+        <v>558</v>
+      </c>
+      <c r="C951" t="s">
+        <v>559</v>
+      </c>
+      <c r="D951" t="s">
+        <v>233</v>
+      </c>
+      <c r="E951" t="s">
+        <v>21</v>
+      </c>
+      <c r="F951">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G951" t="s">
+        <v>106</v>
+      </c>
+      <c r="H951" t="s">
+        <v>593</v>
+      </c>
+      <c r="I951">
+        <v>0.2</v>
+      </c>
+      <c r="J951">
+        <v>0.02</v>
+      </c>
+      <c r="K951" s="5">
+        <v>10726.735991999998</v>
+      </c>
+      <c r="L951" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="952" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A952" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B952" t="s">
+        <v>558</v>
+      </c>
+      <c r="C952" t="s">
+        <v>559</v>
+      </c>
+      <c r="D952" t="s">
+        <v>233</v>
+      </c>
+      <c r="E952" t="s">
+        <v>21</v>
+      </c>
+      <c r="F952">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G952" t="s">
+        <v>106</v>
+      </c>
+      <c r="H952" t="s">
+        <v>594</v>
+      </c>
+      <c r="I952">
+        <v>0.2</v>
+      </c>
+      <c r="J952">
+        <v>0.02</v>
+      </c>
+      <c r="K952" s="5">
+        <v>10726.735991999998</v>
+      </c>
+      <c r="L952" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="953" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A953" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B953" t="s">
+        <v>595</v>
+      </c>
+      <c r="C953" t="s">
+        <v>596</v>
+      </c>
+      <c r="D953" t="s">
+        <v>20</v>
+      </c>
+      <c r="E953" t="s">
+        <v>21</v>
+      </c>
+      <c r="F953">
+        <v>184777.50200000001</v>
+      </c>
+      <c r="G953" t="s">
+        <v>125</v>
+      </c>
+      <c r="H953" t="s">
+        <v>597</v>
+      </c>
+      <c r="I953">
+        <v>0.1</v>
+      </c>
+      <c r="J953">
+        <v>0.1</v>
+      </c>
+      <c r="K953" s="5">
+        <v>18477.750200000002</v>
+      </c>
+      <c r="L953" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="954" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A954" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B954" t="s">
+        <v>435</v>
+      </c>
+      <c r="C954" t="s">
+        <v>436</v>
+      </c>
+      <c r="D954" t="s">
+        <v>145</v>
+      </c>
+      <c r="E954" t="s">
+        <v>15</v>
+      </c>
+      <c r="F954">
+        <v>75421.065600000002</v>
+      </c>
+      <c r="G954" t="s">
+        <v>125</v>
+      </c>
+      <c r="I954">
+        <v>0.1</v>
+      </c>
+      <c r="J954">
+        <v>0.1</v>
+      </c>
+      <c r="K954" s="5">
+        <v>7542.1065600000002</v>
+      </c>
+      <c r="L954" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="955" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A955" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B955" t="s">
+        <v>566</v>
+      </c>
+      <c r="C955" t="s">
+        <v>567</v>
+      </c>
+      <c r="D955" t="s">
+        <v>161</v>
+      </c>
+      <c r="E955" t="s">
+        <v>21</v>
+      </c>
+      <c r="F955">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G955" t="s">
+        <v>29</v>
+      </c>
+      <c r="I955">
+        <v>0.15</v>
+      </c>
+      <c r="J955">
+        <v>0.15</v>
+      </c>
+      <c r="K955" s="5">
+        <v>67500.009659999996</v>
+      </c>
+      <c r="L955" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="956" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A956" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B956" t="s">
+        <v>566</v>
+      </c>
+      <c r="C956" t="s">
+        <v>567</v>
+      </c>
+      <c r="D956" t="s">
+        <v>161</v>
+      </c>
+      <c r="E956" t="s">
+        <v>21</v>
+      </c>
+      <c r="F956">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G956" t="s">
+        <v>79</v>
+      </c>
+      <c r="H956" t="s">
+        <v>598</v>
+      </c>
+      <c r="I956">
+        <v>0.4</v>
+      </c>
+      <c r="J956">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K956" s="5">
+        <v>12000.001717333333</v>
+      </c>
+      <c r="L956" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="957" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A957" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B957" t="s">
+        <v>566</v>
+      </c>
+      <c r="C957" t="s">
+        <v>567</v>
+      </c>
+      <c r="D957" t="s">
+        <v>161</v>
+      </c>
+      <c r="E957" t="s">
+        <v>21</v>
+      </c>
+      <c r="F957">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G957" t="s">
+        <v>79</v>
+      </c>
+      <c r="H957" t="s">
+        <v>599</v>
+      </c>
+      <c r="I957">
+        <v>0.4</v>
+      </c>
+      <c r="J957">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K957" s="5">
+        <v>12000.001717333333</v>
+      </c>
+      <c r="L957" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="958" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A958" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B958" t="s">
+        <v>566</v>
+      </c>
+      <c r="C958" t="s">
+        <v>567</v>
+      </c>
+      <c r="D958" t="s">
+        <v>161</v>
+      </c>
+      <c r="E958" t="s">
+        <v>21</v>
+      </c>
+      <c r="F958">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G958" t="s">
+        <v>79</v>
+      </c>
+      <c r="H958" t="s">
+        <v>600</v>
+      </c>
+      <c r="I958">
+        <v>0.4</v>
+      </c>
+      <c r="J958">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K958" s="5">
+        <v>12000.001717333333</v>
+      </c>
+      <c r="L958" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="959" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A959" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B959" t="s">
+        <v>566</v>
+      </c>
+      <c r="C959" t="s">
+        <v>567</v>
+      </c>
+      <c r="D959" t="s">
+        <v>161</v>
+      </c>
+      <c r="E959" t="s">
+        <v>21</v>
+      </c>
+      <c r="F959">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G959" t="s">
+        <v>106</v>
+      </c>
+      <c r="H959" t="s">
+        <v>598</v>
+      </c>
+      <c r="I959">
+        <v>0.2</v>
+      </c>
+      <c r="J959">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K959" s="5">
+        <v>6000.0008586666663</v>
+      </c>
+      <c r="L959" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="960" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A960" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B960" t="s">
+        <v>566</v>
+      </c>
+      <c r="C960" t="s">
+        <v>567</v>
+      </c>
+      <c r="D960" t="s">
+        <v>161</v>
+      </c>
+      <c r="E960" t="s">
+        <v>21</v>
+      </c>
+      <c r="F960">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G960" t="s">
+        <v>106</v>
+      </c>
+      <c r="H960" t="s">
+        <v>599</v>
+      </c>
+      <c r="I960">
+        <v>0.2</v>
+      </c>
+      <c r="J960">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K960" s="5">
+        <v>6000.0008586666663</v>
+      </c>
+      <c r="L960" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="961" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A961" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B961" t="s">
+        <v>566</v>
+      </c>
+      <c r="C961" t="s">
+        <v>567</v>
+      </c>
+      <c r="D961" t="s">
+        <v>161</v>
+      </c>
+      <c r="E961" t="s">
+        <v>21</v>
+      </c>
+      <c r="F961">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G961" t="s">
+        <v>106</v>
+      </c>
+      <c r="H961" t="s">
+        <v>600</v>
+      </c>
+      <c r="I961">
+        <v>0.2</v>
+      </c>
+      <c r="J961">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K961" s="5">
+        <v>6000.0008586666663</v>
+      </c>
+      <c r="L961" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="962" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A962" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B962" t="s">
+        <v>210</v>
+      </c>
+      <c r="C962" t="s">
+        <v>211</v>
+      </c>
+      <c r="D962" t="s">
+        <v>211</v>
+      </c>
+      <c r="E962" t="s">
+        <v>21</v>
+      </c>
+      <c r="F962">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G962" t="s">
+        <v>79</v>
+      </c>
+      <c r="H962">
+        <v>301</v>
+      </c>
+      <c r="I962">
+        <v>0.4</v>
+      </c>
+      <c r="J962">
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="K962" s="5">
+        <v>156052.74956903225</v>
+      </c>
+      <c r="L962" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="963" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A963" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B963" t="s">
+        <v>210</v>
+      </c>
+      <c r="C963" t="s">
+        <v>211</v>
+      </c>
+      <c r="D963" t="s">
+        <v>211</v>
+      </c>
+      <c r="E963" t="s">
+        <v>21</v>
+      </c>
+      <c r="F963">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G963" t="s">
+        <v>106</v>
+      </c>
+      <c r="H963">
+        <v>301</v>
+      </c>
+      <c r="I963">
+        <v>0.2</v>
+      </c>
+      <c r="J963">
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="K963" s="5">
+        <v>78026.374784516127</v>
+      </c>
+      <c r="L963" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="964" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A964" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B964" t="s">
+        <v>568</v>
+      </c>
+      <c r="C964" t="s">
+        <v>569</v>
+      </c>
+      <c r="D964" t="s">
+        <v>570</v>
+      </c>
+      <c r="E964" t="s">
+        <v>15</v>
+      </c>
+      <c r="F964">
+        <v>3499.9983999999995</v>
+      </c>
+      <c r="G964" t="s">
+        <v>29</v>
+      </c>
+      <c r="I964">
+        <v>0.15</v>
+      </c>
+      <c r="J964">
+        <v>0.15</v>
+      </c>
+      <c r="K964" s="5">
+        <v>524.99975999999992</v>
+      </c>
+      <c r="L964" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="965" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A965" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B965" t="s">
+        <v>568</v>
+      </c>
+      <c r="C965" t="s">
+        <v>569</v>
+      </c>
+      <c r="D965" t="s">
+        <v>570</v>
+      </c>
+      <c r="E965" t="s">
+        <v>15</v>
+      </c>
+      <c r="F965">
+        <v>3499.9983999999995</v>
+      </c>
+      <c r="G965" t="s">
+        <v>79</v>
+      </c>
+      <c r="I965">
+        <v>0.4</v>
+      </c>
+      <c r="J965">
+        <v>0.4</v>
+      </c>
+      <c r="K965" s="5">
+        <v>1399.9993599999998</v>
+      </c>
+      <c r="L965" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="966" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A966" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B966" t="s">
+        <v>568</v>
+      </c>
+      <c r="C966" t="s">
+        <v>569</v>
+      </c>
+      <c r="D966" t="s">
+        <v>570</v>
+      </c>
+      <c r="E966" t="s">
+        <v>15</v>
+      </c>
+      <c r="F966">
+        <v>3499.9983999999995</v>
+      </c>
+      <c r="G966" t="s">
+        <v>106</v>
+      </c>
+      <c r="I966">
+        <v>0.2</v>
+      </c>
+      <c r="J966">
+        <v>0.2</v>
+      </c>
+      <c r="K966" s="5">
+        <v>699.9996799999999</v>
+      </c>
+      <c r="L966" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="967" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A967" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B967" t="s">
+        <v>568</v>
+      </c>
+      <c r="C967" t="s">
+        <v>569</v>
+      </c>
+      <c r="D967" t="s">
+        <v>570</v>
+      </c>
+      <c r="E967" t="s">
+        <v>15</v>
+      </c>
+      <c r="F967">
+        <v>3499.9983999999995</v>
+      </c>
+      <c r="G967" t="s">
+        <v>125</v>
+      </c>
+      <c r="I967">
+        <v>0.1</v>
+      </c>
+      <c r="J967">
+        <v>0.1</v>
+      </c>
+      <c r="K967" s="5">
+        <v>349.99983999999995</v>
+      </c>
+      <c r="L967" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="968" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A968" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B968" t="s">
+        <v>461</v>
+      </c>
+      <c r="C968" t="s">
+        <v>462</v>
+      </c>
+      <c r="D968" t="s">
+        <v>463</v>
+      </c>
+      <c r="E968" t="s">
+        <v>15</v>
+      </c>
+      <c r="F968">
+        <v>61675.019199999995</v>
+      </c>
+      <c r="G968" t="s">
+        <v>125</v>
+      </c>
+      <c r="I968">
+        <v>0.1</v>
+      </c>
+      <c r="J968">
+        <v>0.1</v>
+      </c>
+      <c r="K968" s="5">
+        <v>6167.5019199999997</v>
+      </c>
+      <c r="L968" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="969" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A969" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B969" t="s">
+        <v>566</v>
+      </c>
+      <c r="C969" t="s">
+        <v>567</v>
+      </c>
+      <c r="D969" t="s">
+        <v>161</v>
+      </c>
+      <c r="E969" t="s">
+        <v>21</v>
+      </c>
+      <c r="F969">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G969" t="s">
+        <v>125</v>
+      </c>
+      <c r="H969" t="s">
+        <v>598</v>
+      </c>
+      <c r="I969">
+        <v>0.1</v>
+      </c>
+      <c r="J969">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K969" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L969" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="970" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A970" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B970" t="s">
+        <v>566</v>
+      </c>
+      <c r="C970" t="s">
+        <v>567</v>
+      </c>
+      <c r="D970" t="s">
+        <v>161</v>
+      </c>
+      <c r="E970" t="s">
+        <v>21</v>
+      </c>
+      <c r="F970">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G970" t="s">
+        <v>125</v>
+      </c>
+      <c r="H970" t="s">
+        <v>599</v>
+      </c>
+      <c r="I970">
+        <v>0.1</v>
+      </c>
+      <c r="J970">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K970" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L970" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="971" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A971" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B971" t="s">
+        <v>566</v>
+      </c>
+      <c r="C971" t="s">
+        <v>567</v>
+      </c>
+      <c r="D971" t="s">
+        <v>161</v>
+      </c>
+      <c r="E971" t="s">
+        <v>21</v>
+      </c>
+      <c r="F971">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G971" t="s">
+        <v>125</v>
+      </c>
+      <c r="H971" t="s">
+        <v>600</v>
+      </c>
+      <c r="I971">
+        <v>0.1</v>
+      </c>
+      <c r="J971">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K971" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L971" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="972" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A972" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B972" t="s">
+        <v>566</v>
+      </c>
+      <c r="C972" t="s">
+        <v>567</v>
+      </c>
+      <c r="D972" t="s">
+        <v>161</v>
+      </c>
+      <c r="E972" t="s">
+        <v>21</v>
+      </c>
+      <c r="F972">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G972" t="s">
+        <v>79</v>
+      </c>
+      <c r="H972" t="s">
+        <v>601</v>
+      </c>
+      <c r="I972">
+        <v>0.4</v>
+      </c>
+      <c r="J972">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K972" s="5">
+        <v>12000.001717333333</v>
+      </c>
+      <c r="L972" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="973" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A973" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B973" t="s">
+        <v>566</v>
+      </c>
+      <c r="C973" t="s">
+        <v>567</v>
+      </c>
+      <c r="D973" t="s">
+        <v>161</v>
+      </c>
+      <c r="E973" t="s">
+        <v>21</v>
+      </c>
+      <c r="F973">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G973" t="s">
+        <v>79</v>
+      </c>
+      <c r="H973" t="s">
+        <v>602</v>
+      </c>
+      <c r="I973">
+        <v>0.4</v>
+      </c>
+      <c r="J973">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K973" s="5">
+        <v>12000.001717333333</v>
+      </c>
+      <c r="L973" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="974" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A974" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B974" t="s">
+        <v>603</v>
+      </c>
+      <c r="C974" t="s">
+        <v>604</v>
+      </c>
+      <c r="D974" t="s">
+        <v>605</v>
+      </c>
+      <c r="E974" t="s">
+        <v>21</v>
+      </c>
+      <c r="F974">
+        <v>181199.99240000002</v>
+      </c>
+      <c r="G974" t="s">
+        <v>16</v>
+      </c>
+      <c r="I974">
+        <v>0.15</v>
+      </c>
+      <c r="J974">
+        <v>0.15</v>
+      </c>
+      <c r="K974" s="5">
+        <v>27179.998860000003</v>
+      </c>
+      <c r="L974" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="975" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A975" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B975" t="s">
+        <v>606</v>
+      </c>
+      <c r="C975" t="s">
+        <v>607</v>
+      </c>
+      <c r="D975" t="s">
+        <v>608</v>
+      </c>
+      <c r="E975" t="s">
+        <v>15</v>
+      </c>
+      <c r="F975">
+        <v>3906.9843999999998</v>
+      </c>
+      <c r="G975" t="s">
+        <v>16</v>
+      </c>
+      <c r="I975">
+        <v>1</v>
+      </c>
+      <c r="J975">
+        <v>1</v>
+      </c>
+      <c r="K975" s="5">
+        <v>3906.9843999999998</v>
+      </c>
+      <c r="L975" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="976" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A976" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B976" t="s">
+        <v>603</v>
+      </c>
+      <c r="C976" t="s">
+        <v>604</v>
+      </c>
+      <c r="D976" t="s">
+        <v>605</v>
+      </c>
+      <c r="E976" t="s">
+        <v>21</v>
+      </c>
+      <c r="F976">
+        <v>181199.99240000002</v>
+      </c>
+      <c r="G976" t="s">
+        <v>29</v>
+      </c>
+      <c r="I976">
+        <v>0.15</v>
+      </c>
+      <c r="J976">
+        <v>0.15</v>
+      </c>
+      <c r="K976" s="5">
+        <v>27179.998860000003</v>
+      </c>
+      <c r="L976" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="977" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A977" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B977" t="s">
+        <v>603</v>
+      </c>
+      <c r="C977" t="s">
+        <v>604</v>
+      </c>
+      <c r="D977" t="s">
+        <v>605</v>
+      </c>
+      <c r="E977" t="s">
+        <v>21</v>
+      </c>
+      <c r="F977">
+        <v>181199.99240000002</v>
+      </c>
+      <c r="G977" t="s">
+        <v>79</v>
+      </c>
+      <c r="H977">
+        <v>503</v>
+      </c>
+      <c r="I977">
+        <v>0.4</v>
+      </c>
+      <c r="J977">
+        <v>0.2</v>
+      </c>
+      <c r="K977" s="5">
+        <v>36239.998480000002</v>
+      </c>
+      <c r="L977" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="978" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A978" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B978" t="s">
+        <v>603</v>
+      </c>
+      <c r="C978" t="s">
+        <v>604</v>
+      </c>
+      <c r="D978" t="s">
+        <v>605</v>
+      </c>
+      <c r="E978" t="s">
+        <v>21</v>
+      </c>
+      <c r="F978">
+        <v>181199.99240000002</v>
+      </c>
+      <c r="G978" t="s">
+        <v>79</v>
+      </c>
+      <c r="H978">
+        <v>603</v>
+      </c>
+      <c r="I978">
+        <v>0.4</v>
+      </c>
+      <c r="J978">
+        <v>0.2</v>
+      </c>
+      <c r="K978" s="5">
+        <v>36239.998480000002</v>
+      </c>
+      <c r="L978" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="979" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A979" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B979" t="s">
+        <v>603</v>
+      </c>
+      <c r="C979" t="s">
+        <v>604</v>
+      </c>
+      <c r="D979" t="s">
+        <v>605</v>
+      </c>
+      <c r="E979" t="s">
+        <v>21</v>
+      </c>
+      <c r="F979">
+        <v>181199.99240000002</v>
+      </c>
+      <c r="G979" t="s">
+        <v>106</v>
+      </c>
+      <c r="H979">
+        <v>503</v>
+      </c>
+      <c r="I979">
+        <v>0.2</v>
+      </c>
+      <c r="J979">
+        <v>0.1</v>
+      </c>
+      <c r="K979" s="5">
+        <v>18119.999240000001</v>
+      </c>
+      <c r="L979" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="980" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A980" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B980" t="s">
+        <v>603</v>
+      </c>
+      <c r="C980" t="s">
+        <v>604</v>
+      </c>
+      <c r="D980" t="s">
+        <v>605</v>
+      </c>
+      <c r="E980" t="s">
+        <v>21</v>
+      </c>
+      <c r="F980">
+        <v>181199.99240000002</v>
+      </c>
+      <c r="G980" t="s">
+        <v>106</v>
+      </c>
+      <c r="H980">
+        <v>603</v>
+      </c>
+      <c r="I980">
+        <v>0.2</v>
+      </c>
+      <c r="J980">
+        <v>0.1</v>
+      </c>
+      <c r="K980" s="5">
+        <v>18119.999240000001</v>
+      </c>
+      <c r="L980" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="981" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A981" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B981" t="s">
+        <v>603</v>
+      </c>
+      <c r="C981" t="s">
+        <v>604</v>
+      </c>
+      <c r="D981" t="s">
+        <v>605</v>
+      </c>
+      <c r="E981" t="s">
+        <v>21</v>
+      </c>
+      <c r="F981">
+        <v>181199.99240000002</v>
+      </c>
+      <c r="G981" t="s">
+        <v>125</v>
+      </c>
+      <c r="H981">
+        <v>503</v>
+      </c>
+      <c r="I981">
+        <v>0.1</v>
+      </c>
+      <c r="J981">
+        <v>0.05</v>
+      </c>
+      <c r="K981" s="5">
+        <v>9059.9996200000005</v>
+      </c>
+      <c r="L981" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="982" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A982" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B982" t="s">
+        <v>603</v>
+      </c>
+      <c r="C982" t="s">
+        <v>604</v>
+      </c>
+      <c r="D982" t="s">
+        <v>605</v>
+      </c>
+      <c r="E982" t="s">
+        <v>21</v>
+      </c>
+      <c r="F982">
+        <v>181199.99240000002</v>
+      </c>
+      <c r="G982" t="s">
+        <v>125</v>
+      </c>
+      <c r="H982">
+        <v>603</v>
+      </c>
+      <c r="I982">
+        <v>0.1</v>
+      </c>
+      <c r="J982">
+        <v>0.05</v>
+      </c>
+      <c r="K982" s="5">
+        <v>9059.9996200000005</v>
+      </c>
+      <c r="L982" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="983" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A983" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B983" t="s">
+        <v>609</v>
+      </c>
+      <c r="C983" t="s">
+        <v>610</v>
+      </c>
+      <c r="D983" t="s">
+        <v>20</v>
+      </c>
+      <c r="E983" t="s">
+        <v>21</v>
+      </c>
+      <c r="F983">
+        <v>1984.9572000000001</v>
+      </c>
+      <c r="G983" t="s">
+        <v>16</v>
+      </c>
+      <c r="I983">
+        <v>1</v>
+      </c>
+      <c r="J983">
+        <v>1</v>
+      </c>
+      <c r="K983" s="5">
+        <v>1984.9572000000001</v>
+      </c>
+      <c r="L983" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="984" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A984" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B984" t="s">
+        <v>46</v>
+      </c>
+      <c r="C984" t="s">
+        <v>47</v>
+      </c>
+      <c r="D984" t="s">
+        <v>48</v>
+      </c>
+      <c r="E984" t="s">
+        <v>15</v>
+      </c>
+      <c r="F984">
+        <v>993137.62</v>
+      </c>
+      <c r="G984" t="s">
+        <v>79</v>
+      </c>
+      <c r="I984">
+        <v>0.4</v>
+      </c>
+      <c r="J984">
+        <v>0.4</v>
+      </c>
+      <c r="K984" s="5">
+        <v>397255.04800000001</v>
+      </c>
+      <c r="L984" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="985" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A985" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B985" t="s">
+        <v>210</v>
+      </c>
+      <c r="C985" t="s">
+        <v>211</v>
+      </c>
+      <c r="D985" t="s">
+        <v>211</v>
+      </c>
+      <c r="E985" t="s">
+        <v>21</v>
+      </c>
+      <c r="F985">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G985" t="s">
+        <v>79</v>
+      </c>
+      <c r="H985">
+        <v>302</v>
+      </c>
+      <c r="I985">
+        <v>0.4</v>
+      </c>
+      <c r="J985">
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="K985" s="5">
+        <v>156052.74956903225</v>
+      </c>
+      <c r="L985" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="986" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A986" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B986" t="s">
+        <v>566</v>
+      </c>
+      <c r="C986" t="s">
+        <v>567</v>
+      </c>
+      <c r="D986" t="s">
+        <v>161</v>
+      </c>
+      <c r="E986" t="s">
+        <v>21</v>
+      </c>
+      <c r="F986">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G986" t="s">
+        <v>79</v>
+      </c>
+      <c r="H986" t="s">
+        <v>611</v>
+      </c>
+      <c r="I986">
+        <v>0.4</v>
+      </c>
+      <c r="J986">
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="K986" s="5">
+        <v>12000.001717333333</v>
+      </c>
+      <c r="L986" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="987" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A987" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B987" t="s">
+        <v>558</v>
+      </c>
+      <c r="C987" t="s">
+        <v>559</v>
+      </c>
+      <c r="D987" t="s">
+        <v>233</v>
+      </c>
+      <c r="E987" t="s">
+        <v>21</v>
+      </c>
+      <c r="F987">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G987" t="s">
+        <v>79</v>
+      </c>
+      <c r="H987" t="s">
+        <v>612</v>
+      </c>
+      <c r="I987">
+        <v>0.4</v>
+      </c>
+      <c r="J987">
+        <v>0.04</v>
+      </c>
+      <c r="K987" s="5">
+        <v>21453.471983999996</v>
+      </c>
+      <c r="L987" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="988" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A988" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B988" t="s">
+        <v>555</v>
+      </c>
+      <c r="C988" t="s">
+        <v>556</v>
+      </c>
+      <c r="D988" t="s">
+        <v>557</v>
+      </c>
+      <c r="E988" t="s">
+        <v>15</v>
+      </c>
+      <c r="F988">
+        <v>57390.443199999994</v>
+      </c>
+      <c r="G988" t="s">
+        <v>29</v>
+      </c>
+      <c r="I988">
+        <v>0.15</v>
+      </c>
+      <c r="J988">
+        <v>0.15</v>
+      </c>
+      <c r="K988" s="5">
+        <v>8608.5664799999995</v>
+      </c>
+      <c r="L988" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="989" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A989" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B989" t="s">
+        <v>508</v>
+      </c>
+      <c r="C989" t="s">
+        <v>509</v>
+      </c>
+      <c r="D989" t="s">
+        <v>510</v>
+      </c>
+      <c r="E989" t="s">
+        <v>21</v>
+      </c>
+      <c r="F989">
+        <v>122482.1728</v>
+      </c>
+      <c r="G989" t="s">
+        <v>79</v>
+      </c>
+      <c r="I989">
+        <v>0.4</v>
+      </c>
+      <c r="J989">
+        <v>0.4</v>
+      </c>
+      <c r="K989" s="5">
+        <v>48992.869120000003</v>
+      </c>
+      <c r="L989" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/datasets/Ventas_Vori_Vost_2024.xlsx
+++ b/datasets/Ventas_Vori_Vost_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D9A4C9-68A9-4D9A-B299-7E5FA7CFD97D}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{ABE5CA70-424C-47B8-86D5-59E1727B61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317BDE5A-14DA-4153-8004-3AA0C4B0ED27}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C751E623-A2D5-4481-B6AF-2D07DB0C8E71}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8030" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8740" uniqueCount="783">
   <si>
     <t>FECHA</t>
   </si>
@@ -2274,6 +2274,117 @@
   </si>
   <si>
     <t>L 35 - 9C</t>
+  </si>
+  <si>
+    <t>CTVV 3108</t>
+  </si>
+  <si>
+    <t>Lomalta 03</t>
+  </si>
+  <si>
+    <t>diciembre</t>
+  </si>
+  <si>
+    <t>CTVV 3218</t>
+  </si>
+  <si>
+    <t>Lomalta 02</t>
+  </si>
+  <si>
+    <t>CTVV 3099</t>
+  </si>
+  <si>
+    <t>Amenidades Torre Natura</t>
+  </si>
+  <si>
+    <t>CTVV 3277</t>
+  </si>
+  <si>
+    <t>Muebles Auxiliarres Hunchen</t>
+  </si>
+  <si>
+    <t>Danae Flores</t>
+  </si>
+  <si>
+    <t>CTVV 3081-3</t>
+  </si>
+  <si>
+    <t>De Leña Altacia León (incremento 3)</t>
+  </si>
+  <si>
+    <t>CTVV 3117-2</t>
+  </si>
+  <si>
+    <t>Arracház Altacia (incremento 2)</t>
+  </si>
+  <si>
+    <t>CTVV 3287</t>
+  </si>
+  <si>
+    <t>Aditiva Fondos Casa Villa Velázquez</t>
+  </si>
+  <si>
+    <t>CTVV 3251</t>
+  </si>
+  <si>
+    <t>Casa Horizonte</t>
+  </si>
+  <si>
+    <t>Mariel Salas</t>
+  </si>
+  <si>
+    <t>CTVV 3179</t>
+  </si>
+  <si>
+    <t>Casa Valquiria</t>
+  </si>
+  <si>
+    <t>Fernando Fernández</t>
+  </si>
+  <si>
+    <t>Prototipo U04 Viata Vivienda B (4 viviendas)</t>
+  </si>
+  <si>
+    <t>Prototipo U04 Viata Vivienda A (4 viviendas)</t>
+  </si>
+  <si>
+    <t>Casa 1 de 4</t>
+  </si>
+  <si>
+    <t>Casa 2 de 4</t>
+  </si>
+  <si>
+    <t>Casa 3 de 4</t>
+  </si>
+  <si>
+    <t>Casa 4 de 4</t>
+  </si>
+  <si>
+    <t>1 de 3</t>
+  </si>
+  <si>
+    <t>2 de 3</t>
+  </si>
+  <si>
+    <t>3 de 3</t>
+  </si>
+  <si>
+    <t>CTVV 3281</t>
+  </si>
+  <si>
+    <t>Prototipo Arandano Vistas la Huerta 3 Torre C</t>
+  </si>
+  <si>
+    <t>CTVV 3288</t>
+  </si>
+  <si>
+    <t>Aditiva 2 Casa Ibarra Puerta</t>
+  </si>
+  <si>
+    <t>CTVV 3289</t>
+  </si>
+  <si>
+    <t>Aditiva 3 Casa Ibarra Electrodomésticos</t>
   </si>
 </sst>
 </file>
@@ -2351,13 +2462,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}" name="Tabla1" displayName="Tabla1" ref="A1:L1256" totalsRowShown="0">
-  <autoFilter ref="A1:L1256" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}" name="Tabla1" displayName="Tabla1" ref="A1:L1363" totalsRowShown="0">
+  <autoFilter ref="A1:L1363" xr:uid="{ADC6B79A-FCB8-4868-8DE5-C47DAF242928}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7105FF0D-C5A9-4187-B96A-33FB756183B6}" name="FECHA" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{5B617DB1-79A2-407B-9ED4-293700021272}" name="CTVV"/>
@@ -2693,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E294A03A-0BD5-47C2-87E5-BF6F2CE97FDF}">
-  <dimension ref="A1:L1256"/>
+  <dimension ref="A1:L1363"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1326" workbookViewId="0">
+      <selection activeCell="A1257" sqref="A1257:L1363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48550,6 +48657,3976 @@
         <v>737</v>
       </c>
     </row>
+    <row r="1257" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1257" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1257">
+        <v>231451.43</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1257">
+        <v>0.15</v>
+      </c>
+      <c r="J1257">
+        <v>0.15</v>
+      </c>
+      <c r="K1257" s="5">
+        <v>34717.714499999995</v>
+      </c>
+      <c r="L1257" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1258" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>750</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1258">
+        <v>241410.59</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1258">
+        <v>0.15</v>
+      </c>
+      <c r="J1258">
+        <v>0.15</v>
+      </c>
+      <c r="K1258" s="5">
+        <v>36211.588499999998</v>
+      </c>
+      <c r="L1258" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1259" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1259">
+        <v>318854.93039999995</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1259">
+        <v>0.15</v>
+      </c>
+      <c r="J1259">
+        <v>0.15</v>
+      </c>
+      <c r="K1259" s="5">
+        <v>47828.239559999995</v>
+      </c>
+      <c r="L1259" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1260" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>753</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>754</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1260">
+        <v>11317.342799999999</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1260">
+        <v>0.15</v>
+      </c>
+      <c r="J1260">
+        <v>0.15</v>
+      </c>
+      <c r="K1260" s="5">
+        <v>1697.6014199999997</v>
+      </c>
+      <c r="L1260" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1261" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>756</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1261">
+        <v>13033.504800000001</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1261">
+        <v>1</v>
+      </c>
+      <c r="J1261">
+        <v>1</v>
+      </c>
+      <c r="K1261" s="5">
+        <v>13033.504800000001</v>
+      </c>
+      <c r="L1261" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1262" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>758</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1262">
+        <v>9835.8719999999994</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1262">
+        <v>1</v>
+      </c>
+      <c r="J1262">
+        <v>1</v>
+      </c>
+      <c r="K1262" s="5">
+        <v>9835.8719999999994</v>
+      </c>
+      <c r="L1262" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1263" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>761</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1263">
+        <v>4330.4308000000001</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1263">
+        <v>1</v>
+      </c>
+      <c r="J1263">
+        <v>1</v>
+      </c>
+      <c r="K1263" s="5">
+        <v>4330.4308000000001</v>
+      </c>
+      <c r="L1263" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1264" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>763</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>764</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1264">
+        <v>1566374.6683999998</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1264">
+        <v>0.15</v>
+      </c>
+      <c r="J1264">
+        <v>0.15</v>
+      </c>
+      <c r="K1264" s="5">
+        <v>234956.20025999998</v>
+      </c>
+      <c r="L1264" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1265" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>766</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>767</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1265">
+        <v>215150.49360000002</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1265">
+        <v>0.15</v>
+      </c>
+      <c r="J1265">
+        <v>0.15</v>
+      </c>
+      <c r="K1265" s="5">
+        <v>32272.57404</v>
+      </c>
+      <c r="L1265" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1266" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>682</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1266">
+        <v>171884.99519999998</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1266">
+        <v>0.15</v>
+      </c>
+      <c r="J1266">
+        <v>0.15</v>
+      </c>
+      <c r="K1266" s="5">
+        <v>25782.749279999996</v>
+      </c>
+      <c r="L1266" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1267" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1267">
+        <v>437710.53719999996</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1267">
+        <v>0.15</v>
+      </c>
+      <c r="J1267">
+        <v>0.15</v>
+      </c>
+      <c r="K1267" s="5">
+        <v>65656.580579999994</v>
+      </c>
+      <c r="L1267" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1268" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1268">
+        <v>304989.87959999999</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1268">
+        <v>0.15</v>
+      </c>
+      <c r="J1268">
+        <v>0.15</v>
+      </c>
+      <c r="K1268" s="5">
+        <v>45748.481939999998</v>
+      </c>
+      <c r="L1268" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1269" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1269">
+        <v>318854.93039999995</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1269">
+        <v>0.15</v>
+      </c>
+      <c r="J1269">
+        <v>0.15</v>
+      </c>
+      <c r="K1269" s="5">
+        <v>47828.239559999995</v>
+      </c>
+      <c r="L1269" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1270" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>691</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1270">
+        <v>45091.11</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1270">
+        <v>0.15</v>
+      </c>
+      <c r="J1270">
+        <v>0.15</v>
+      </c>
+      <c r="K1270" s="5">
+        <v>6763.6665000000003</v>
+      </c>
+      <c r="L1270" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1271" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1271">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1271">
+        <v>401</v>
+      </c>
+      <c r="I1271">
+        <v>0.4</v>
+      </c>
+      <c r="J1271">
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="K1271" s="5">
+        <v>156052.74956903225</v>
+      </c>
+      <c r="L1271" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1272" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1272">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1272">
+        <v>0.15</v>
+      </c>
+      <c r="J1272">
+        <v>0.15</v>
+      </c>
+      <c r="K1272" s="5">
+        <v>33740.496599999991</v>
+      </c>
+      <c r="L1272" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1273" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>769</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1273">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>770</v>
+      </c>
+      <c r="I1273">
+        <v>0.4</v>
+      </c>
+      <c r="J1273">
+        <v>0.1</v>
+      </c>
+      <c r="K1273" s="5">
+        <v>22493.664399999998</v>
+      </c>
+      <c r="L1273" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1274" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>769</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1274">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>771</v>
+      </c>
+      <c r="I1274">
+        <v>0.4</v>
+      </c>
+      <c r="J1274">
+        <v>0.1</v>
+      </c>
+      <c r="K1274" s="5">
+        <v>22493.664399999998</v>
+      </c>
+      <c r="L1274" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1275" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>769</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1275">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>772</v>
+      </c>
+      <c r="I1275">
+        <v>0.4</v>
+      </c>
+      <c r="J1275">
+        <v>0.1</v>
+      </c>
+      <c r="K1275" s="5">
+        <v>22493.664399999998</v>
+      </c>
+      <c r="L1275" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1276" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>769</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1276">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>773</v>
+      </c>
+      <c r="I1276">
+        <v>0.4</v>
+      </c>
+      <c r="J1276">
+        <v>0.1</v>
+      </c>
+      <c r="K1276" s="5">
+        <v>22493.664399999998</v>
+      </c>
+      <c r="L1276" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1277" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1277">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>770</v>
+      </c>
+      <c r="I1277">
+        <v>0.4</v>
+      </c>
+      <c r="J1277">
+        <v>0.1</v>
+      </c>
+      <c r="K1277" s="5">
+        <v>22493.664399999998</v>
+      </c>
+      <c r="L1277" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1278" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1278">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>771</v>
+      </c>
+      <c r="I1278">
+        <v>0.4</v>
+      </c>
+      <c r="J1278">
+        <v>0.1</v>
+      </c>
+      <c r="K1278" s="5">
+        <v>22493.664399999998</v>
+      </c>
+      <c r="L1278" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1279" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1279">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>772</v>
+      </c>
+      <c r="I1279">
+        <v>0.4</v>
+      </c>
+      <c r="J1279">
+        <v>0.1</v>
+      </c>
+      <c r="K1279" s="5">
+        <v>22493.664399999998</v>
+      </c>
+      <c r="L1279" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1280" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>659</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1280">
+        <v>224936.64399999997</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>773</v>
+      </c>
+      <c r="I1280">
+        <v>0.4</v>
+      </c>
+      <c r="J1280">
+        <v>0.1</v>
+      </c>
+      <c r="K1280" s="5">
+        <v>22493.664399999998</v>
+      </c>
+      <c r="L1280" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1281" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>753</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>754</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1281">
+        <v>11317.342799999999</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1281">
+        <v>0.15</v>
+      </c>
+      <c r="J1281">
+        <v>0.15</v>
+      </c>
+      <c r="K1281" s="5">
+        <v>1697.6014199999997</v>
+      </c>
+      <c r="L1281" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1282" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>753</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>754</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1282">
+        <v>11317.342799999999</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1282">
+        <v>0.4</v>
+      </c>
+      <c r="J1282">
+        <v>0.4</v>
+      </c>
+      <c r="K1282" s="5">
+        <v>4526.9371199999996</v>
+      </c>
+      <c r="L1282" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1283" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1283">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1283">
+        <v>403</v>
+      </c>
+      <c r="I1283">
+        <v>0.4</v>
+      </c>
+      <c r="J1283">
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="K1283" s="5">
+        <v>156052.74956903225</v>
+      </c>
+      <c r="L1283" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1284" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1284">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1284">
+        <v>304</v>
+      </c>
+      <c r="I1284">
+        <v>0.4</v>
+      </c>
+      <c r="J1284">
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="K1284" s="5">
+        <v>156052.74956903225</v>
+      </c>
+      <c r="L1284" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1285" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1285">
+        <v>275408.58039999998</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1285">
+        <v>0.4</v>
+      </c>
+      <c r="J1285">
+        <v>0.4</v>
+      </c>
+      <c r="K1285" s="5">
+        <v>110163.43216</v>
+      </c>
+      <c r="L1285" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1286" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1286">
+        <v>311430.68</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1286">
+        <v>0.15</v>
+      </c>
+      <c r="J1286">
+        <v>0.15</v>
+      </c>
+      <c r="K1286" s="5">
+        <v>46714.601999999999</v>
+      </c>
+      <c r="L1286" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1287" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1287">
+        <v>311430.68</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>592</v>
+      </c>
+      <c r="I1287">
+        <v>0.4</v>
+      </c>
+      <c r="J1287">
+        <v>0.04</v>
+      </c>
+      <c r="K1287" s="5">
+        <v>12457.227199999999</v>
+      </c>
+      <c r="L1287" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1288" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1288">
+        <v>311430.68</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>593</v>
+      </c>
+      <c r="I1288">
+        <v>0.4</v>
+      </c>
+      <c r="J1288">
+        <v>0.04</v>
+      </c>
+      <c r="K1288" s="5">
+        <v>12457.227199999999</v>
+      </c>
+      <c r="L1288" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1289" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1289">
+        <v>311430.68</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1289">
+        <v>0.4</v>
+      </c>
+      <c r="J1289">
+        <v>0.04</v>
+      </c>
+      <c r="K1289" s="5">
+        <v>12457.227199999999</v>
+      </c>
+      <c r="L1289" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1290" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1290">
+        <v>311430.68</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1290">
+        <v>0.4</v>
+      </c>
+      <c r="J1290">
+        <v>0.04</v>
+      </c>
+      <c r="K1290" s="5">
+        <v>12457.227199999999</v>
+      </c>
+      <c r="L1290" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1291" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1291">
+        <v>311430.68</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>723</v>
+      </c>
+      <c r="I1291">
+        <v>0.4</v>
+      </c>
+      <c r="J1291">
+        <v>0.04</v>
+      </c>
+      <c r="K1291" s="5">
+        <v>12457.227199999999</v>
+      </c>
+      <c r="L1291" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1292" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1292">
+        <v>311430.68</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>724</v>
+      </c>
+      <c r="I1292">
+        <v>0.4</v>
+      </c>
+      <c r="J1292">
+        <v>0.04</v>
+      </c>
+      <c r="K1292" s="5">
+        <v>12457.227199999999</v>
+      </c>
+      <c r="L1292" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1293" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1293">
+        <v>311430.68</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>592</v>
+      </c>
+      <c r="I1293">
+        <v>0.2</v>
+      </c>
+      <c r="J1293">
+        <v>0.02</v>
+      </c>
+      <c r="K1293" s="5">
+        <v>6228.6135999999997</v>
+      </c>
+      <c r="L1293" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1294" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1294">
+        <v>311430.68</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>593</v>
+      </c>
+      <c r="I1294">
+        <v>0.2</v>
+      </c>
+      <c r="J1294">
+        <v>0.02</v>
+      </c>
+      <c r="K1294" s="5">
+        <v>6228.6135999999997</v>
+      </c>
+      <c r="L1294" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1295" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1295">
+        <v>311430.68</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1295">
+        <v>0.2</v>
+      </c>
+      <c r="J1295">
+        <v>0.02</v>
+      </c>
+      <c r="K1295" s="5">
+        <v>6228.6135999999997</v>
+      </c>
+      <c r="L1295" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1296" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1296">
+        <v>147884.11959999998</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>720</v>
+      </c>
+      <c r="I1296">
+        <v>0.1</v>
+      </c>
+      <c r="J1296">
+        <v>0.02</v>
+      </c>
+      <c r="K1296" s="5">
+        <v>2957.6823919999997</v>
+      </c>
+      <c r="L1296" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1297" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1297">
+        <v>147884.11959999998</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>721</v>
+      </c>
+      <c r="I1297">
+        <v>0.1</v>
+      </c>
+      <c r="J1297">
+        <v>0.02</v>
+      </c>
+      <c r="K1297" s="5">
+        <v>2957.6823919999997</v>
+      </c>
+      <c r="L1297" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1298" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1298">
+        <v>147884.11959999998</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>722</v>
+      </c>
+      <c r="I1298">
+        <v>0.1</v>
+      </c>
+      <c r="J1298">
+        <v>0.02</v>
+      </c>
+      <c r="K1298" s="5">
+        <v>2957.6823919999997</v>
+      </c>
+      <c r="L1298" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1299" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1299">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1299">
+        <v>0.1</v>
+      </c>
+      <c r="J1299">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1299" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1299" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1300" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1300">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1300">
+        <v>0.1</v>
+      </c>
+      <c r="J1300">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1300" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1300" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1301" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1301">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1301">
+        <v>0.1</v>
+      </c>
+      <c r="J1301">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1301" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1301" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1302" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1302">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1302">
+        <v>0.2</v>
+      </c>
+      <c r="J1302">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K1302" s="5">
+        <v>9139.9999866666658</v>
+      </c>
+      <c r="L1302" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1303" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1303">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1303">
+        <v>0.2</v>
+      </c>
+      <c r="J1303">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K1303" s="5">
+        <v>9139.9999866666658</v>
+      </c>
+      <c r="L1303" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1304" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1304">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>480</v>
+      </c>
+      <c r="I1304">
+        <v>0.2</v>
+      </c>
+      <c r="J1304">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K1304" s="5">
+        <v>9139.9999866666658</v>
+      </c>
+      <c r="L1304" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1305" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1305">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1305">
+        <v>0.2</v>
+      </c>
+      <c r="J1305">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K1305" s="5">
+        <v>9139.9999866666658</v>
+      </c>
+      <c r="L1305" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1306" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1306">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1306">
+        <v>0.2</v>
+      </c>
+      <c r="J1306">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K1306" s="5">
+        <v>9139.9999866666658</v>
+      </c>
+      <c r="L1306" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1307" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1307">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1307">
+        <v>0.2</v>
+      </c>
+      <c r="J1307">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K1307" s="5">
+        <v>9139.9999866666658</v>
+      </c>
+      <c r="L1307" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1308" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>650</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1308">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>743</v>
+      </c>
+      <c r="I1308">
+        <v>0.2</v>
+      </c>
+      <c r="J1308">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1308" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1308" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1309" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>668</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1309">
+        <v>217638.7824</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>774</v>
+      </c>
+      <c r="I1309">
+        <v>0.2</v>
+      </c>
+      <c r="J1309">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K1309" s="5">
+        <v>14509.25216</v>
+      </c>
+      <c r="L1309" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1310" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>668</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1310">
+        <v>217638.7824</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>775</v>
+      </c>
+      <c r="I1310">
+        <v>0.2</v>
+      </c>
+      <c r="J1310">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K1310" s="5">
+        <v>14509.25216</v>
+      </c>
+      <c r="L1310" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1311" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>668</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1311">
+        <v>217638.7824</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>776</v>
+      </c>
+      <c r="I1311">
+        <v>0.2</v>
+      </c>
+      <c r="J1311">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K1311" s="5">
+        <v>14509.25216</v>
+      </c>
+      <c r="L1311" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1312" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1312">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1312">
+        <v>401</v>
+      </c>
+      <c r="I1312">
+        <v>0.2</v>
+      </c>
+      <c r="J1312">
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="K1312" s="5">
+        <v>78026.374784516127</v>
+      </c>
+      <c r="L1312" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1313" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1313">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1313">
+        <v>402</v>
+      </c>
+      <c r="I1313">
+        <v>0.2</v>
+      </c>
+      <c r="J1313">
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="K1313" s="5">
+        <v>78026.374784516127</v>
+      </c>
+      <c r="L1313" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1314" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1314">
+        <v>12094088.091599999</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1314">
+        <v>302</v>
+      </c>
+      <c r="I1314">
+        <v>0.1</v>
+      </c>
+      <c r="J1314">
+        <v>3.2258064516129032E-3</v>
+      </c>
+      <c r="K1314" s="5">
+        <v>39013.187392258063</v>
+      </c>
+      <c r="L1314" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1315" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1315">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1315">
+        <v>0.2</v>
+      </c>
+      <c r="J1315">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1315" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1315" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1316" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1316">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>733</v>
+      </c>
+      <c r="I1316">
+        <v>0.2</v>
+      </c>
+      <c r="J1316">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1316" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1316" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1317" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1317">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>734</v>
+      </c>
+      <c r="I1317">
+        <v>0.2</v>
+      </c>
+      <c r="J1317">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1317" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1317" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1318" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1318">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>738</v>
+      </c>
+      <c r="I1318">
+        <v>0.2</v>
+      </c>
+      <c r="J1318">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1318" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1318" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1319" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1319">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>740</v>
+      </c>
+      <c r="I1319">
+        <v>0.2</v>
+      </c>
+      <c r="J1319">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1319" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1319" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1320" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1320">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>741</v>
+      </c>
+      <c r="I1320">
+        <v>0.2</v>
+      </c>
+      <c r="J1320">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1320" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1320" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1321" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1321">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>742</v>
+      </c>
+      <c r="I1321">
+        <v>0.2</v>
+      </c>
+      <c r="J1321">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1321" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1321" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1322" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1322">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>743</v>
+      </c>
+      <c r="I1322">
+        <v>0.2</v>
+      </c>
+      <c r="J1322">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K1322" s="5">
+        <v>9389.9999870000011</v>
+      </c>
+      <c r="L1322" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1323" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1323">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>716</v>
+      </c>
+      <c r="I1323">
+        <v>0.2</v>
+      </c>
+      <c r="J1323">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K1323" s="5">
+        <v>6000.0008586666663</v>
+      </c>
+      <c r="L1323" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1324" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1324">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>717</v>
+      </c>
+      <c r="I1324">
+        <v>0.2</v>
+      </c>
+      <c r="J1324">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K1324" s="5">
+        <v>6000.0008586666663</v>
+      </c>
+      <c r="L1324" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1325" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1325">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>726</v>
+      </c>
+      <c r="I1325">
+        <v>0.2</v>
+      </c>
+      <c r="J1325">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K1325" s="5">
+        <v>6000.0008586666663</v>
+      </c>
+      <c r="L1325" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1326" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1326">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>727</v>
+      </c>
+      <c r="I1326">
+        <v>0.2</v>
+      </c>
+      <c r="J1326">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K1326" s="5">
+        <v>6000.0008586666663</v>
+      </c>
+      <c r="L1326" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1327" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1327">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1327">
+        <v>0.2</v>
+      </c>
+      <c r="J1327">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K1327" s="5">
+        <v>6000.0008586666663</v>
+      </c>
+      <c r="L1327" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1328" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1328">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1328">
+        <v>0.1</v>
+      </c>
+      <c r="J1328">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K1328" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L1328" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1329" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1329">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>715</v>
+      </c>
+      <c r="I1329">
+        <v>0.1</v>
+      </c>
+      <c r="J1329">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K1329" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L1329" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1330" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1330">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>716</v>
+      </c>
+      <c r="I1330">
+        <v>0.1</v>
+      </c>
+      <c r="J1330">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K1330" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L1330" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1331" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1331">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>717</v>
+      </c>
+      <c r="I1331">
+        <v>0.1</v>
+      </c>
+      <c r="J1331">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K1331" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L1331" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1332" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1332">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>726</v>
+      </c>
+      <c r="I1332">
+        <v>0.1</v>
+      </c>
+      <c r="J1332">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K1332" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L1332" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1333" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1333">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>727</v>
+      </c>
+      <c r="I1333">
+        <v>0.1</v>
+      </c>
+      <c r="J1333">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K1333" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L1333" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1334" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1334">
+        <v>450000.06439999997</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1334">
+        <v>0.1</v>
+      </c>
+      <c r="J1334">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K1334" s="5">
+        <v>3000.0004293333332</v>
+      </c>
+      <c r="L1334" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1335" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1335">
+        <v>311430.68</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>592</v>
+      </c>
+      <c r="I1335">
+        <v>0.1</v>
+      </c>
+      <c r="J1335">
+        <v>0.01</v>
+      </c>
+      <c r="K1335" s="5">
+        <v>3114.3067999999998</v>
+      </c>
+      <c r="L1335" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1336" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1336">
+        <v>311430.68</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>593</v>
+      </c>
+      <c r="I1336">
+        <v>0.1</v>
+      </c>
+      <c r="J1336">
+        <v>0.01</v>
+      </c>
+      <c r="K1336" s="5">
+        <v>3114.3067999999998</v>
+      </c>
+      <c r="L1336" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1337" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1337">
+        <v>311430.68</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1337">
+        <v>0.1</v>
+      </c>
+      <c r="J1337">
+        <v>0.01</v>
+      </c>
+      <c r="K1337" s="5">
+        <v>3114.3067999999998</v>
+      </c>
+      <c r="L1337" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1338" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1338">
+        <v>307696.06679999997</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1338">
+        <v>0.2</v>
+      </c>
+      <c r="J1338">
+        <v>0.2</v>
+      </c>
+      <c r="K1338" s="5">
+        <v>61539.213359999994</v>
+      </c>
+      <c r="L1338" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1339" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1339">
+        <v>902071.04760000005</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1339">
+        <v>0.1</v>
+      </c>
+      <c r="J1339">
+        <v>0.1</v>
+      </c>
+      <c r="K1339" s="5">
+        <v>90207.104760000017</v>
+      </c>
+      <c r="L1339" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1340" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1340">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1340">
+        <v>0.1</v>
+      </c>
+      <c r="J1340">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1340" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1340" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1341" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1341">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1341">
+        <v>0.1</v>
+      </c>
+      <c r="J1341">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1341" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1341" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1342" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1342">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>480</v>
+      </c>
+      <c r="I1342">
+        <v>0.1</v>
+      </c>
+      <c r="J1342">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1342" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1342" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1343" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1343">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1343">
+        <v>0.1</v>
+      </c>
+      <c r="J1343">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1343" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1343" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1344" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1344">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1344">
+        <v>0.1</v>
+      </c>
+      <c r="J1344">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1344" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1344" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1345" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1345">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1345">
+        <v>0.1</v>
+      </c>
+      <c r="J1345">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K1345" s="5">
+        <v>4569.9999933333329</v>
+      </c>
+      <c r="L1345" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1346" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>662</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1346">
+        <v>388524.75079999998</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1346">
+        <v>0.1</v>
+      </c>
+      <c r="J1346">
+        <v>0.1</v>
+      </c>
+      <c r="K1346" s="5">
+        <v>38852.475079999997</v>
+      </c>
+      <c r="L1346" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1347" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1347">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1347">
+        <v>0.15</v>
+      </c>
+      <c r="J1347">
+        <v>0.15</v>
+      </c>
+      <c r="K1347" s="5">
+        <v>56339.999921999995</v>
+      </c>
+      <c r="L1347" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1348" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1348">
+        <v>56238.632799999999</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1348">
+        <v>1</v>
+      </c>
+      <c r="J1348">
+        <v>1</v>
+      </c>
+      <c r="K1348" s="5">
+        <v>56238.632799999999</v>
+      </c>
+      <c r="L1348" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1349" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1349">
+        <v>97546.453200000004</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1349">
+        <v>1</v>
+      </c>
+      <c r="J1349">
+        <v>1</v>
+      </c>
+      <c r="K1349" s="5">
+        <v>97546.453200000004</v>
+      </c>
+      <c r="L1349" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1350" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1350">
+        <v>391910.00040000002</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1350">
+        <v>0.1</v>
+      </c>
+      <c r="J1350">
+        <v>0.1</v>
+      </c>
+      <c r="K1350" s="5">
+        <v>39191.000040000006</v>
+      </c>
+      <c r="L1350" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1351" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1351">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1351">
+        <v>0.15</v>
+      </c>
+      <c r="J1351">
+        <v>0.15</v>
+      </c>
+      <c r="K1351" s="5">
+        <v>80450.519939999984</v>
+      </c>
+      <c r="L1351" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1352" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1352">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>730</v>
+      </c>
+      <c r="I1352">
+        <v>0.1</v>
+      </c>
+      <c r="J1352">
+        <v>0.01</v>
+      </c>
+      <c r="K1352" s="5">
+        <v>5363.367995999999</v>
+      </c>
+      <c r="L1352" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1353" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1353">
+        <v>536336.79959999991</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>731</v>
+      </c>
+      <c r="I1353">
+        <v>0.1</v>
+      </c>
+      <c r="J1353">
+        <v>0.01</v>
+      </c>
+      <c r="K1353" s="5">
+        <v>5363.367995999999</v>
+      </c>
+      <c r="L1353" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1354" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1354">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1354">
+        <v>0.15</v>
+      </c>
+      <c r="J1354">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="K1354" s="5">
+        <v>6854.9999899999993</v>
+      </c>
+      <c r="L1354" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1355" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1355">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>480</v>
+      </c>
+      <c r="I1355">
+        <v>0.15</v>
+      </c>
+      <c r="J1355">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="K1355" s="5">
+        <v>6854.9999899999993</v>
+      </c>
+      <c r="L1355" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1356" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1356">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1356">
+        <v>0.15</v>
+      </c>
+      <c r="J1356">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="K1356" s="5">
+        <v>6854.9999899999993</v>
+      </c>
+      <c r="L1356" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1357" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1357">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1357">
+        <v>0.15</v>
+      </c>
+      <c r="J1357">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="K1357" s="5">
+        <v>6854.9999899999993</v>
+      </c>
+      <c r="L1357" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1358" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1358">
+        <v>274199.99959999998</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1358">
+        <v>0.15</v>
+      </c>
+      <c r="J1358">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="K1358" s="5">
+        <v>6854.9999899999993</v>
+      </c>
+      <c r="L1358" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1359" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1359">
+        <v>375599.99948</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1359">
+        <v>0.15</v>
+      </c>
+      <c r="J1359">
+        <v>0.15</v>
+      </c>
+      <c r="K1359" s="5">
+        <v>56339.999921999995</v>
+      </c>
+      <c r="L1359" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1360" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1360">
+        <v>22079.637199999997</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1360">
+        <v>0.15</v>
+      </c>
+      <c r="J1360">
+        <v>0.15</v>
+      </c>
+      <c r="K1360" s="5">
+        <v>3311.9455799999996</v>
+      </c>
+      <c r="L1360" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1361" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1361">
+        <v>22079.637199999997</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1361">
+        <v>0.4</v>
+      </c>
+      <c r="J1361">
+        <v>0.4</v>
+      </c>
+      <c r="K1361" s="5">
+        <v>8831.854879999999</v>
+      </c>
+      <c r="L1361" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1362" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1362">
+        <v>22079.637199999997</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1362">
+        <v>0.2</v>
+      </c>
+      <c r="J1362">
+        <v>0.2</v>
+      </c>
+      <c r="K1362" s="5">
+        <v>4415.9274399999995</v>
+      </c>
+      <c r="L1362" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1363" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1363">
+        <v>22079.637199999997</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1363">
+        <v>0.1</v>
+      </c>
+      <c r="J1363">
+        <v>0.1</v>
+      </c>
+      <c r="K1363" s="5">
+        <v>2207.9637199999997</v>
+      </c>
+      <c r="L1363" t="s">
+        <v>748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
